--- a/inputs/casesmatrix.xlsx
+++ b/inputs/casesmatrix.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pietro\Documents\GitHub\loadshifting\inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pietro\Documents\git\loadshifting\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AA2875D-48E6-49B1-8E2F-24C02DFE1CFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{920C5F5C-8027-467B-9815-9992EF819318}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1110" yWindow="1155" windowWidth="18000" windowHeight="9360" activeTab="1" xr2:uid="{46087CE1-E58F-4340-83BE-543FB175C0E5}"/>
+    <workbookView xWindow="-11280" yWindow="3420" windowWidth="21600" windowHeight="12090" xr2:uid="{46087CE1-E58F-4340-83BE-543FB175C0E5}"/>
   </bookViews>
   <sheets>
     <sheet name="Arborescence" sheetId="22" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="49">
   <si>
     <t>PV</t>
   </si>
@@ -134,12 +134,6 @@
   </si>
   <si>
     <t>cases that can be simulated right now</t>
-  </si>
-  <si>
-    <t>sent</t>
-  </si>
-  <si>
-    <t>current</t>
   </si>
   <si>
     <t>facades</t>
@@ -255,7 +249,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -290,35 +284,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -9490,54 +9460,54 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{918CBCC0-AC6A-4943-8BE8-17609B6A2A0A}">
-  <dimension ref="B2:AH94"/>
+  <dimension ref="B2:AE94"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="S10" sqref="S10:AH10"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="T17" sqref="T17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="15" max="15" width="39.5703125" customWidth="1"/>
-    <col min="16" max="30" width="9.140625" customWidth="1"/>
+    <col min="16" max="27" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B4" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="2:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E10" s="11"/>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
@@ -9549,63 +9519,56 @@
       <c r="M10" s="11"/>
       <c r="N10" s="11"/>
       <c r="O10" s="11"/>
-      <c r="P10" s="18" t="s">
+      <c r="P10" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q10" t="s">
         <v>33</v>
       </c>
-      <c r="Q10" s="18" t="s">
+      <c r="R10" t="s">
         <v>34</v>
       </c>
-      <c r="R10" s="18"/>
       <c r="S10" t="s">
+        <v>35</v>
+      </c>
+      <c r="T10" t="s">
+        <v>36</v>
+      </c>
+      <c r="U10" t="s">
+        <v>37</v>
+      </c>
+      <c r="V10" t="s">
+        <v>38</v>
+      </c>
+      <c r="W10" t="s">
+        <v>39</v>
+      </c>
+      <c r="X10" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z10" t="s">
         <v>47</v>
       </c>
-      <c r="T10" t="s">
-        <v>35</v>
-      </c>
-      <c r="U10" t="s">
-        <v>36</v>
-      </c>
-      <c r="V10" t="s">
-        <v>37</v>
-      </c>
-      <c r="W10" t="s">
-        <v>38</v>
-      </c>
-      <c r="X10" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z10" t="s">
+      <c r="AA10" t="s">
         <v>41</v>
       </c>
-      <c r="AA10" t="s">
+      <c r="AB10" t="s">
         <v>42</v>
       </c>
-      <c r="AB10" t="s">
-        <v>48</v>
-      </c>
       <c r="AC10" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="AD10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AE10" t="s">
-        <v>44</v>
-      </c>
-      <c r="AF10" t="s">
-        <v>45</v>
-      </c>
-      <c r="AG10" t="s">
-        <v>46</v>
-      </c>
-      <c r="AH10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
         <v>10</v>
       </c>
@@ -9634,29 +9597,29 @@
       <c r="O11" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="P11" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q11" s="3">
-        <v>1</v>
-      </c>
-      <c r="R11" s="3">
-        <v>1</v>
+      <c r="P11">
+        <v>1</v>
+      </c>
+      <c r="Q11">
+        <v>4</v>
+      </c>
+      <c r="R11">
+        <v>4</v>
       </c>
       <c r="S11">
         <v>1</v>
       </c>
       <c r="T11">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="U11">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="V11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X11">
         <v>0</v>
@@ -9682,17 +9645,8 @@
       <c r="AE11">
         <v>0</v>
       </c>
-      <c r="AF11">
-        <v>0</v>
-      </c>
-      <c r="AG11">
-        <v>0</v>
-      </c>
-      <c r="AH11">
-        <v>0</v>
-      </c>
     </row>
-    <row r="12" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -9711,44 +9665,44 @@
       <c r="O12" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="P12" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>1</v>
-      </c>
-      <c r="R12" s="3">
-        <v>1</v>
+      <c r="P12">
+        <v>2</v>
+      </c>
+      <c r="Q12">
+        <v>4</v>
+      </c>
+      <c r="R12">
+        <v>4</v>
       </c>
       <c r="S12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T12">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="U12">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="V12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z12">
         <v>0</v>
       </c>
       <c r="AA12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC12">
         <v>0</v>
@@ -9759,17 +9713,8 @@
       <c r="AE12">
         <v>0</v>
       </c>
-      <c r="AF12">
-        <v>0</v>
-      </c>
-      <c r="AG12">
-        <v>0</v>
-      </c>
-      <c r="AH12">
-        <v>0</v>
-      </c>
     </row>
-    <row r="13" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -9788,47 +9733,47 @@
       <c r="O13" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="P13" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q13" s="3">
-        <v>1</v>
-      </c>
-      <c r="R13" s="3">
-        <v>1</v>
+      <c r="P13">
+        <v>3</v>
+      </c>
+      <c r="Q13">
+        <v>4</v>
+      </c>
+      <c r="R13">
+        <v>4</v>
       </c>
       <c r="S13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T13">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="U13">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="V13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y13">
         <v>0</v>
       </c>
       <c r="Z13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB13">
         <v>0</v>
       </c>
       <c r="AC13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD13">
         <v>0</v>
@@ -9836,17 +9781,8 @@
       <c r="AE13">
         <v>0</v>
       </c>
-      <c r="AF13">
-        <v>0</v>
-      </c>
-      <c r="AG13">
-        <v>0</v>
-      </c>
-      <c r="AH13">
-        <v>0</v>
-      </c>
     </row>
-    <row r="14" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -9869,29 +9805,29 @@
       <c r="O14" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="P14" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>1</v>
-      </c>
-      <c r="R14" s="3">
-        <v>1</v>
+      <c r="P14">
+        <v>4</v>
+      </c>
+      <c r="Q14">
+        <v>4</v>
+      </c>
+      <c r="R14">
+        <v>4</v>
       </c>
       <c r="S14">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T14">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="U14">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="V14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X14">
         <v>0</v>
@@ -9912,22 +9848,13 @@
         <v>0</v>
       </c>
       <c r="AD14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE14">
         <v>0</v>
       </c>
-      <c r="AF14">
-        <v>0</v>
-      </c>
-      <c r="AG14">
-        <v>1</v>
-      </c>
-      <c r="AH14">
-        <v>0</v>
-      </c>
     </row>
-    <row r="15" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -9946,65 +9873,56 @@
       <c r="O15" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="P15" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>1</v>
-      </c>
-      <c r="R15" s="3">
-        <v>1</v>
+      <c r="P15">
+        <v>5</v>
+      </c>
+      <c r="Q15">
+        <v>4</v>
+      </c>
+      <c r="R15">
+        <v>4</v>
       </c>
       <c r="S15">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T15">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="U15">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="V15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z15">
         <v>0</v>
       </c>
       <c r="AA15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC15">
         <v>0</v>
       </c>
       <c r="AD15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE15">
         <v>0</v>
       </c>
-      <c r="AF15">
-        <v>0</v>
-      </c>
-      <c r="AG15">
-        <v>1</v>
-      </c>
-      <c r="AH15">
-        <v>0</v>
-      </c>
     </row>
-    <row r="16" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -10023,65 +9941,56 @@
       <c r="O16" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="P16" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q16" s="3">
-        <v>1</v>
-      </c>
-      <c r="R16" s="3">
-        <v>1</v>
+      <c r="P16">
+        <v>6</v>
+      </c>
+      <c r="Q16">
+        <v>4</v>
+      </c>
+      <c r="R16">
+        <v>4</v>
       </c>
       <c r="S16">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="T16">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="U16">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="V16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y16">
         <v>0</v>
       </c>
       <c r="Z16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB16">
         <v>0</v>
       </c>
       <c r="AC16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE16">
         <v>0</v>
       </c>
-      <c r="AF16">
-        <v>0</v>
-      </c>
-      <c r="AG16">
-        <v>1</v>
-      </c>
-      <c r="AH16">
-        <v>0</v>
-      </c>
     </row>
-    <row r="17" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -10102,29 +10011,29 @@
       <c r="O17" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="P17" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>1</v>
-      </c>
-      <c r="R17" s="3">
-        <v>1</v>
+      <c r="P17">
+        <v>7</v>
+      </c>
+      <c r="Q17">
+        <v>4</v>
+      </c>
+      <c r="R17">
+        <v>4</v>
       </c>
       <c r="S17">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="T17">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="U17">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="V17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X17">
         <v>0</v>
@@ -10133,7 +10042,7 @@
         <v>0</v>
       </c>
       <c r="Z17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA17">
         <v>0</v>
@@ -10142,25 +10051,16 @@
         <v>0</v>
       </c>
       <c r="AC17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE17">
-        <v>0</v>
-      </c>
-      <c r="AF17">
-        <v>0</v>
-      </c>
-      <c r="AG17">
-        <v>1</v>
-      </c>
-      <c r="AH17">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -10179,65 +10079,56 @@
       <c r="O18" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="P18" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>1</v>
-      </c>
-      <c r="R18" s="3">
-        <v>1</v>
+      <c r="P18">
+        <v>8</v>
+      </c>
+      <c r="Q18">
+        <v>4</v>
+      </c>
+      <c r="R18">
+        <v>4</v>
       </c>
       <c r="S18">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="T18">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="U18">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="V18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y18">
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB18">
         <v>0</v>
       </c>
       <c r="AC18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE18">
-        <v>0</v>
-      </c>
-      <c r="AF18">
-        <v>0</v>
-      </c>
-      <c r="AG18">
-        <v>1</v>
-      </c>
-      <c r="AH18">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -10262,32 +10153,32 @@
       <c r="O19" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="P19" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q19" s="3">
-        <v>1</v>
-      </c>
-      <c r="R19" s="3">
-        <v>1</v>
+      <c r="P19">
+        <v>9</v>
+      </c>
+      <c r="Q19">
+        <v>4</v>
+      </c>
+      <c r="R19">
+        <v>4</v>
       </c>
       <c r="S19">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="T19">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="U19">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y19">
         <v>0</v>
@@ -10310,17 +10201,8 @@
       <c r="AE19">
         <v>0</v>
       </c>
-      <c r="AF19">
-        <v>0</v>
-      </c>
-      <c r="AG19">
-        <v>0</v>
-      </c>
-      <c r="AH19">
-        <v>0</v>
-      </c>
     </row>
-    <row r="20" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -10339,32 +10221,32 @@
       <c r="O20" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
-      <c r="R20" s="3">
-        <v>1</v>
+      <c r="P20">
+        <v>10</v>
+      </c>
+      <c r="Q20">
+        <v>4</v>
+      </c>
+      <c r="R20">
+        <v>4</v>
       </c>
       <c r="S20">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T20">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="U20">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y20">
         <v>0</v>
@@ -10373,7 +10255,7 @@
         <v>0</v>
       </c>
       <c r="AA20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB20">
         <v>0</v>
@@ -10382,22 +10264,13 @@
         <v>0</v>
       </c>
       <c r="AD20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE20">
         <v>0</v>
       </c>
-      <c r="AF20">
-        <v>0</v>
-      </c>
-      <c r="AG20">
-        <v>0</v>
-      </c>
-      <c r="AH20">
-        <v>0</v>
-      </c>
     </row>
-    <row r="21" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -10420,32 +10293,32 @@
       <c r="O21" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="P21" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q21" s="3">
-        <v>1</v>
-      </c>
-      <c r="R21" s="3">
-        <v>1</v>
+      <c r="P21">
+        <v>11</v>
+      </c>
+      <c r="Q21">
+        <v>4</v>
+      </c>
+      <c r="R21">
+        <v>4</v>
       </c>
       <c r="S21">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="T21">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="U21">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y21">
         <v>0</v>
@@ -10463,22 +10336,13 @@
         <v>0</v>
       </c>
       <c r="AD21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE21">
         <v>0</v>
       </c>
-      <c r="AF21">
-        <v>0</v>
-      </c>
-      <c r="AG21">
-        <v>1</v>
-      </c>
-      <c r="AH21">
-        <v>0</v>
-      </c>
     </row>
-    <row r="22" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -10497,32 +10361,32 @@
       <c r="O22" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>1</v>
-      </c>
-      <c r="R22" s="3">
-        <v>1</v>
+      <c r="P22">
+        <v>12</v>
+      </c>
+      <c r="Q22">
+        <v>4</v>
+      </c>
+      <c r="R22">
+        <v>4</v>
       </c>
       <c r="S22">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="T22">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="U22">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y22">
         <v>0</v>
@@ -10531,7 +10395,7 @@
         <v>0</v>
       </c>
       <c r="AA22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB22">
         <v>0</v>
@@ -10545,17 +10409,8 @@
       <c r="AE22">
         <v>0</v>
       </c>
-      <c r="AF22">
-        <v>0</v>
-      </c>
-      <c r="AG22">
-        <v>1</v>
-      </c>
-      <c r="AH22">
-        <v>0</v>
-      </c>
     </row>
-    <row r="23" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -10576,32 +10431,32 @@
       <c r="O23" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="P23" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>1</v>
-      </c>
-      <c r="R23" s="3">
-        <v>1</v>
+      <c r="P23">
+        <v>13</v>
+      </c>
+      <c r="Q23">
+        <v>4</v>
+      </c>
+      <c r="R23">
+        <v>4</v>
       </c>
       <c r="S23">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="T23">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="U23">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y23">
         <v>0</v>
@@ -10619,22 +10474,13 @@
         <v>0</v>
       </c>
       <c r="AD23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE23">
-        <v>0</v>
-      </c>
-      <c r="AF23">
-        <v>0</v>
-      </c>
-      <c r="AG23">
-        <v>1</v>
-      </c>
-      <c r="AH23">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -10653,32 +10499,32 @@
       <c r="O24" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>1</v>
-      </c>
-      <c r="R24" s="3">
-        <v>1</v>
+      <c r="P24">
+        <v>14</v>
+      </c>
+      <c r="Q24">
+        <v>4</v>
+      </c>
+      <c r="R24">
+        <v>4</v>
       </c>
       <c r="S24">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="T24">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="U24">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y24">
         <v>0</v>
@@ -10687,7 +10533,7 @@
         <v>0</v>
       </c>
       <c r="AA24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB24">
         <v>0</v>
@@ -10699,19 +10545,10 @@
         <v>1</v>
       </c>
       <c r="AE24">
-        <v>0</v>
-      </c>
-      <c r="AF24">
-        <v>0</v>
-      </c>
-      <c r="AG24">
-        <v>1</v>
-      </c>
-      <c r="AH24">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -10736,35 +10573,35 @@
       <c r="O25" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="P25" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q25" s="3">
-        <v>1</v>
-      </c>
-      <c r="R25" s="3">
-        <v>1</v>
+      <c r="P25">
+        <v>15</v>
+      </c>
+      <c r="Q25">
+        <v>4</v>
+      </c>
+      <c r="R25">
+        <v>4</v>
       </c>
       <c r="S25">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="T25">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="U25">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V25">
         <v>1</v>
       </c>
       <c r="W25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z25">
         <v>0</v>
@@ -10784,17 +10621,8 @@
       <c r="AE25">
         <v>0</v>
       </c>
-      <c r="AF25">
-        <v>0</v>
-      </c>
-      <c r="AG25">
-        <v>0</v>
-      </c>
-      <c r="AH25">
-        <v>0</v>
-      </c>
     </row>
-    <row r="26" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -10813,65 +10641,56 @@
       <c r="O26" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="P26" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>0</v>
-      </c>
-      <c r="R26" s="3">
-        <v>1</v>
+      <c r="P26">
+        <v>16</v>
+      </c>
+      <c r="Q26">
+        <v>4</v>
+      </c>
+      <c r="R26">
+        <v>4</v>
       </c>
       <c r="S26">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="T26">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="U26">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V26">
         <v>1</v>
       </c>
       <c r="W26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z26">
         <v>0</v>
       </c>
       <c r="AA26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC26">
         <v>0</v>
       </c>
       <c r="AD26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE26">
-        <v>1</v>
-      </c>
-      <c r="AF26">
-        <v>0</v>
-      </c>
-      <c r="AG26">
-        <v>0</v>
-      </c>
-      <c r="AH26">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -10894,35 +10713,35 @@
       <c r="O27" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="P27" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>1</v>
-      </c>
-      <c r="R27" s="3">
-        <v>1</v>
+      <c r="P27">
+        <v>17</v>
+      </c>
+      <c r="Q27">
+        <v>4</v>
+      </c>
+      <c r="R27">
+        <v>4</v>
       </c>
       <c r="S27">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="T27">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="U27">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V27">
         <v>1</v>
       </c>
       <c r="W27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z27">
         <v>0</v>
@@ -10937,22 +10756,13 @@
         <v>0</v>
       </c>
       <c r="AD27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE27">
         <v>0</v>
       </c>
-      <c r="AF27">
-        <v>0</v>
-      </c>
-      <c r="AG27">
-        <v>1</v>
-      </c>
-      <c r="AH27">
-        <v>0</v>
-      </c>
     </row>
-    <row r="28" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -10971,44 +10781,44 @@
       <c r="O28" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="P28" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q28" s="3">
-        <v>1</v>
-      </c>
-      <c r="R28" s="3">
-        <v>1</v>
+      <c r="P28">
+        <v>18</v>
+      </c>
+      <c r="Q28">
+        <v>4</v>
+      </c>
+      <c r="R28">
+        <v>4</v>
       </c>
       <c r="S28">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="T28">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="U28">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V28">
         <v>1</v>
       </c>
       <c r="W28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z28">
         <v>0</v>
       </c>
       <c r="AA28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC28">
         <v>0</v>
@@ -11017,19 +10827,10 @@
         <v>1</v>
       </c>
       <c r="AE28">
-        <v>1</v>
-      </c>
-      <c r="AF28">
-        <v>0</v>
-      </c>
-      <c r="AG28">
-        <v>1</v>
-      </c>
-      <c r="AH28">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
@@ -11050,35 +10851,35 @@
       <c r="O29" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="P29" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q29" s="3">
-        <v>1</v>
-      </c>
-      <c r="R29" s="3">
-        <v>1</v>
+      <c r="P29">
+        <v>19</v>
+      </c>
+      <c r="Q29">
+        <v>4</v>
+      </c>
+      <c r="R29">
+        <v>4</v>
       </c>
       <c r="S29">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="T29">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="U29">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V29">
         <v>1</v>
       </c>
       <c r="W29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z29">
         <v>0</v>
@@ -11093,22 +10894,13 @@
         <v>0</v>
       </c>
       <c r="AD29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE29">
-        <v>0</v>
-      </c>
-      <c r="AF29">
-        <v>0</v>
-      </c>
-      <c r="AG29">
-        <v>1</v>
-      </c>
-      <c r="AH29">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
@@ -11127,44 +10919,44 @@
       <c r="O30" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="P30" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="3">
-        <v>1</v>
-      </c>
-      <c r="R30" s="3">
-        <v>1</v>
+      <c r="P30">
+        <v>20</v>
+      </c>
+      <c r="Q30">
+        <v>4</v>
+      </c>
+      <c r="R30">
+        <v>4</v>
       </c>
       <c r="S30">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="T30">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="U30">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V30">
         <v>1</v>
       </c>
       <c r="W30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z30">
         <v>0</v>
       </c>
       <c r="AA30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC30">
         <v>0</v>
@@ -11175,17 +10967,8 @@
       <c r="AE30">
         <v>1</v>
       </c>
-      <c r="AF30">
-        <v>0</v>
-      </c>
-      <c r="AG30">
-        <v>1</v>
-      </c>
-      <c r="AH30">
-        <v>1</v>
-      </c>
     </row>
-    <row r="31" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
@@ -11210,23 +10993,23 @@
       <c r="O31" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="P31" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q31" s="3">
-        <v>1</v>
-      </c>
-      <c r="R31" s="3">
-        <v>1</v>
+      <c r="P31">
+        <v>21</v>
+      </c>
+      <c r="Q31">
+        <v>4</v>
+      </c>
+      <c r="R31">
+        <v>4</v>
       </c>
       <c r="S31">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="T31">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="U31">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V31">
         <v>1</v>
@@ -11235,13 +11018,13 @@
         <v>1</v>
       </c>
       <c r="X31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA31">
         <v>0</v>
@@ -11258,17 +11041,8 @@
       <c r="AE31">
         <v>0</v>
       </c>
-      <c r="AF31">
-        <v>0</v>
-      </c>
-      <c r="AG31">
-        <v>0</v>
-      </c>
-      <c r="AH31">
-        <v>0</v>
-      </c>
     </row>
-    <row r="32" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -11287,23 +11061,23 @@
       <c r="O32" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
-      <c r="R32" s="3">
-        <v>0</v>
+      <c r="P32">
+        <v>22</v>
+      </c>
+      <c r="Q32">
+        <v>4</v>
+      </c>
+      <c r="R32">
+        <v>4</v>
       </c>
       <c r="S32">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="T32">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="U32">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V32">
         <v>1</v>
@@ -11312,40 +11086,31 @@
         <v>1</v>
       </c>
       <c r="X32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE32">
-        <v>1</v>
-      </c>
-      <c r="AF32">
-        <v>1</v>
-      </c>
-      <c r="AG32">
-        <v>0</v>
-      </c>
-      <c r="AH32">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
@@ -11368,23 +11133,23 @@
       <c r="O33" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="P33" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>1</v>
-      </c>
-      <c r="R33" s="3">
-        <v>1</v>
+      <c r="P33">
+        <v>23</v>
+      </c>
+      <c r="Q33">
+        <v>4</v>
+      </c>
+      <c r="R33">
+        <v>4</v>
       </c>
       <c r="S33">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="T33">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="U33">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V33">
         <v>1</v>
@@ -11393,13 +11158,13 @@
         <v>1</v>
       </c>
       <c r="X33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA33">
         <v>0</v>
@@ -11411,22 +11176,13 @@
         <v>0</v>
       </c>
       <c r="AD33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE33">
         <v>0</v>
       </c>
-      <c r="AF33">
-        <v>0</v>
-      </c>
-      <c r="AG33">
-        <v>1</v>
-      </c>
-      <c r="AH33">
-        <v>0</v>
-      </c>
     </row>
-    <row r="34" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
@@ -11445,23 +11201,23 @@
       <c r="O34" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="P34" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q34" s="3">
-        <v>0</v>
-      </c>
-      <c r="R34" s="3">
-        <v>0</v>
+      <c r="P34">
+        <v>24</v>
+      </c>
+      <c r="Q34">
+        <v>4</v>
+      </c>
+      <c r="R34">
+        <v>4</v>
       </c>
       <c r="S34">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="T34">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="U34">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V34">
         <v>1</v>
@@ -11470,40 +11226,31 @@
         <v>1</v>
       </c>
       <c r="X34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD34">
         <v>1</v>
       </c>
       <c r="AE34">
-        <v>1</v>
-      </c>
-      <c r="AF34">
-        <v>1</v>
-      </c>
-      <c r="AG34">
-        <v>1</v>
-      </c>
-      <c r="AH34">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
@@ -11524,23 +11271,23 @@
       <c r="O35" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="P35" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>1</v>
-      </c>
-      <c r="R35" s="3">
-        <v>1</v>
+      <c r="P35">
+        <v>25</v>
+      </c>
+      <c r="Q35">
+        <v>4</v>
+      </c>
+      <c r="R35">
+        <v>4</v>
       </c>
       <c r="S35">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="T35">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="U35">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V35">
         <v>1</v>
@@ -11549,13 +11296,13 @@
         <v>1</v>
       </c>
       <c r="X35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA35">
         <v>0</v>
@@ -11567,22 +11314,13 @@
         <v>0</v>
       </c>
       <c r="AD35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE35">
-        <v>0</v>
-      </c>
-      <c r="AF35">
-        <v>0</v>
-      </c>
-      <c r="AG35">
-        <v>1</v>
-      </c>
-      <c r="AH35">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
@@ -11601,23 +11339,23 @@
       <c r="O36" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="P36" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q36" s="3">
-        <v>0</v>
-      </c>
-      <c r="R36" s="3">
-        <v>0</v>
+      <c r="P36">
+        <v>26</v>
+      </c>
+      <c r="Q36">
+        <v>4</v>
+      </c>
+      <c r="R36">
+        <v>4</v>
       </c>
       <c r="S36">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="T36">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="U36">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V36">
         <v>1</v>
@@ -11626,40 +11364,31 @@
         <v>1</v>
       </c>
       <c r="X36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA36">
         <v>0</v>
       </c>
       <c r="AB36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE36">
         <v>1</v>
       </c>
-      <c r="AF36">
-        <v>1</v>
-      </c>
-      <c r="AG36">
-        <v>1</v>
-      </c>
-      <c r="AH36">
-        <v>1</v>
-      </c>
     </row>
-    <row r="37" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
@@ -11684,26 +11413,26 @@
       <c r="O37" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="P37" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q37" s="3">
-        <v>1</v>
-      </c>
-      <c r="R37" s="3">
-        <v>1</v>
+      <c r="P37">
+        <v>27</v>
+      </c>
+      <c r="Q37">
+        <v>4</v>
+      </c>
+      <c r="R37">
+        <v>4</v>
       </c>
       <c r="S37">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="T37">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="U37">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="V37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W37">
         <v>1</v>
@@ -11715,7 +11444,7 @@
         <v>0</v>
       </c>
       <c r="Z37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA37">
         <v>0</v>
@@ -11732,17 +11461,8 @@
       <c r="AE37">
         <v>0</v>
       </c>
-      <c r="AF37">
-        <v>0</v>
-      </c>
-      <c r="AG37">
-        <v>0</v>
-      </c>
-      <c r="AH37">
-        <v>0</v>
-      </c>
     </row>
-    <row r="38" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
@@ -11761,26 +11481,26 @@
       <c r="O38" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="P38" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q38" s="3">
-        <v>0</v>
-      </c>
-      <c r="R38" s="3">
-        <v>0</v>
+      <c r="P38">
+        <v>28</v>
+      </c>
+      <c r="Q38">
+        <v>4</v>
+      </c>
+      <c r="R38">
+        <v>4</v>
       </c>
       <c r="S38">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="T38">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="U38">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="V38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W38">
         <v>1</v>
@@ -11792,7 +11512,7 @@
         <v>0</v>
       </c>
       <c r="Z38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA38">
         <v>0</v>
@@ -11801,7 +11521,7 @@
         <v>0</v>
       </c>
       <c r="AC38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD38">
         <v>0</v>
@@ -11809,17 +11529,8 @@
       <c r="AE38">
         <v>0</v>
       </c>
-      <c r="AF38">
-        <v>1</v>
-      </c>
-      <c r="AG38">
-        <v>0</v>
-      </c>
-      <c r="AH38">
-        <v>0</v>
-      </c>
     </row>
-    <row r="39" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
@@ -11842,26 +11553,26 @@
       <c r="O39" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="P39" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q39" s="3">
-        <v>1</v>
-      </c>
-      <c r="R39" s="3">
-        <v>1</v>
+      <c r="P39">
+        <v>29</v>
+      </c>
+      <c r="Q39">
+        <v>4</v>
+      </c>
+      <c r="R39">
+        <v>4</v>
       </c>
       <c r="S39">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="T39">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="U39">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="V39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W39">
         <v>1</v>
@@ -11873,7 +11584,7 @@
         <v>0</v>
       </c>
       <c r="Z39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA39">
         <v>0</v>
@@ -11885,22 +11596,13 @@
         <v>0</v>
       </c>
       <c r="AD39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE39">
         <v>0</v>
       </c>
-      <c r="AF39">
-        <v>0</v>
-      </c>
-      <c r="AG39">
-        <v>1</v>
-      </c>
-      <c r="AH39">
-        <v>0</v>
-      </c>
     </row>
-    <row r="40" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
@@ -11919,26 +11621,26 @@
       <c r="O40" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="P40" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q40" s="3">
-        <v>0</v>
-      </c>
-      <c r="R40" s="3">
-        <v>0</v>
+      <c r="P40">
+        <v>30</v>
+      </c>
+      <c r="Q40">
+        <v>4</v>
+      </c>
+      <c r="R40">
+        <v>4</v>
       </c>
       <c r="S40">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="T40">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="U40">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="V40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W40">
         <v>1</v>
@@ -11950,7 +11652,7 @@
         <v>0</v>
       </c>
       <c r="Z40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA40">
         <v>0</v>
@@ -11959,25 +11661,16 @@
         <v>0</v>
       </c>
       <c r="AC40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE40">
         <v>0</v>
       </c>
-      <c r="AF40">
-        <v>1</v>
-      </c>
-      <c r="AG40">
-        <v>1</v>
-      </c>
-      <c r="AH40">
-        <v>0</v>
-      </c>
     </row>
-    <row r="41" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
@@ -11998,26 +11691,26 @@
       <c r="O41" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="P41" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q41" s="3">
-        <v>1</v>
-      </c>
-      <c r="R41" s="3">
-        <v>1</v>
+      <c r="P41">
+        <v>31</v>
+      </c>
+      <c r="Q41">
+        <v>4</v>
+      </c>
+      <c r="R41">
+        <v>4</v>
       </c>
       <c r="S41">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="T41">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="U41">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="V41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W41">
         <v>1</v>
@@ -12029,7 +11722,7 @@
         <v>0</v>
       </c>
       <c r="Z41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA41">
         <v>0</v>
@@ -12041,22 +11734,13 @@
         <v>0</v>
       </c>
       <c r="AD41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE41">
-        <v>0</v>
-      </c>
-      <c r="AF41">
-        <v>0</v>
-      </c>
-      <c r="AG41">
-        <v>1</v>
-      </c>
-      <c r="AH41">
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
@@ -12075,26 +11759,26 @@
       <c r="O42" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="P42" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q42" s="3">
-        <v>0</v>
-      </c>
-      <c r="R42" s="3">
-        <v>0</v>
+      <c r="P42">
+        <v>32</v>
+      </c>
+      <c r="Q42">
+        <v>4</v>
+      </c>
+      <c r="R42">
+        <v>4</v>
       </c>
       <c r="S42">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="T42">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="U42">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="V42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W42">
         <v>1</v>
@@ -12106,31 +11790,22 @@
         <v>0</v>
       </c>
       <c r="Z42">
-        <v>1</v>
-      </c>
-      <c r="AA42">
         <v>0</v>
       </c>
       <c r="AB42">
         <v>0</v>
       </c>
       <c r="AC42">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AD42">
+        <v>1</v>
       </c>
       <c r="AE42">
-        <v>0</v>
-      </c>
-      <c r="AF42">
-        <v>1</v>
-      </c>
-      <c r="AG42">
-        <v>1</v>
-      </c>
-      <c r="AH42">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
@@ -12155,38 +11830,38 @@
       <c r="O43" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="P43" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q43" s="3">
-        <v>1</v>
-      </c>
-      <c r="R43" s="3">
-        <v>1</v>
+      <c r="P43">
+        <v>33</v>
+      </c>
+      <c r="Q43">
+        <v>4</v>
+      </c>
+      <c r="R43">
+        <v>4</v>
       </c>
       <c r="S43">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="T43">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="U43">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W43">
         <v>1</v>
       </c>
       <c r="X43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y43">
         <v>0</v>
       </c>
       <c r="Z43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA43">
         <v>0</v>
@@ -12203,17 +11878,8 @@
       <c r="AE43">
         <v>0</v>
       </c>
-      <c r="AF43">
-        <v>0</v>
-      </c>
-      <c r="AG43">
-        <v>0</v>
-      </c>
-      <c r="AH43">
-        <v>0</v>
-      </c>
     </row>
-    <row r="44" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
@@ -12232,65 +11898,56 @@
       <c r="O44" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="P44" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q44" s="3">
-        <v>0</v>
-      </c>
-      <c r="R44" s="3">
-        <v>0</v>
+      <c r="P44">
+        <v>34</v>
+      </c>
+      <c r="Q44">
+        <v>4</v>
+      </c>
+      <c r="R44">
+        <v>4</v>
       </c>
       <c r="S44">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="T44">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="U44">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W44">
         <v>1</v>
       </c>
       <c r="X44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y44">
         <v>0</v>
       </c>
       <c r="Z44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB44">
         <v>0</v>
       </c>
       <c r="AC44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE44">
         <v>0</v>
       </c>
-      <c r="AF44">
-        <v>1</v>
-      </c>
-      <c r="AG44">
-        <v>0</v>
-      </c>
-      <c r="AH44">
-        <v>0</v>
-      </c>
     </row>
-    <row r="45" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
@@ -12313,38 +11970,38 @@
       <c r="O45" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="P45" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q45" s="3">
-        <v>1</v>
-      </c>
-      <c r="R45" s="3">
-        <v>1</v>
+      <c r="P45">
+        <v>35</v>
+      </c>
+      <c r="Q45">
+        <v>4</v>
+      </c>
+      <c r="R45">
+        <v>4</v>
       </c>
       <c r="S45">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="T45">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="U45">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W45">
         <v>1</v>
       </c>
       <c r="X45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y45">
         <v>0</v>
       </c>
       <c r="Z45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA45">
         <v>0</v>
@@ -12356,22 +12013,13 @@
         <v>0</v>
       </c>
       <c r="AD45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE45">
         <v>0</v>
       </c>
-      <c r="AF45">
-        <v>0</v>
-      </c>
-      <c r="AG45">
-        <v>1</v>
-      </c>
-      <c r="AH45">
-        <v>0</v>
-      </c>
     </row>
-    <row r="46" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
@@ -12390,47 +12038,47 @@
       <c r="O46" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="P46" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q46" s="3">
-        <v>0</v>
-      </c>
-      <c r="R46" s="3">
-        <v>0</v>
+      <c r="P46">
+        <v>36</v>
+      </c>
+      <c r="Q46">
+        <v>4</v>
+      </c>
+      <c r="R46">
+        <v>4</v>
       </c>
       <c r="S46">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="T46">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="U46">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W46">
         <v>1</v>
       </c>
       <c r="X46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y46">
         <v>0</v>
       </c>
       <c r="Z46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB46">
         <v>0</v>
       </c>
       <c r="AC46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD46">
         <v>1</v>
@@ -12438,17 +12086,8 @@
       <c r="AE46">
         <v>0</v>
       </c>
-      <c r="AF46">
-        <v>1</v>
-      </c>
-      <c r="AG46">
-        <v>1</v>
-      </c>
-      <c r="AH46">
-        <v>0</v>
-      </c>
     </row>
-    <row r="47" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
@@ -12469,38 +12108,38 @@
       <c r="O47" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="P47" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q47" s="3">
-        <v>1</v>
-      </c>
-      <c r="R47" s="3">
-        <v>1</v>
+      <c r="P47">
+        <v>37</v>
+      </c>
+      <c r="Q47">
+        <v>4</v>
+      </c>
+      <c r="R47">
+        <v>4</v>
       </c>
       <c r="S47">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="T47">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="U47">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W47">
         <v>1</v>
       </c>
       <c r="X47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y47">
         <v>0</v>
       </c>
       <c r="Z47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA47">
         <v>0</v>
@@ -12512,22 +12151,13 @@
         <v>0</v>
       </c>
       <c r="AD47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE47">
-        <v>0</v>
-      </c>
-      <c r="AF47">
-        <v>0</v>
-      </c>
-      <c r="AG47">
-        <v>1</v>
-      </c>
-      <c r="AH47">
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="2:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
@@ -12546,65 +12176,56 @@
       <c r="O48" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="P48" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q48" s="11">
-        <v>0</v>
-      </c>
-      <c r="R48" s="11">
-        <v>0</v>
+      <c r="P48">
+        <v>38</v>
+      </c>
+      <c r="Q48">
+        <v>4</v>
+      </c>
+      <c r="R48">
+        <v>4</v>
       </c>
       <c r="S48">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="T48">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="U48">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W48">
         <v>1</v>
       </c>
       <c r="X48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y48">
         <v>0</v>
       </c>
       <c r="Z48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB48">
         <v>0</v>
       </c>
       <c r="AC48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD48">
         <v>1</v>
       </c>
       <c r="AE48">
-        <v>0</v>
-      </c>
-      <c r="AF48">
-        <v>1</v>
-      </c>
-      <c r="AG48">
-        <v>1</v>
-      </c>
-      <c r="AH48">
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
@@ -12631,29 +12252,29 @@
       <c r="O49" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="P49" s="14">
-        <v>1</v>
-      </c>
-      <c r="Q49" s="14">
-        <v>1</v>
-      </c>
-      <c r="R49" s="14">
-        <v>1</v>
+      <c r="P49">
+        <v>39</v>
+      </c>
+      <c r="Q49">
+        <v>2</v>
+      </c>
+      <c r="R49">
+        <v>2</v>
       </c>
       <c r="S49">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="T49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U49">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X49">
         <v>0</v>
@@ -12679,17 +12300,8 @@
       <c r="AE49">
         <v>0</v>
       </c>
-      <c r="AF49">
-        <v>0</v>
-      </c>
-      <c r="AG49">
-        <v>0</v>
-      </c>
-      <c r="AH49">
-        <v>0</v>
-      </c>
     </row>
-    <row r="50" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
@@ -12708,44 +12320,44 @@
       <c r="O50" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="P50" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q50" s="3">
-        <v>1</v>
-      </c>
-      <c r="R50" s="3">
-        <v>1</v>
+      <c r="P50">
+        <v>40</v>
+      </c>
+      <c r="Q50">
+        <v>2</v>
+      </c>
+      <c r="R50">
+        <v>2</v>
       </c>
       <c r="S50">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="T50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U50">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z50">
         <v>0</v>
       </c>
       <c r="AA50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC50">
         <v>0</v>
@@ -12756,17 +12368,8 @@
       <c r="AE50">
         <v>0</v>
       </c>
-      <c r="AF50">
-        <v>0</v>
-      </c>
-      <c r="AG50">
-        <v>0</v>
-      </c>
-      <c r="AH50">
-        <v>0</v>
-      </c>
     </row>
-    <row r="51" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
@@ -12785,47 +12388,47 @@
       <c r="O51" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="P51" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q51" s="3">
-        <v>1</v>
-      </c>
-      <c r="R51" s="3">
-        <v>1</v>
+      <c r="P51">
+        <v>41</v>
+      </c>
+      <c r="Q51">
+        <v>2</v>
+      </c>
+      <c r="R51">
+        <v>2</v>
       </c>
       <c r="S51">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="T51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U51">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y51">
         <v>0</v>
       </c>
       <c r="Z51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB51">
         <v>0</v>
       </c>
       <c r="AC51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD51">
         <v>0</v>
@@ -12833,17 +12436,8 @@
       <c r="AE51">
         <v>0</v>
       </c>
-      <c r="AF51">
-        <v>0</v>
-      </c>
-      <c r="AG51">
-        <v>0</v>
-      </c>
-      <c r="AH51">
-        <v>0</v>
-      </c>
     </row>
-    <row r="52" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
@@ -12866,29 +12460,29 @@
       <c r="O52" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="P52" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q52" s="3">
-        <v>1</v>
-      </c>
-      <c r="R52" s="3">
-        <v>1</v>
+      <c r="P52">
+        <v>42</v>
+      </c>
+      <c r="Q52">
+        <v>2</v>
+      </c>
+      <c r="R52">
+        <v>2</v>
       </c>
       <c r="S52">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="T52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U52">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X52">
         <v>0</v>
@@ -12909,22 +12503,13 @@
         <v>0</v>
       </c>
       <c r="AD52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE52">
         <v>0</v>
       </c>
-      <c r="AF52">
-        <v>0</v>
-      </c>
-      <c r="AG52">
-        <v>1</v>
-      </c>
-      <c r="AH52">
-        <v>0</v>
-      </c>
     </row>
-    <row r="53" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
@@ -12943,65 +12528,56 @@
       <c r="O53" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="P53" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q53" s="3">
-        <v>1</v>
-      </c>
-      <c r="R53" s="3">
-        <v>1</v>
+      <c r="P53">
+        <v>43</v>
+      </c>
+      <c r="Q53">
+        <v>2</v>
+      </c>
+      <c r="R53">
+        <v>2</v>
       </c>
       <c r="S53">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="T53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U53">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z53">
         <v>0</v>
       </c>
       <c r="AA53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC53">
         <v>0</v>
       </c>
       <c r="AD53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE53">
         <v>0</v>
       </c>
-      <c r="AF53">
-        <v>0</v>
-      </c>
-      <c r="AG53">
-        <v>1</v>
-      </c>
-      <c r="AH53">
-        <v>0</v>
-      </c>
     </row>
-    <row r="54" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
@@ -13020,65 +12596,56 @@
       <c r="O54" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="P54" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q54" s="3">
-        <v>1</v>
-      </c>
-      <c r="R54" s="3">
-        <v>1</v>
+      <c r="P54">
+        <v>44</v>
+      </c>
+      <c r="Q54">
+        <v>2</v>
+      </c>
+      <c r="R54">
+        <v>2</v>
       </c>
       <c r="S54">
-        <v>44</v>
+        <v>1</v>
       </c>
       <c r="T54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U54">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y54">
         <v>0</v>
       </c>
       <c r="Z54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB54">
         <v>0</v>
       </c>
       <c r="AC54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE54">
         <v>0</v>
       </c>
-      <c r="AF54">
-        <v>0</v>
-      </c>
-      <c r="AG54">
-        <v>1</v>
-      </c>
-      <c r="AH54">
-        <v>0</v>
-      </c>
     </row>
-    <row r="55" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
@@ -13099,29 +12666,29 @@
       <c r="O55" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="P55" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q55" s="3">
-        <v>1</v>
-      </c>
-      <c r="R55" s="3">
-        <v>1</v>
+      <c r="P55">
+        <v>45</v>
+      </c>
+      <c r="Q55">
+        <v>2</v>
+      </c>
+      <c r="R55">
+        <v>2</v>
       </c>
       <c r="S55">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="T55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U55">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X55">
         <v>0</v>
@@ -13130,7 +12697,7 @@
         <v>0</v>
       </c>
       <c r="Z55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA55">
         <v>0</v>
@@ -13139,25 +12706,16 @@
         <v>0</v>
       </c>
       <c r="AC55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE55">
-        <v>0</v>
-      </c>
-      <c r="AF55">
-        <v>0</v>
-      </c>
-      <c r="AG55">
-        <v>1</v>
-      </c>
-      <c r="AH55">
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
@@ -13176,65 +12734,56 @@
       <c r="O56" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="P56" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q56" s="3">
-        <v>1</v>
-      </c>
-      <c r="R56" s="3">
-        <v>1</v>
+      <c r="P56">
+        <v>46</v>
+      </c>
+      <c r="Q56">
+        <v>2</v>
+      </c>
+      <c r="R56">
+        <v>2</v>
       </c>
       <c r="S56">
-        <v>46</v>
+        <v>1</v>
       </c>
       <c r="T56">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U56">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y56">
         <v>0</v>
       </c>
       <c r="Z56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB56">
         <v>0</v>
       </c>
       <c r="AC56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE56">
-        <v>0</v>
-      </c>
-      <c r="AF56">
-        <v>0</v>
-      </c>
-      <c r="AG56">
-        <v>1</v>
-      </c>
-      <c r="AH56">
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
@@ -13259,32 +12808,32 @@
       <c r="O57" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="P57" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>1</v>
-      </c>
-      <c r="R57" s="3">
-        <v>1</v>
+      <c r="P57">
+        <v>47</v>
+      </c>
+      <c r="Q57">
+        <v>2</v>
+      </c>
+      <c r="R57">
+        <v>2</v>
       </c>
       <c r="S57">
-        <v>47</v>
+        <v>1</v>
       </c>
       <c r="T57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y57">
         <v>0</v>
@@ -13307,17 +12856,8 @@
       <c r="AE57">
         <v>0</v>
       </c>
-      <c r="AF57">
-        <v>0</v>
-      </c>
-      <c r="AG57">
-        <v>0</v>
-      </c>
-      <c r="AH57">
-        <v>0</v>
-      </c>
     </row>
-    <row r="58" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
@@ -13336,32 +12876,32 @@
       <c r="O58" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="P58" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>0</v>
-      </c>
-      <c r="R58" s="3">
-        <v>1</v>
+      <c r="P58">
+        <v>48</v>
+      </c>
+      <c r="Q58">
+        <v>2</v>
+      </c>
+      <c r="R58">
+        <v>2</v>
       </c>
       <c r="S58">
-        <v>48</v>
+        <v>1</v>
       </c>
       <c r="T58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y58">
         <v>0</v>
@@ -13370,7 +12910,7 @@
         <v>0</v>
       </c>
       <c r="AA58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB58">
         <v>0</v>
@@ -13379,22 +12919,13 @@
         <v>0</v>
       </c>
       <c r="AD58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE58">
         <v>0</v>
       </c>
-      <c r="AF58">
-        <v>0</v>
-      </c>
-      <c r="AG58">
-        <v>0</v>
-      </c>
-      <c r="AH58">
-        <v>0</v>
-      </c>
     </row>
-    <row r="59" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
@@ -13417,32 +12948,32 @@
       <c r="O59" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="P59" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>1</v>
-      </c>
-      <c r="R59" s="3">
-        <v>1</v>
+      <c r="P59">
+        <v>49</v>
+      </c>
+      <c r="Q59">
+        <v>2</v>
+      </c>
+      <c r="R59">
+        <v>2</v>
       </c>
       <c r="S59">
-        <v>49</v>
+        <v>1</v>
       </c>
       <c r="T59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y59">
         <v>0</v>
@@ -13460,22 +12991,13 @@
         <v>0</v>
       </c>
       <c r="AD59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE59">
         <v>0</v>
       </c>
-      <c r="AF59">
-        <v>0</v>
-      </c>
-      <c r="AG59">
-        <v>1</v>
-      </c>
-      <c r="AH59">
-        <v>0</v>
-      </c>
     </row>
-    <row r="60" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
@@ -13494,32 +13016,32 @@
       <c r="O60" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="P60" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q60" s="3">
-        <v>1</v>
-      </c>
-      <c r="R60" s="3">
-        <v>1</v>
+      <c r="P60">
+        <v>50</v>
+      </c>
+      <c r="Q60">
+        <v>2</v>
+      </c>
+      <c r="R60">
+        <v>2</v>
       </c>
       <c r="S60">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="T60">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U60">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y60">
         <v>0</v>
@@ -13528,7 +13050,7 @@
         <v>0</v>
       </c>
       <c r="AA60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB60">
         <v>0</v>
@@ -13542,17 +13064,8 @@
       <c r="AE60">
         <v>0</v>
       </c>
-      <c r="AF60">
-        <v>0</v>
-      </c>
-      <c r="AG60">
-        <v>1</v>
-      </c>
-      <c r="AH60">
-        <v>0</v>
-      </c>
     </row>
-    <row r="61" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
@@ -13573,32 +13086,32 @@
       <c r="O61" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="P61" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q61" s="3">
-        <v>1</v>
-      </c>
-      <c r="R61" s="3">
-        <v>1</v>
+      <c r="P61">
+        <v>51</v>
+      </c>
+      <c r="Q61">
+        <v>2</v>
+      </c>
+      <c r="R61">
+        <v>2</v>
       </c>
       <c r="S61">
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="T61">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U61">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y61">
         <v>0</v>
@@ -13616,22 +13129,13 @@
         <v>0</v>
       </c>
       <c r="AD61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE61">
-        <v>0</v>
-      </c>
-      <c r="AF61">
-        <v>0</v>
-      </c>
-      <c r="AG61">
-        <v>1</v>
-      </c>
-      <c r="AH61">
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
@@ -13650,32 +13154,32 @@
       <c r="O62" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="P62" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q62" s="3">
-        <v>1</v>
-      </c>
-      <c r="R62" s="3">
-        <v>1</v>
+      <c r="P62">
+        <v>52</v>
+      </c>
+      <c r="Q62">
+        <v>2</v>
+      </c>
+      <c r="R62">
+        <v>2</v>
       </c>
       <c r="S62">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="T62">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U62">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y62">
         <v>0</v>
@@ -13684,7 +13188,7 @@
         <v>0</v>
       </c>
       <c r="AA62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB62">
         <v>0</v>
@@ -13696,19 +13200,10 @@
         <v>1</v>
       </c>
       <c r="AE62">
-        <v>0</v>
-      </c>
-      <c r="AF62">
-        <v>0</v>
-      </c>
-      <c r="AG62">
-        <v>1</v>
-      </c>
-      <c r="AH62">
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
@@ -13733,35 +13228,35 @@
       <c r="O63" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="P63" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q63" s="3">
-        <v>1</v>
-      </c>
-      <c r="R63" s="3">
-        <v>1</v>
+      <c r="P63">
+        <v>53</v>
+      </c>
+      <c r="Q63">
+        <v>2</v>
+      </c>
+      <c r="R63">
+        <v>2</v>
       </c>
       <c r="S63">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="T63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V63">
         <v>1</v>
       </c>
       <c r="W63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z63">
         <v>0</v>
@@ -13781,17 +13276,8 @@
       <c r="AE63">
         <v>0</v>
       </c>
-      <c r="AF63">
-        <v>0</v>
-      </c>
-      <c r="AG63">
-        <v>0</v>
-      </c>
-      <c r="AH63">
-        <v>0</v>
-      </c>
     </row>
-    <row r="64" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
@@ -13810,65 +13296,56 @@
       <c r="O64" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="P64" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q64" s="3">
-        <v>0</v>
-      </c>
-      <c r="R64" s="3">
-        <v>1</v>
+      <c r="P64">
+        <v>54</v>
+      </c>
+      <c r="Q64">
+        <v>2</v>
+      </c>
+      <c r="R64">
+        <v>2</v>
       </c>
       <c r="S64">
-        <v>54</v>
+        <v>1</v>
       </c>
       <c r="T64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V64">
         <v>1</v>
       </c>
       <c r="W64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z64">
         <v>0</v>
       </c>
       <c r="AA64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC64">
         <v>0</v>
       </c>
       <c r="AD64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE64">
-        <v>1</v>
-      </c>
-      <c r="AF64">
-        <v>0</v>
-      </c>
-      <c r="AG64">
-        <v>0</v>
-      </c>
-      <c r="AH64">
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
@@ -13891,35 +13368,35 @@
       <c r="O65" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="P65" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q65" s="3">
-        <v>1</v>
-      </c>
-      <c r="R65" s="3">
-        <v>1</v>
+      <c r="P65">
+        <v>55</v>
+      </c>
+      <c r="Q65">
+        <v>2</v>
+      </c>
+      <c r="R65">
+        <v>2</v>
       </c>
       <c r="S65">
-        <v>55</v>
+        <v>1</v>
       </c>
       <c r="T65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V65">
         <v>1</v>
       </c>
       <c r="W65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z65">
         <v>0</v>
@@ -13934,22 +13411,13 @@
         <v>0</v>
       </c>
       <c r="AD65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE65">
         <v>0</v>
       </c>
-      <c r="AF65">
-        <v>0</v>
-      </c>
-      <c r="AG65">
-        <v>1</v>
-      </c>
-      <c r="AH65">
-        <v>0</v>
-      </c>
     </row>
-    <row r="66" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
@@ -13968,44 +13436,44 @@
       <c r="O66" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="P66" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q66" s="3">
-        <v>1</v>
-      </c>
-      <c r="R66" s="3">
-        <v>1</v>
+      <c r="P66">
+        <v>56</v>
+      </c>
+      <c r="Q66">
+        <v>2</v>
+      </c>
+      <c r="R66">
+        <v>2</v>
       </c>
       <c r="S66">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="T66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V66">
         <v>1</v>
       </c>
       <c r="W66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z66">
         <v>0</v>
       </c>
       <c r="AA66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC66">
         <v>0</v>
@@ -14014,19 +13482,10 @@
         <v>1</v>
       </c>
       <c r="AE66">
-        <v>1</v>
-      </c>
-      <c r="AF66">
-        <v>0</v>
-      </c>
-      <c r="AG66">
-        <v>1</v>
-      </c>
-      <c r="AH66">
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
@@ -14047,35 +13506,35 @@
       <c r="O67" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="P67" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q67" s="3">
-        <v>1</v>
-      </c>
-      <c r="R67" s="3">
-        <v>1</v>
+      <c r="P67">
+        <v>57</v>
+      </c>
+      <c r="Q67">
+        <v>2</v>
+      </c>
+      <c r="R67">
+        <v>2</v>
       </c>
       <c r="S67">
-        <v>57</v>
+        <v>1</v>
       </c>
       <c r="T67">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U67">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V67">
         <v>1</v>
       </c>
       <c r="W67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z67">
         <v>0</v>
@@ -14090,22 +13549,13 @@
         <v>0</v>
       </c>
       <c r="AD67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE67">
-        <v>0</v>
-      </c>
-      <c r="AF67">
-        <v>0</v>
-      </c>
-      <c r="AG67">
-        <v>1</v>
-      </c>
-      <c r="AH67">
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
@@ -14124,44 +13574,44 @@
       <c r="O68" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="P68" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q68" s="3">
-        <v>1</v>
-      </c>
-      <c r="R68" s="3">
-        <v>1</v>
+      <c r="P68">
+        <v>58</v>
+      </c>
+      <c r="Q68">
+        <v>2</v>
+      </c>
+      <c r="R68">
+        <v>2</v>
       </c>
       <c r="S68">
-        <v>58</v>
+        <v>1</v>
       </c>
       <c r="T68">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U68">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V68">
         <v>1</v>
       </c>
       <c r="W68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z68">
         <v>0</v>
       </c>
       <c r="AA68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC68">
         <v>0</v>
@@ -14172,17 +13622,8 @@
       <c r="AE68">
         <v>1</v>
       </c>
-      <c r="AF68">
-        <v>0</v>
-      </c>
-      <c r="AG68">
-        <v>1</v>
-      </c>
-      <c r="AH68">
-        <v>1</v>
-      </c>
     </row>
-    <row r="69" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
@@ -14207,23 +13648,23 @@
       <c r="O69" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="P69" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q69" s="3">
-        <v>1</v>
-      </c>
-      <c r="R69" s="3">
-        <v>1</v>
+      <c r="P69">
+        <v>59</v>
+      </c>
+      <c r="Q69">
+        <v>2</v>
+      </c>
+      <c r="R69">
+        <v>2</v>
       </c>
       <c r="S69">
-        <v>59</v>
+        <v>1</v>
       </c>
       <c r="T69">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U69">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V69">
         <v>1</v>
@@ -14232,13 +13673,13 @@
         <v>1</v>
       </c>
       <c r="X69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA69">
         <v>0</v>
@@ -14255,17 +13696,8 @@
       <c r="AE69">
         <v>0</v>
       </c>
-      <c r="AF69">
-        <v>0</v>
-      </c>
-      <c r="AG69">
-        <v>0</v>
-      </c>
-      <c r="AH69">
-        <v>0</v>
-      </c>
     </row>
-    <row r="70" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
@@ -14284,23 +13716,23 @@
       <c r="O70" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="P70" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q70" s="3">
-        <v>0</v>
-      </c>
-      <c r="R70" s="3">
-        <v>0</v>
+      <c r="P70">
+        <v>60</v>
+      </c>
+      <c r="Q70">
+        <v>2</v>
+      </c>
+      <c r="R70">
+        <v>2</v>
       </c>
       <c r="S70">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="T70">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U70">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V70">
         <v>1</v>
@@ -14309,40 +13741,31 @@
         <v>1</v>
       </c>
       <c r="X70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE70">
-        <v>1</v>
-      </c>
-      <c r="AF70">
-        <v>1</v>
-      </c>
-      <c r="AG70">
-        <v>0</v>
-      </c>
-      <c r="AH70">
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
@@ -14365,23 +13788,23 @@
       <c r="O71" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="P71" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q71" s="3">
-        <v>1</v>
-      </c>
-      <c r="R71" s="3">
-        <v>1</v>
+      <c r="P71">
+        <v>61</v>
+      </c>
+      <c r="Q71">
+        <v>2</v>
+      </c>
+      <c r="R71">
+        <v>2</v>
       </c>
       <c r="S71">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="T71">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U71">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V71">
         <v>1</v>
@@ -14390,13 +13813,13 @@
         <v>1</v>
       </c>
       <c r="X71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA71">
         <v>0</v>
@@ -14408,22 +13831,13 @@
         <v>0</v>
       </c>
       <c r="AD71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE71">
         <v>0</v>
       </c>
-      <c r="AF71">
-        <v>0</v>
-      </c>
-      <c r="AG71">
-        <v>1</v>
-      </c>
-      <c r="AH71">
-        <v>0</v>
-      </c>
     </row>
-    <row r="72" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
@@ -14442,23 +13856,23 @@
       <c r="O72" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="P72" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q72" s="3">
-        <v>0</v>
-      </c>
-      <c r="R72" s="3">
-        <v>0</v>
+      <c r="P72">
+        <v>62</v>
+      </c>
+      <c r="Q72">
+        <v>2</v>
+      </c>
+      <c r="R72">
+        <v>2</v>
       </c>
       <c r="S72">
-        <v>62</v>
+        <v>1</v>
       </c>
       <c r="T72">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U72">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V72">
         <v>1</v>
@@ -14467,40 +13881,31 @@
         <v>1</v>
       </c>
       <c r="X72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD72">
         <v>1</v>
       </c>
       <c r="AE72">
-        <v>1</v>
-      </c>
-      <c r="AF72">
-        <v>1</v>
-      </c>
-      <c r="AG72">
-        <v>1</v>
-      </c>
-      <c r="AH72">
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
@@ -14521,23 +13926,23 @@
       <c r="O73" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="P73" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q73" s="3">
-        <v>1</v>
-      </c>
-      <c r="R73" s="3">
-        <v>1</v>
+      <c r="P73">
+        <v>63</v>
+      </c>
+      <c r="Q73">
+        <v>2</v>
+      </c>
+      <c r="R73">
+        <v>2</v>
       </c>
       <c r="S73">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="T73">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U73">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V73">
         <v>1</v>
@@ -14546,13 +13951,13 @@
         <v>1</v>
       </c>
       <c r="X73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA73">
         <v>0</v>
@@ -14564,22 +13969,13 @@
         <v>0</v>
       </c>
       <c r="AD73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE73">
-        <v>0</v>
-      </c>
-      <c r="AF73">
-        <v>0</v>
-      </c>
-      <c r="AG73">
-        <v>1</v>
-      </c>
-      <c r="AH73">
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
@@ -14598,23 +13994,23 @@
       <c r="O74" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="P74" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q74" s="3">
-        <v>0</v>
-      </c>
-      <c r="R74" s="3">
-        <v>0</v>
+      <c r="P74">
+        <v>64</v>
+      </c>
+      <c r="Q74">
+        <v>2</v>
+      </c>
+      <c r="R74">
+        <v>2</v>
       </c>
       <c r="S74">
-        <v>64</v>
+        <v>1</v>
       </c>
       <c r="T74">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U74">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V74">
         <v>1</v>
@@ -14623,40 +14019,31 @@
         <v>1</v>
       </c>
       <c r="X74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA74">
         <v>0</v>
       </c>
       <c r="AB74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE74">
         <v>1</v>
       </c>
-      <c r="AF74">
-        <v>1</v>
-      </c>
-      <c r="AG74">
-        <v>1</v>
-      </c>
-      <c r="AH74">
-        <v>1</v>
-      </c>
     </row>
-    <row r="75" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
@@ -14681,26 +14068,26 @@
       <c r="O75" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="P75" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q75" s="3">
-        <v>1</v>
-      </c>
-      <c r="R75" s="3">
-        <v>1</v>
+      <c r="P75">
+        <v>65</v>
+      </c>
+      <c r="Q75">
+        <v>2</v>
+      </c>
+      <c r="R75">
+        <v>2</v>
       </c>
       <c r="S75">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="T75">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U75">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W75">
         <v>1</v>
@@ -14712,7 +14099,7 @@
         <v>0</v>
       </c>
       <c r="Z75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA75">
         <v>0</v>
@@ -14729,17 +14116,8 @@
       <c r="AE75">
         <v>0</v>
       </c>
-      <c r="AF75">
-        <v>0</v>
-      </c>
-      <c r="AG75">
-        <v>0</v>
-      </c>
-      <c r="AH75">
-        <v>0</v>
-      </c>
     </row>
-    <row r="76" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
@@ -14758,26 +14136,26 @@
       <c r="O76" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="P76" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q76" s="3">
-        <v>0</v>
-      </c>
-      <c r="R76" s="3">
-        <v>0</v>
+      <c r="P76">
+        <v>66</v>
+      </c>
+      <c r="Q76">
+        <v>2</v>
+      </c>
+      <c r="R76">
+        <v>2</v>
       </c>
       <c r="S76">
-        <v>66</v>
+        <v>1</v>
       </c>
       <c r="T76">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U76">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W76">
         <v>1</v>
@@ -14789,7 +14167,7 @@
         <v>0</v>
       </c>
       <c r="Z76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA76">
         <v>0</v>
@@ -14798,7 +14176,7 @@
         <v>0</v>
       </c>
       <c r="AC76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD76">
         <v>0</v>
@@ -14806,17 +14184,8 @@
       <c r="AE76">
         <v>0</v>
       </c>
-      <c r="AF76">
-        <v>1</v>
-      </c>
-      <c r="AG76">
-        <v>0</v>
-      </c>
-      <c r="AH76">
-        <v>0</v>
-      </c>
     </row>
-    <row r="77" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
@@ -14839,26 +14208,26 @@
       <c r="O77" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="P77" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q77" s="3">
-        <v>1</v>
-      </c>
-      <c r="R77" s="3">
-        <v>1</v>
+      <c r="P77">
+        <v>67</v>
+      </c>
+      <c r="Q77">
+        <v>2</v>
+      </c>
+      <c r="R77">
+        <v>2</v>
       </c>
       <c r="S77">
-        <v>67</v>
+        <v>1</v>
       </c>
       <c r="T77">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U77">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W77">
         <v>1</v>
@@ -14870,7 +14239,7 @@
         <v>0</v>
       </c>
       <c r="Z77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA77">
         <v>0</v>
@@ -14882,22 +14251,13 @@
         <v>0</v>
       </c>
       <c r="AD77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE77">
         <v>0</v>
       </c>
-      <c r="AF77">
-        <v>0</v>
-      </c>
-      <c r="AG77">
-        <v>1</v>
-      </c>
-      <c r="AH77">
-        <v>0</v>
-      </c>
     </row>
-    <row r="78" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
@@ -14916,26 +14276,26 @@
       <c r="O78" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="P78" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q78" s="3">
-        <v>0</v>
-      </c>
-      <c r="R78" s="3">
-        <v>0</v>
+      <c r="P78">
+        <v>68</v>
+      </c>
+      <c r="Q78">
+        <v>2</v>
+      </c>
+      <c r="R78">
+        <v>2</v>
       </c>
       <c r="S78">
-        <v>68</v>
+        <v>1</v>
       </c>
       <c r="T78">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U78">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W78">
         <v>1</v>
@@ -14947,7 +14307,7 @@
         <v>0</v>
       </c>
       <c r="Z78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA78">
         <v>0</v>
@@ -14956,25 +14316,16 @@
         <v>0</v>
       </c>
       <c r="AC78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE78">
         <v>0</v>
       </c>
-      <c r="AF78">
-        <v>1</v>
-      </c>
-      <c r="AG78">
-        <v>1</v>
-      </c>
-      <c r="AH78">
-        <v>0</v>
-      </c>
     </row>
-    <row r="79" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
@@ -14995,26 +14346,26 @@
       <c r="O79" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="P79" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q79" s="3">
-        <v>1</v>
-      </c>
-      <c r="R79" s="3">
-        <v>1</v>
+      <c r="P79">
+        <v>69</v>
+      </c>
+      <c r="Q79">
+        <v>2</v>
+      </c>
+      <c r="R79">
+        <v>2</v>
       </c>
       <c r="S79">
-        <v>69</v>
+        <v>1</v>
       </c>
       <c r="T79">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U79">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W79">
         <v>1</v>
@@ -15026,7 +14377,7 @@
         <v>0</v>
       </c>
       <c r="Z79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA79">
         <v>0</v>
@@ -15038,22 +14389,13 @@
         <v>0</v>
       </c>
       <c r="AD79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE79">
-        <v>0</v>
-      </c>
-      <c r="AF79">
-        <v>0</v>
-      </c>
-      <c r="AG79">
-        <v>1</v>
-      </c>
-      <c r="AH79">
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
@@ -15072,26 +14414,26 @@
       <c r="O80" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="P80" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q80" s="3">
-        <v>0</v>
-      </c>
-      <c r="R80" s="3">
-        <v>0</v>
+      <c r="P80">
+        <v>70</v>
+      </c>
+      <c r="Q80">
+        <v>2</v>
+      </c>
+      <c r="R80">
+        <v>2</v>
       </c>
       <c r="S80">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="T80">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U80">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W80">
         <v>1</v>
@@ -15103,31 +14445,22 @@
         <v>0</v>
       </c>
       <c r="Z80">
-        <v>1</v>
-      </c>
-      <c r="AA80">
         <v>0</v>
       </c>
       <c r="AB80">
         <v>0</v>
       </c>
       <c r="AC80">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AD80">
+        <v>1</v>
       </c>
       <c r="AE80">
-        <v>0</v>
-      </c>
-      <c r="AF80">
-        <v>1</v>
-      </c>
-      <c r="AG80">
-        <v>1</v>
-      </c>
-      <c r="AH80">
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
       <c r="D81" s="3"/>
@@ -15152,38 +14485,38 @@
       <c r="O81" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="P81" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>1</v>
-      </c>
-      <c r="R81" s="3">
-        <v>1</v>
+      <c r="P81">
+        <v>71</v>
+      </c>
+      <c r="Q81">
+        <v>2</v>
+      </c>
+      <c r="R81">
+        <v>2</v>
       </c>
       <c r="S81">
-        <v>71</v>
+        <v>1</v>
       </c>
       <c r="T81">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U81">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W81">
         <v>1</v>
       </c>
       <c r="X81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y81">
         <v>0</v>
       </c>
       <c r="Z81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA81">
         <v>0</v>
@@ -15200,17 +14533,8 @@
       <c r="AE81">
         <v>0</v>
       </c>
-      <c r="AF81">
-        <v>0</v>
-      </c>
-      <c r="AG81">
-        <v>0</v>
-      </c>
-      <c r="AH81">
-        <v>0</v>
-      </c>
     </row>
-    <row r="82" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
       <c r="D82" s="3"/>
@@ -15229,65 +14553,56 @@
       <c r="O82" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="P82" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q82" s="3">
-        <v>0</v>
-      </c>
-      <c r="R82" s="3">
-        <v>0</v>
+      <c r="P82">
+        <v>72</v>
+      </c>
+      <c r="Q82">
+        <v>2</v>
+      </c>
+      <c r="R82">
+        <v>2</v>
       </c>
       <c r="S82">
-        <v>72</v>
+        <v>1</v>
       </c>
       <c r="T82">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U82">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W82">
         <v>1</v>
       </c>
       <c r="X82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y82">
         <v>0</v>
       </c>
       <c r="Z82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB82">
         <v>0</v>
       </c>
       <c r="AC82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE82">
         <v>0</v>
       </c>
-      <c r="AF82">
-        <v>1</v>
-      </c>
-      <c r="AG82">
-        <v>0</v>
-      </c>
-      <c r="AH82">
-        <v>0</v>
-      </c>
     </row>
-    <row r="83" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
@@ -15310,38 +14625,38 @@
       <c r="O83" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="P83" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>1</v>
-      </c>
-      <c r="R83" s="3">
-        <v>1</v>
+      <c r="P83">
+        <v>73</v>
+      </c>
+      <c r="Q83">
+        <v>2</v>
+      </c>
+      <c r="R83">
+        <v>2</v>
       </c>
       <c r="S83">
-        <v>73</v>
+        <v>1</v>
       </c>
       <c r="T83">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U83">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W83">
         <v>1</v>
       </c>
       <c r="X83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y83">
         <v>0</v>
       </c>
       <c r="Z83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA83">
         <v>0</v>
@@ -15353,22 +14668,13 @@
         <v>0</v>
       </c>
       <c r="AD83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE83">
         <v>0</v>
       </c>
-      <c r="AF83">
-        <v>0</v>
-      </c>
-      <c r="AG83">
-        <v>1</v>
-      </c>
-      <c r="AH83">
-        <v>0</v>
-      </c>
     </row>
-    <row r="84" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
@@ -15387,47 +14693,47 @@
       <c r="O84" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="P84" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q84" s="3">
-        <v>0</v>
-      </c>
-      <c r="R84" s="3">
-        <v>0</v>
+      <c r="P84">
+        <v>74</v>
+      </c>
+      <c r="Q84">
+        <v>2</v>
+      </c>
+      <c r="R84">
+        <v>2</v>
       </c>
       <c r="S84">
-        <v>74</v>
+        <v>1</v>
       </c>
       <c r="T84">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U84">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W84">
         <v>1</v>
       </c>
       <c r="X84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y84">
         <v>0</v>
       </c>
       <c r="Z84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB84">
         <v>0</v>
       </c>
       <c r="AC84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD84">
         <v>1</v>
@@ -15435,17 +14741,8 @@
       <c r="AE84">
         <v>0</v>
       </c>
-      <c r="AF84">
-        <v>1</v>
-      </c>
-      <c r="AG84">
-        <v>1</v>
-      </c>
-      <c r="AH84">
-        <v>0</v>
-      </c>
     </row>
-    <row r="85" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:31" x14ac:dyDescent="0.25">
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
@@ -15466,38 +14763,38 @@
       <c r="O85" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="P85" s="3">
-        <v>1</v>
-      </c>
-      <c r="Q85" s="3">
-        <v>1</v>
-      </c>
-      <c r="R85" s="3">
-        <v>1</v>
+      <c r="P85">
+        <v>75</v>
+      </c>
+      <c r="Q85">
+        <v>2</v>
+      </c>
+      <c r="R85">
+        <v>2</v>
       </c>
       <c r="S85">
-        <v>75</v>
+        <v>1</v>
       </c>
       <c r="T85">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U85">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W85">
         <v>1</v>
       </c>
       <c r="X85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y85">
         <v>0</v>
       </c>
       <c r="Z85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA85">
         <v>0</v>
@@ -15509,22 +14806,13 @@
         <v>0</v>
       </c>
       <c r="AD85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE85">
-        <v>0</v>
-      </c>
-      <c r="AF85">
-        <v>0</v>
-      </c>
-      <c r="AG85">
-        <v>1</v>
-      </c>
-      <c r="AH85">
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="2:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
@@ -15543,65 +14831,56 @@
       <c r="O86" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="P86" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q86" s="11">
-        <v>0</v>
-      </c>
-      <c r="R86" s="11">
-        <v>0</v>
+      <c r="P86">
+        <v>76</v>
+      </c>
+      <c r="Q86">
+        <v>2</v>
+      </c>
+      <c r="R86">
+        <v>2</v>
       </c>
       <c r="S86">
-        <v>76</v>
+        <v>1</v>
       </c>
       <c r="T86">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U86">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W86">
         <v>1</v>
       </c>
       <c r="X86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y86">
         <v>0</v>
       </c>
       <c r="Z86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB86">
         <v>0</v>
       </c>
       <c r="AC86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD86">
         <v>1</v>
       </c>
       <c r="AE86">
-        <v>0</v>
-      </c>
-      <c r="AF86">
-        <v>1</v>
-      </c>
-      <c r="AG86">
-        <v>1</v>
-      </c>
-      <c r="AH86">
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:31" x14ac:dyDescent="0.25">
       <c r="E87" s="6" t="s">
         <v>30</v>
       </c>
@@ -15621,7 +14900,7 @@
         <v>1</v>
       </c>
       <c r="P87">
-        <v>1</v>
+        <v>77</v>
       </c>
       <c r="Q87">
         <v>1</v>
@@ -15630,19 +14909,19 @@
         <v>1</v>
       </c>
       <c r="S87">
-        <v>77</v>
+        <v>1</v>
       </c>
       <c r="T87">
         <v>1</v>
       </c>
       <c r="U87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X87">
         <v>0</v>
@@ -15668,17 +14947,8 @@
       <c r="AE87">
         <v>0</v>
       </c>
-      <c r="AF87">
-        <v>0</v>
-      </c>
-      <c r="AG87">
-        <v>0</v>
-      </c>
-      <c r="AH87">
-        <v>0</v>
-      </c>
     </row>
-    <row r="88" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:31" x14ac:dyDescent="0.25">
       <c r="N88" s="7">
         <v>1</v>
       </c>
@@ -15686,7 +14956,7 @@
         <v>2</v>
       </c>
       <c r="P88">
-        <v>1</v>
+        <v>78</v>
       </c>
       <c r="Q88">
         <v>1</v>
@@ -15695,34 +14965,34 @@
         <v>1</v>
       </c>
       <c r="S88">
-        <v>78</v>
+        <v>1</v>
       </c>
       <c r="T88">
         <v>1</v>
       </c>
       <c r="U88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z88">
         <v>0</v>
       </c>
       <c r="AA88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC88">
         <v>0</v>
@@ -15733,17 +15003,8 @@
       <c r="AE88">
         <v>0</v>
       </c>
-      <c r="AF88">
-        <v>0</v>
-      </c>
-      <c r="AG88">
-        <v>0</v>
-      </c>
-      <c r="AH88">
-        <v>0</v>
-      </c>
     </row>
-    <row r="89" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:31" x14ac:dyDescent="0.25">
       <c r="N89" s="7">
         <v>2</v>
       </c>
@@ -15751,7 +15012,7 @@
         <v>15</v>
       </c>
       <c r="P89">
-        <v>1</v>
+        <v>79</v>
       </c>
       <c r="Q89">
         <v>1</v>
@@ -15760,37 +15021,37 @@
         <v>1</v>
       </c>
       <c r="S89">
-        <v>79</v>
+        <v>1</v>
       </c>
       <c r="T89">
         <v>1</v>
       </c>
       <c r="U89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y89">
         <v>0</v>
       </c>
       <c r="Z89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB89">
         <v>0</v>
       </c>
       <c r="AC89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD89">
         <v>0</v>
@@ -15798,17 +15059,8 @@
       <c r="AE89">
         <v>0</v>
       </c>
-      <c r="AF89">
-        <v>0</v>
-      </c>
-      <c r="AG89">
-        <v>0</v>
-      </c>
-      <c r="AH89">
-        <v>0</v>
-      </c>
     </row>
-    <row r="90" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:31" x14ac:dyDescent="0.25">
       <c r="H90" s="6" t="s">
         <v>21</v>
       </c>
@@ -15825,7 +15077,7 @@
         <v>22</v>
       </c>
       <c r="P90">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="Q90">
         <v>1</v>
@@ -15834,7 +15086,7 @@
         <v>1</v>
       </c>
       <c r="S90">
-        <v>80</v>
+        <v>1</v>
       </c>
       <c r="T90">
         <v>1</v>
@@ -15843,13 +15095,13 @@
         <v>1</v>
       </c>
       <c r="V90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y90">
         <v>0</v>
@@ -15872,17 +15124,8 @@
       <c r="AE90">
         <v>0</v>
       </c>
-      <c r="AF90">
-        <v>0</v>
-      </c>
-      <c r="AG90">
-        <v>0</v>
-      </c>
-      <c r="AH90">
-        <v>0</v>
-      </c>
     </row>
-    <row r="91" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:31" x14ac:dyDescent="0.25">
       <c r="N91" s="7">
         <v>1</v>
       </c>
@@ -15890,7 +15133,7 @@
         <v>23</v>
       </c>
       <c r="P91">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="Q91">
         <v>1</v>
@@ -15899,7 +15142,7 @@
         <v>1</v>
       </c>
       <c r="S91">
-        <v>81</v>
+        <v>1</v>
       </c>
       <c r="T91">
         <v>1</v>
@@ -15908,13 +15151,13 @@
         <v>1</v>
       </c>
       <c r="V91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y91">
         <v>0</v>
@@ -15923,7 +15166,7 @@
         <v>0</v>
       </c>
       <c r="AA91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB91">
         <v>0</v>
@@ -15932,22 +15175,13 @@
         <v>0</v>
       </c>
       <c r="AD91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE91">
         <v>0</v>
       </c>
-      <c r="AF91">
-        <v>0</v>
-      </c>
-      <c r="AG91">
-        <v>0</v>
-      </c>
-      <c r="AH91">
-        <v>0</v>
-      </c>
     </row>
-    <row r="92" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:31" x14ac:dyDescent="0.25">
       <c r="H92" s="6" t="s">
         <v>25</v>
       </c>
@@ -15964,7 +15198,7 @@
         <v>22</v>
       </c>
       <c r="P92">
-        <v>1</v>
+        <v>82</v>
       </c>
       <c r="Q92">
         <v>1</v>
@@ -15973,7 +15207,7 @@
         <v>1</v>
       </c>
       <c r="S92">
-        <v>82</v>
+        <v>1</v>
       </c>
       <c r="T92">
         <v>1</v>
@@ -15985,13 +15219,13 @@
         <v>1</v>
       </c>
       <c r="W92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z92">
         <v>0</v>
@@ -16011,17 +15245,8 @@
       <c r="AE92">
         <v>0</v>
       </c>
-      <c r="AF92">
-        <v>0</v>
-      </c>
-      <c r="AG92">
-        <v>0</v>
-      </c>
-      <c r="AH92">
-        <v>0</v>
-      </c>
     </row>
-    <row r="93" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:31" x14ac:dyDescent="0.25">
       <c r="N93" s="7">
         <v>1</v>
       </c>
@@ -16029,7 +15254,7 @@
         <v>23</v>
       </c>
       <c r="P93">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="Q93">
         <v>1</v>
@@ -16038,7 +15263,7 @@
         <v>1</v>
       </c>
       <c r="S93">
-        <v>83</v>
+        <v>1</v>
       </c>
       <c r="T93">
         <v>1</v>
@@ -16050,74 +15275,45 @@
         <v>1</v>
       </c>
       <c r="W93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z93">
         <v>0</v>
       </c>
       <c r="AA93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC93">
         <v>0</v>
       </c>
       <c r="AD93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE93">
-        <v>1</v>
-      </c>
-      <c r="AF93">
-        <v>0</v>
-      </c>
-      <c r="AG93">
-        <v>0</v>
-      </c>
-      <c r="AH93">
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="2:34" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:31" x14ac:dyDescent="0.25">
       <c r="N94" s="2">
         <v>83</v>
       </c>
       <c r="O94" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="P94" s="1">
-        <f>SUM(P11:P93)</f>
-        <v>51</v>
-      </c>
-      <c r="Q94" s="1">
-        <f>SUM(Q11:Q93)</f>
-        <v>61</v>
-      </c>
-      <c r="R94" s="1">
-        <f>SUM(R11:R93)</f>
-        <v>65</v>
-      </c>
-      <c r="S94" s="1" t="s">
+      <c r="P94" s="1" t="s">
         <v>32</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="P11:R93">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
-      <formula>0.99</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="lessThan">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -16128,7 +15324,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CE95A45-0F6E-47BF-B790-603AC6EAC77B}">
   <dimension ref="A1:P84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
@@ -16136,49 +15332,49 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" t="s">
         <v>35</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>36</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>37</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>38</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>39</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>40</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L1" t="s">
         <v>41</v>
       </c>
-      <c r="I1" t="s">
+      <c r="M1" t="s">
         <v>42</v>
       </c>
-      <c r="J1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K1" t="s">
-        <v>50</v>
-      </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>43</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>44</v>
-      </c>
-      <c r="N1" t="s">
-        <v>45</v>
-      </c>
-      <c r="O1" t="s">
-        <v>46</v>
       </c>
       <c r="P1" t="s">
         <v>18</v>
@@ -20334,12 +19530,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -20566,15 +19759,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6A76B406-ADC6-4F08-AF30-0F865624D0E8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F65D9F54-FEA5-490A-B7A0-2D02DE281B33}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -20599,10 +19796,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F65D9F54-FEA5-490A-B7A0-2D02DE281B33}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6A76B406-ADC6-4F08-AF30-0F865624D0E8}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/inputs/casesmatrix.xlsx
+++ b/inputs/casesmatrix.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pietro\Documents\git\loadshifting\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{920C5F5C-8027-467B-9815-9992EF819318}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E2A3958-73EC-4A5B-A117-D91CD05A97A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-11280" yWindow="3420" windowWidth="21600" windowHeight="12090" xr2:uid="{46087CE1-E58F-4340-83BE-543FB175C0E5}"/>
+    <workbookView xWindow="2235" yWindow="5025" windowWidth="21600" windowHeight="12090" activeTab="1" xr2:uid="{46087CE1-E58F-4340-83BE-543FB175C0E5}"/>
   </bookViews>
   <sheets>
     <sheet name="Arborescence" sheetId="22" r:id="rId1"/>
@@ -249,7 +249,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -284,6 +284,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -9462,7 +9463,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{918CBCC0-AC6A-4943-8BE8-17609B6A2A0A}">
   <dimension ref="B2:AE94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="T17" sqref="T17"/>
     </sheetView>
   </sheetViews>
@@ -15324,4203 +15325,4206 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CE95A45-0F6E-47BF-B790-603AC6EAC77B}">
   <dimension ref="A1:P84"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection sqref="A1:P1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16" width="9.140625" style="18"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="18" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
+      <c r="A2" s="18">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18">
         <v>4</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="18">
         <v>4</v>
       </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2">
+      <c r="D2" s="18">
+        <v>1</v>
+      </c>
+      <c r="E2" s="18">
+        <v>1</v>
+      </c>
+      <c r="F2" s="18">
+        <v>0</v>
+      </c>
+      <c r="G2" s="18">
+        <v>0</v>
+      </c>
+      <c r="H2" s="18">
+        <v>0</v>
+      </c>
+      <c r="I2" s="18">
+        <v>0</v>
+      </c>
+      <c r="J2" s="18">
+        <v>0</v>
+      </c>
+      <c r="K2" s="18">
+        <v>0</v>
+      </c>
+      <c r="L2" s="18">
+        <v>0</v>
+      </c>
+      <c r="M2" s="18">
+        <v>0</v>
+      </c>
+      <c r="N2" s="18">
+        <v>0</v>
+      </c>
+      <c r="O2" s="18">
+        <v>0</v>
+      </c>
+      <c r="P2" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="18">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="18">
         <v>4</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="18">
         <v>4</v>
       </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3">
+      <c r="D3" s="18">
+        <v>1</v>
+      </c>
+      <c r="E3" s="18">
+        <v>1</v>
+      </c>
+      <c r="F3" s="18">
+        <v>0</v>
+      </c>
+      <c r="G3" s="18">
+        <v>0</v>
+      </c>
+      <c r="H3" s="18">
+        <v>0</v>
+      </c>
+      <c r="I3" s="18">
+        <v>1</v>
+      </c>
+      <c r="J3" s="18">
+        <v>1</v>
+      </c>
+      <c r="K3" s="18">
+        <v>0</v>
+      </c>
+      <c r="L3" s="18">
+        <v>0</v>
+      </c>
+      <c r="M3" s="18">
+        <v>0</v>
+      </c>
+      <c r="N3" s="18">
+        <v>0</v>
+      </c>
+      <c r="O3" s="18">
+        <v>0</v>
+      </c>
+      <c r="P3" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="18">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="18">
         <v>4</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="18">
         <v>4</v>
       </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4">
+      <c r="D4" s="18">
+        <v>1</v>
+      </c>
+      <c r="E4" s="18">
+        <v>1</v>
+      </c>
+      <c r="F4" s="18">
+        <v>0</v>
+      </c>
+      <c r="G4" s="18">
+        <v>0</v>
+      </c>
+      <c r="H4" s="18">
+        <v>0</v>
+      </c>
+      <c r="I4" s="18">
+        <v>1</v>
+      </c>
+      <c r="J4" s="18">
+        <v>0</v>
+      </c>
+      <c r="K4" s="18">
+        <v>1</v>
+      </c>
+      <c r="L4" s="18">
+        <v>0</v>
+      </c>
+      <c r="M4" s="18">
+        <v>0</v>
+      </c>
+      <c r="N4" s="18">
+        <v>0</v>
+      </c>
+      <c r="O4" s="18">
+        <v>0</v>
+      </c>
+      <c r="P4" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="18">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="18">
         <v>4</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="18">
         <v>4</v>
       </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>1</v>
-      </c>
-      <c r="P5">
+      <c r="D5" s="18">
+        <v>1</v>
+      </c>
+      <c r="E5" s="18">
+        <v>1</v>
+      </c>
+      <c r="F5" s="18">
+        <v>0</v>
+      </c>
+      <c r="G5" s="18">
+        <v>0</v>
+      </c>
+      <c r="H5" s="18">
+        <v>0</v>
+      </c>
+      <c r="I5" s="18">
+        <v>0</v>
+      </c>
+      <c r="J5" s="18">
+        <v>0</v>
+      </c>
+      <c r="K5" s="18">
+        <v>0</v>
+      </c>
+      <c r="L5" s="18">
+        <v>0</v>
+      </c>
+      <c r="M5" s="18">
+        <v>0</v>
+      </c>
+      <c r="N5" s="18">
+        <v>0</v>
+      </c>
+      <c r="O5" s="18">
+        <v>1</v>
+      </c>
+      <c r="P5" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="18">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="18">
         <v>4</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="18">
         <v>4</v>
       </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <v>1</v>
-      </c>
-      <c r="P6">
+      <c r="D6" s="18">
+        <v>1</v>
+      </c>
+      <c r="E6" s="18">
+        <v>1</v>
+      </c>
+      <c r="F6" s="18">
+        <v>0</v>
+      </c>
+      <c r="G6" s="18">
+        <v>0</v>
+      </c>
+      <c r="H6" s="18">
+        <v>0</v>
+      </c>
+      <c r="I6" s="18">
+        <v>1</v>
+      </c>
+      <c r="J6" s="18">
+        <v>1</v>
+      </c>
+      <c r="K6" s="18">
+        <v>0</v>
+      </c>
+      <c r="L6" s="18">
+        <v>0</v>
+      </c>
+      <c r="M6" s="18">
+        <v>0</v>
+      </c>
+      <c r="N6" s="18">
+        <v>0</v>
+      </c>
+      <c r="O6" s="18">
+        <v>1</v>
+      </c>
+      <c r="P6" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="A7" s="18">
         <v>6</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="18">
         <v>4</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="18">
         <v>4</v>
       </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <v>1</v>
-      </c>
-      <c r="P7">
+      <c r="D7" s="18">
+        <v>1</v>
+      </c>
+      <c r="E7" s="18">
+        <v>1</v>
+      </c>
+      <c r="F7" s="18">
+        <v>0</v>
+      </c>
+      <c r="G7" s="18">
+        <v>0</v>
+      </c>
+      <c r="H7" s="18">
+        <v>0</v>
+      </c>
+      <c r="I7" s="18">
+        <v>1</v>
+      </c>
+      <c r="J7" s="18">
+        <v>0</v>
+      </c>
+      <c r="K7" s="18">
+        <v>1</v>
+      </c>
+      <c r="L7" s="18">
+        <v>0</v>
+      </c>
+      <c r="M7" s="18">
+        <v>0</v>
+      </c>
+      <c r="N7" s="18">
+        <v>0</v>
+      </c>
+      <c r="O7" s="18">
+        <v>1</v>
+      </c>
+      <c r="P7" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="A8" s="18">
         <v>7</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="18">
         <v>4</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="18">
         <v>4</v>
       </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-      <c r="O8">
-        <v>1</v>
-      </c>
-      <c r="P8">
+      <c r="D8" s="18">
+        <v>1</v>
+      </c>
+      <c r="E8" s="18">
+        <v>1</v>
+      </c>
+      <c r="F8" s="18">
+        <v>0</v>
+      </c>
+      <c r="G8" s="18">
+        <v>0</v>
+      </c>
+      <c r="H8" s="18">
+        <v>0</v>
+      </c>
+      <c r="I8" s="18">
+        <v>0</v>
+      </c>
+      <c r="J8" s="18">
+        <v>0</v>
+      </c>
+      <c r="K8" s="18">
+        <v>1</v>
+      </c>
+      <c r="L8" s="18">
+        <v>0</v>
+      </c>
+      <c r="M8" s="18">
+        <v>0</v>
+      </c>
+      <c r="N8" s="18">
+        <v>0</v>
+      </c>
+      <c r="O8" s="18">
+        <v>1</v>
+      </c>
+      <c r="P8" s="18">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="A9" s="18">
         <v>8</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="18">
         <v>4</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="18">
         <v>4</v>
       </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-      <c r="O9">
-        <v>1</v>
-      </c>
-      <c r="P9">
+      <c r="D9" s="18">
+        <v>1</v>
+      </c>
+      <c r="E9" s="18">
+        <v>1</v>
+      </c>
+      <c r="F9" s="18">
+        <v>0</v>
+      </c>
+      <c r="G9" s="18">
+        <v>0</v>
+      </c>
+      <c r="H9" s="18">
+        <v>0</v>
+      </c>
+      <c r="I9" s="18">
+        <v>1</v>
+      </c>
+      <c r="J9" s="18">
+        <v>0</v>
+      </c>
+      <c r="K9" s="18">
+        <v>1</v>
+      </c>
+      <c r="L9" s="18">
+        <v>0</v>
+      </c>
+      <c r="M9" s="18">
+        <v>0</v>
+      </c>
+      <c r="N9" s="18">
+        <v>0</v>
+      </c>
+      <c r="O9" s="18">
+        <v>1</v>
+      </c>
+      <c r="P9" s="18">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="A10" s="18">
         <v>9</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="18">
         <v>4</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="18">
         <v>4</v>
       </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10">
+      <c r="D10" s="18">
+        <v>1</v>
+      </c>
+      <c r="E10" s="18">
+        <v>1</v>
+      </c>
+      <c r="F10" s="18">
+        <v>1</v>
+      </c>
+      <c r="G10" s="18">
+        <v>0</v>
+      </c>
+      <c r="H10" s="18">
+        <v>0</v>
+      </c>
+      <c r="I10" s="18">
+        <v>0</v>
+      </c>
+      <c r="J10" s="18">
+        <v>0</v>
+      </c>
+      <c r="K10" s="18">
+        <v>0</v>
+      </c>
+      <c r="L10" s="18">
+        <v>0</v>
+      </c>
+      <c r="M10" s="18">
+        <v>0</v>
+      </c>
+      <c r="N10" s="18">
+        <v>0</v>
+      </c>
+      <c r="O10" s="18">
+        <v>0</v>
+      </c>
+      <c r="P10" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="A11" s="18">
         <v>10</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="18">
         <v>4</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="18">
         <v>4</v>
       </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11">
+      <c r="D11" s="18">
+        <v>1</v>
+      </c>
+      <c r="E11" s="18">
+        <v>1</v>
+      </c>
+      <c r="F11" s="18">
+        <v>1</v>
+      </c>
+      <c r="G11" s="18">
+        <v>0</v>
+      </c>
+      <c r="H11" s="18">
+        <v>0</v>
+      </c>
+      <c r="I11" s="18">
+        <v>1</v>
+      </c>
+      <c r="J11" s="18">
+        <v>0</v>
+      </c>
+      <c r="K11" s="18">
+        <v>1</v>
+      </c>
+      <c r="L11" s="18">
+        <v>1</v>
+      </c>
+      <c r="M11" s="18">
+        <v>0</v>
+      </c>
+      <c r="N11" s="18">
+        <v>0</v>
+      </c>
+      <c r="O11" s="18">
+        <v>0</v>
+      </c>
+      <c r="P11" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="A12" s="18">
         <v>11</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="18">
         <v>4</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="18">
         <v>4</v>
       </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
-      <c r="O12">
-        <v>1</v>
-      </c>
-      <c r="P12">
+      <c r="D12" s="18">
+        <v>1</v>
+      </c>
+      <c r="E12" s="18">
+        <v>1</v>
+      </c>
+      <c r="F12" s="18">
+        <v>1</v>
+      </c>
+      <c r="G12" s="18">
+        <v>0</v>
+      </c>
+      <c r="H12" s="18">
+        <v>0</v>
+      </c>
+      <c r="I12" s="18">
+        <v>0</v>
+      </c>
+      <c r="J12" s="18">
+        <v>0</v>
+      </c>
+      <c r="K12" s="18">
+        <v>0</v>
+      </c>
+      <c r="L12" s="18">
+        <v>0</v>
+      </c>
+      <c r="M12" s="18">
+        <v>0</v>
+      </c>
+      <c r="N12" s="18">
+        <v>0</v>
+      </c>
+      <c r="O12" s="18">
+        <v>1</v>
+      </c>
+      <c r="P12" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="A13" s="18">
         <v>12</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="18">
         <v>4</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="18">
         <v>4</v>
       </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
-      <c r="O13">
-        <v>1</v>
-      </c>
-      <c r="P13">
+      <c r="D13" s="18">
+        <v>1</v>
+      </c>
+      <c r="E13" s="18">
+        <v>1</v>
+      </c>
+      <c r="F13" s="18">
+        <v>1</v>
+      </c>
+      <c r="G13" s="18">
+        <v>0</v>
+      </c>
+      <c r="H13" s="18">
+        <v>0</v>
+      </c>
+      <c r="I13" s="18">
+        <v>1</v>
+      </c>
+      <c r="J13" s="18">
+        <v>0</v>
+      </c>
+      <c r="K13" s="18">
+        <v>1</v>
+      </c>
+      <c r="L13" s="18">
+        <v>1</v>
+      </c>
+      <c r="M13" s="18">
+        <v>0</v>
+      </c>
+      <c r="N13" s="18">
+        <v>0</v>
+      </c>
+      <c r="O13" s="18">
+        <v>1</v>
+      </c>
+      <c r="P13" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="A14" s="18">
         <v>13</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="18">
         <v>4</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="18">
         <v>4</v>
       </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="N14">
-        <v>0</v>
-      </c>
-      <c r="O14">
-        <v>1</v>
-      </c>
-      <c r="P14">
+      <c r="D14" s="18">
+        <v>1</v>
+      </c>
+      <c r="E14" s="18">
+        <v>1</v>
+      </c>
+      <c r="F14" s="18">
+        <v>1</v>
+      </c>
+      <c r="G14" s="18">
+        <v>0</v>
+      </c>
+      <c r="H14" s="18">
+        <v>0</v>
+      </c>
+      <c r="I14" s="18">
+        <v>0</v>
+      </c>
+      <c r="J14" s="18">
+        <v>0</v>
+      </c>
+      <c r="K14" s="18">
+        <v>0</v>
+      </c>
+      <c r="L14" s="18">
+        <v>0</v>
+      </c>
+      <c r="M14" s="18">
+        <v>0</v>
+      </c>
+      <c r="N14" s="18">
+        <v>0</v>
+      </c>
+      <c r="O14" s="18">
+        <v>1</v>
+      </c>
+      <c r="P14" s="18">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="A15" s="18">
         <v>14</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="18">
         <v>4</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="18">
         <v>4</v>
       </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="N15">
-        <v>0</v>
-      </c>
-      <c r="O15">
-        <v>1</v>
-      </c>
-      <c r="P15">
+      <c r="D15" s="18">
+        <v>1</v>
+      </c>
+      <c r="E15" s="18">
+        <v>1</v>
+      </c>
+      <c r="F15" s="18">
+        <v>1</v>
+      </c>
+      <c r="G15" s="18">
+        <v>0</v>
+      </c>
+      <c r="H15" s="18">
+        <v>0</v>
+      </c>
+      <c r="I15" s="18">
+        <v>1</v>
+      </c>
+      <c r="J15" s="18">
+        <v>0</v>
+      </c>
+      <c r="K15" s="18">
+        <v>1</v>
+      </c>
+      <c r="L15" s="18">
+        <v>1</v>
+      </c>
+      <c r="M15" s="18">
+        <v>0</v>
+      </c>
+      <c r="N15" s="18">
+        <v>0</v>
+      </c>
+      <c r="O15" s="18">
+        <v>1</v>
+      </c>
+      <c r="P15" s="18">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="A16" s="18">
         <v>15</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="18">
         <v>4</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="18">
         <v>4</v>
       </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>1</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-      <c r="N16">
-        <v>0</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16">
+      <c r="D16" s="18">
+        <v>1</v>
+      </c>
+      <c r="E16" s="18">
+        <v>1</v>
+      </c>
+      <c r="F16" s="18">
+        <v>1</v>
+      </c>
+      <c r="G16" s="18">
+        <v>1</v>
+      </c>
+      <c r="H16" s="18">
+        <v>0</v>
+      </c>
+      <c r="I16" s="18">
+        <v>0</v>
+      </c>
+      <c r="J16" s="18">
+        <v>0</v>
+      </c>
+      <c r="K16" s="18">
+        <v>0</v>
+      </c>
+      <c r="L16" s="18">
+        <v>0</v>
+      </c>
+      <c r="M16" s="18">
+        <v>0</v>
+      </c>
+      <c r="N16" s="18">
+        <v>0</v>
+      </c>
+      <c r="O16" s="18">
+        <v>0</v>
+      </c>
+      <c r="P16" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="A17" s="18">
         <v>16</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="18">
         <v>4</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="18">
         <v>4</v>
       </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>1</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>1</v>
-      </c>
-      <c r="N17">
-        <v>0</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17">
+      <c r="D17" s="18">
+        <v>1</v>
+      </c>
+      <c r="E17" s="18">
+        <v>1</v>
+      </c>
+      <c r="F17" s="18">
+        <v>1</v>
+      </c>
+      <c r="G17" s="18">
+        <v>1</v>
+      </c>
+      <c r="H17" s="18">
+        <v>0</v>
+      </c>
+      <c r="I17" s="18">
+        <v>1</v>
+      </c>
+      <c r="J17" s="18">
+        <v>0</v>
+      </c>
+      <c r="K17" s="18">
+        <v>1</v>
+      </c>
+      <c r="L17" s="18">
+        <v>1</v>
+      </c>
+      <c r="M17" s="18">
+        <v>1</v>
+      </c>
+      <c r="N17" s="18">
+        <v>0</v>
+      </c>
+      <c r="O17" s="18">
+        <v>0</v>
+      </c>
+      <c r="P17" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18">
+      <c r="A18" s="18">
         <v>17</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="18">
         <v>4</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="18">
         <v>4</v>
       </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>1</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
-      <c r="N18">
-        <v>0</v>
-      </c>
-      <c r="O18">
-        <v>1</v>
-      </c>
-      <c r="P18">
+      <c r="D18" s="18">
+        <v>1</v>
+      </c>
+      <c r="E18" s="18">
+        <v>1</v>
+      </c>
+      <c r="F18" s="18">
+        <v>1</v>
+      </c>
+      <c r="G18" s="18">
+        <v>1</v>
+      </c>
+      <c r="H18" s="18">
+        <v>0</v>
+      </c>
+      <c r="I18" s="18">
+        <v>0</v>
+      </c>
+      <c r="J18" s="18">
+        <v>0</v>
+      </c>
+      <c r="K18" s="18">
+        <v>0</v>
+      </c>
+      <c r="L18" s="18">
+        <v>0</v>
+      </c>
+      <c r="M18" s="18">
+        <v>0</v>
+      </c>
+      <c r="N18" s="18">
+        <v>0</v>
+      </c>
+      <c r="O18" s="18">
+        <v>1</v>
+      </c>
+      <c r="P18" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="A19" s="18">
         <v>18</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="18">
         <v>4</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="18">
         <v>4</v>
       </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>1</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>1</v>
-      </c>
-      <c r="N19">
-        <v>0</v>
-      </c>
-      <c r="O19">
-        <v>1</v>
-      </c>
-      <c r="P19">
+      <c r="D19" s="18">
+        <v>1</v>
+      </c>
+      <c r="E19" s="18">
+        <v>1</v>
+      </c>
+      <c r="F19" s="18">
+        <v>1</v>
+      </c>
+      <c r="G19" s="18">
+        <v>1</v>
+      </c>
+      <c r="H19" s="18">
+        <v>0</v>
+      </c>
+      <c r="I19" s="18">
+        <v>1</v>
+      </c>
+      <c r="J19" s="18">
+        <v>0</v>
+      </c>
+      <c r="K19" s="18">
+        <v>1</v>
+      </c>
+      <c r="L19" s="18">
+        <v>1</v>
+      </c>
+      <c r="M19" s="18">
+        <v>1</v>
+      </c>
+      <c r="N19" s="18">
+        <v>0</v>
+      </c>
+      <c r="O19" s="18">
+        <v>1</v>
+      </c>
+      <c r="P19" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="A20" s="18">
         <v>19</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="18">
         <v>4</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="18">
         <v>4</v>
       </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>1</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20">
-        <v>0</v>
-      </c>
-      <c r="M20">
-        <v>0</v>
-      </c>
-      <c r="N20">
-        <v>0</v>
-      </c>
-      <c r="O20">
-        <v>1</v>
-      </c>
-      <c r="P20">
+      <c r="D20" s="18">
+        <v>1</v>
+      </c>
+      <c r="E20" s="18">
+        <v>1</v>
+      </c>
+      <c r="F20" s="18">
+        <v>1</v>
+      </c>
+      <c r="G20" s="18">
+        <v>1</v>
+      </c>
+      <c r="H20" s="18">
+        <v>0</v>
+      </c>
+      <c r="I20" s="18">
+        <v>0</v>
+      </c>
+      <c r="J20" s="18">
+        <v>0</v>
+      </c>
+      <c r="K20" s="18">
+        <v>0</v>
+      </c>
+      <c r="L20" s="18">
+        <v>0</v>
+      </c>
+      <c r="M20" s="18">
+        <v>0</v>
+      </c>
+      <c r="N20" s="18">
+        <v>0</v>
+      </c>
+      <c r="O20" s="18">
+        <v>1</v>
+      </c>
+      <c r="P20" s="18">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="A21" s="18">
         <v>20</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="18">
         <v>4</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="18">
         <v>4</v>
       </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>1</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>1</v>
-      </c>
-      <c r="N21">
-        <v>0</v>
-      </c>
-      <c r="O21">
-        <v>1</v>
-      </c>
-      <c r="P21">
+      <c r="D21" s="18">
+        <v>1</v>
+      </c>
+      <c r="E21" s="18">
+        <v>1</v>
+      </c>
+      <c r="F21" s="18">
+        <v>1</v>
+      </c>
+      <c r="G21" s="18">
+        <v>1</v>
+      </c>
+      <c r="H21" s="18">
+        <v>0</v>
+      </c>
+      <c r="I21" s="18">
+        <v>1</v>
+      </c>
+      <c r="J21" s="18">
+        <v>0</v>
+      </c>
+      <c r="K21" s="18">
+        <v>1</v>
+      </c>
+      <c r="L21" s="18">
+        <v>1</v>
+      </c>
+      <c r="M21" s="18">
+        <v>1</v>
+      </c>
+      <c r="N21" s="18">
+        <v>0</v>
+      </c>
+      <c r="O21" s="18">
+        <v>1</v>
+      </c>
+      <c r="P21" s="18">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22">
+      <c r="A22" s="18">
         <v>21</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="18">
         <v>4</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="18">
         <v>4</v>
       </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>1</v>
-      </c>
-      <c r="H22">
-        <v>1</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
-      <c r="L22">
-        <v>0</v>
-      </c>
-      <c r="M22">
-        <v>0</v>
-      </c>
-      <c r="N22">
-        <v>0</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22">
+      <c r="D22" s="18">
+        <v>1</v>
+      </c>
+      <c r="E22" s="18">
+        <v>1</v>
+      </c>
+      <c r="F22" s="18">
+        <v>1</v>
+      </c>
+      <c r="G22" s="18">
+        <v>1</v>
+      </c>
+      <c r="H22" s="18">
+        <v>1</v>
+      </c>
+      <c r="I22" s="18">
+        <v>0</v>
+      </c>
+      <c r="J22" s="18">
+        <v>0</v>
+      </c>
+      <c r="K22" s="18">
+        <v>0</v>
+      </c>
+      <c r="L22" s="18">
+        <v>0</v>
+      </c>
+      <c r="M22" s="18">
+        <v>0</v>
+      </c>
+      <c r="N22" s="18">
+        <v>0</v>
+      </c>
+      <c r="O22" s="18">
+        <v>0</v>
+      </c>
+      <c r="P22" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23">
+      <c r="A23" s="18">
         <v>22</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="18">
         <v>4</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="18">
         <v>4</v>
       </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>1</v>
-      </c>
-      <c r="H23">
-        <v>1</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>1</v>
-      </c>
-      <c r="N23">
-        <v>1</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23">
+      <c r="D23" s="18">
+        <v>1</v>
+      </c>
+      <c r="E23" s="18">
+        <v>1</v>
+      </c>
+      <c r="F23" s="18">
+        <v>1</v>
+      </c>
+      <c r="G23" s="18">
+        <v>1</v>
+      </c>
+      <c r="H23" s="18">
+        <v>1</v>
+      </c>
+      <c r="I23" s="18">
+        <v>1</v>
+      </c>
+      <c r="J23" s="18">
+        <v>0</v>
+      </c>
+      <c r="K23" s="18">
+        <v>1</v>
+      </c>
+      <c r="L23" s="18">
+        <v>1</v>
+      </c>
+      <c r="M23" s="18">
+        <v>1</v>
+      </c>
+      <c r="N23" s="18">
+        <v>1</v>
+      </c>
+      <c r="O23" s="18">
+        <v>0</v>
+      </c>
+      <c r="P23" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24">
+      <c r="A24" s="18">
         <v>23</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="18">
         <v>4</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="18">
         <v>4</v>
       </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>1</v>
-      </c>
-      <c r="H24">
-        <v>1</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-      <c r="K24">
-        <v>0</v>
-      </c>
-      <c r="L24">
-        <v>0</v>
-      </c>
-      <c r="M24">
-        <v>0</v>
-      </c>
-      <c r="N24">
-        <v>0</v>
-      </c>
-      <c r="O24">
-        <v>1</v>
-      </c>
-      <c r="P24">
+      <c r="D24" s="18">
+        <v>1</v>
+      </c>
+      <c r="E24" s="18">
+        <v>1</v>
+      </c>
+      <c r="F24" s="18">
+        <v>1</v>
+      </c>
+      <c r="G24" s="18">
+        <v>1</v>
+      </c>
+      <c r="H24" s="18">
+        <v>1</v>
+      </c>
+      <c r="I24" s="18">
+        <v>0</v>
+      </c>
+      <c r="J24" s="18">
+        <v>0</v>
+      </c>
+      <c r="K24" s="18">
+        <v>0</v>
+      </c>
+      <c r="L24" s="18">
+        <v>0</v>
+      </c>
+      <c r="M24" s="18">
+        <v>0</v>
+      </c>
+      <c r="N24" s="18">
+        <v>0</v>
+      </c>
+      <c r="O24" s="18">
+        <v>1</v>
+      </c>
+      <c r="P24" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25">
+      <c r="A25" s="18">
         <v>24</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="18">
         <v>4</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="18">
         <v>4</v>
       </c>
-      <c r="D25">
-        <v>1</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>1</v>
-      </c>
-      <c r="H25">
-        <v>1</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
-      <c r="K25">
-        <v>0</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>1</v>
-      </c>
-      <c r="N25">
-        <v>1</v>
-      </c>
-      <c r="O25">
-        <v>1</v>
-      </c>
-      <c r="P25">
+      <c r="D25" s="18">
+        <v>1</v>
+      </c>
+      <c r="E25" s="18">
+        <v>1</v>
+      </c>
+      <c r="F25" s="18">
+        <v>1</v>
+      </c>
+      <c r="G25" s="18">
+        <v>1</v>
+      </c>
+      <c r="H25" s="18">
+        <v>1</v>
+      </c>
+      <c r="I25" s="18">
+        <v>1</v>
+      </c>
+      <c r="J25" s="18">
+        <v>0</v>
+      </c>
+      <c r="K25" s="18">
+        <v>1</v>
+      </c>
+      <c r="L25" s="18">
+        <v>1</v>
+      </c>
+      <c r="M25" s="18">
+        <v>1</v>
+      </c>
+      <c r="N25" s="18">
+        <v>1</v>
+      </c>
+      <c r="O25" s="18">
+        <v>1</v>
+      </c>
+      <c r="P25" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26">
+      <c r="A26" s="18">
         <v>25</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="18">
         <v>4</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="18">
         <v>4</v>
       </c>
-      <c r="D26">
-        <v>1</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>1</v>
-      </c>
-      <c r="H26">
-        <v>1</v>
-      </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
-      <c r="J26">
-        <v>0</v>
-      </c>
-      <c r="K26">
-        <v>0</v>
-      </c>
-      <c r="L26">
-        <v>0</v>
-      </c>
-      <c r="M26">
-        <v>0</v>
-      </c>
-      <c r="N26">
-        <v>0</v>
-      </c>
-      <c r="O26">
-        <v>1</v>
-      </c>
-      <c r="P26">
+      <c r="D26" s="18">
+        <v>1</v>
+      </c>
+      <c r="E26" s="18">
+        <v>1</v>
+      </c>
+      <c r="F26" s="18">
+        <v>1</v>
+      </c>
+      <c r="G26" s="18">
+        <v>1</v>
+      </c>
+      <c r="H26" s="18">
+        <v>1</v>
+      </c>
+      <c r="I26" s="18">
+        <v>0</v>
+      </c>
+      <c r="J26" s="18">
+        <v>0</v>
+      </c>
+      <c r="K26" s="18">
+        <v>0</v>
+      </c>
+      <c r="L26" s="18">
+        <v>0</v>
+      </c>
+      <c r="M26" s="18">
+        <v>0</v>
+      </c>
+      <c r="N26" s="18">
+        <v>0</v>
+      </c>
+      <c r="O26" s="18">
+        <v>1</v>
+      </c>
+      <c r="P26" s="18">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27">
+      <c r="A27" s="18">
         <v>26</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="18">
         <v>4</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="18">
         <v>4</v>
       </c>
-      <c r="D27">
-        <v>1</v>
-      </c>
-      <c r="E27">
-        <v>1</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27">
-        <v>1</v>
-      </c>
-      <c r="H27">
-        <v>1</v>
-      </c>
-      <c r="I27">
-        <v>0</v>
-      </c>
-      <c r="J27">
-        <v>0</v>
-      </c>
-      <c r="K27">
-        <v>0</v>
-      </c>
-      <c r="L27">
-        <v>0</v>
-      </c>
-      <c r="M27">
-        <v>1</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="O27">
-        <v>1</v>
-      </c>
-      <c r="P27">
+      <c r="D27" s="18">
+        <v>1</v>
+      </c>
+      <c r="E27" s="18">
+        <v>1</v>
+      </c>
+      <c r="F27" s="18">
+        <v>1</v>
+      </c>
+      <c r="G27" s="18">
+        <v>1</v>
+      </c>
+      <c r="H27" s="18">
+        <v>1</v>
+      </c>
+      <c r="I27" s="18">
+        <v>1</v>
+      </c>
+      <c r="J27" s="18">
+        <v>0</v>
+      </c>
+      <c r="K27" s="18">
+        <v>1</v>
+      </c>
+      <c r="L27" s="18">
+        <v>0</v>
+      </c>
+      <c r="M27" s="18">
+        <v>1</v>
+      </c>
+      <c r="N27" s="18">
+        <v>1</v>
+      </c>
+      <c r="O27" s="18">
+        <v>1</v>
+      </c>
+      <c r="P27" s="18">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28">
+      <c r="A28" s="18">
         <v>27</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="18">
         <v>4</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="18">
         <v>4</v>
       </c>
-      <c r="D28">
-        <v>1</v>
-      </c>
-      <c r="E28">
-        <v>1</v>
-      </c>
-      <c r="F28">
-        <v>0</v>
-      </c>
-      <c r="G28">
-        <v>0</v>
-      </c>
-      <c r="H28">
-        <v>1</v>
-      </c>
-      <c r="I28">
-        <v>0</v>
-      </c>
-      <c r="J28">
-        <v>0</v>
-      </c>
-      <c r="K28">
-        <v>0</v>
-      </c>
-      <c r="L28">
-        <v>0</v>
-      </c>
-      <c r="M28">
-        <v>0</v>
-      </c>
-      <c r="N28">
-        <v>0</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28">
+      <c r="D28" s="18">
+        <v>1</v>
+      </c>
+      <c r="E28" s="18">
+        <v>1</v>
+      </c>
+      <c r="F28" s="18">
+        <v>0</v>
+      </c>
+      <c r="G28" s="18">
+        <v>0</v>
+      </c>
+      <c r="H28" s="18">
+        <v>1</v>
+      </c>
+      <c r="I28" s="18">
+        <v>0</v>
+      </c>
+      <c r="J28" s="18">
+        <v>0</v>
+      </c>
+      <c r="K28" s="18">
+        <v>0</v>
+      </c>
+      <c r="L28" s="18">
+        <v>0</v>
+      </c>
+      <c r="M28" s="18">
+        <v>0</v>
+      </c>
+      <c r="N28" s="18">
+        <v>0</v>
+      </c>
+      <c r="O28" s="18">
+        <v>0</v>
+      </c>
+      <c r="P28" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29">
+      <c r="A29" s="18">
         <v>28</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="18">
         <v>4</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="18">
         <v>4</v>
       </c>
-      <c r="D29">
-        <v>1</v>
-      </c>
-      <c r="E29">
-        <v>1</v>
-      </c>
-      <c r="F29">
-        <v>0</v>
-      </c>
-      <c r="G29">
-        <v>0</v>
-      </c>
-      <c r="H29">
-        <v>1</v>
-      </c>
-      <c r="I29">
-        <v>0</v>
-      </c>
-      <c r="J29">
-        <v>0</v>
-      </c>
-      <c r="K29">
-        <v>0</v>
-      </c>
-      <c r="L29">
-        <v>0</v>
-      </c>
-      <c r="M29">
-        <v>0</v>
-      </c>
-      <c r="N29">
-        <v>1</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29">
+      <c r="D29" s="18">
+        <v>1</v>
+      </c>
+      <c r="E29" s="18">
+        <v>1</v>
+      </c>
+      <c r="F29" s="18">
+        <v>0</v>
+      </c>
+      <c r="G29" s="18">
+        <v>0</v>
+      </c>
+      <c r="H29" s="18">
+        <v>1</v>
+      </c>
+      <c r="I29" s="18">
+        <v>1</v>
+      </c>
+      <c r="J29" s="18">
+        <v>0</v>
+      </c>
+      <c r="K29" s="18">
+        <v>1</v>
+      </c>
+      <c r="L29" s="18">
+        <v>0</v>
+      </c>
+      <c r="M29" s="18">
+        <v>0</v>
+      </c>
+      <c r="N29" s="18">
+        <v>1</v>
+      </c>
+      <c r="O29" s="18">
+        <v>0</v>
+      </c>
+      <c r="P29" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30">
+      <c r="A30" s="18">
         <v>29</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="18">
         <v>4</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="18">
         <v>4</v>
       </c>
-      <c r="D30">
-        <v>1</v>
-      </c>
-      <c r="E30">
-        <v>1</v>
-      </c>
-      <c r="F30">
-        <v>0</v>
-      </c>
-      <c r="G30">
-        <v>0</v>
-      </c>
-      <c r="H30">
-        <v>1</v>
-      </c>
-      <c r="I30">
-        <v>0</v>
-      </c>
-      <c r="J30">
-        <v>0</v>
-      </c>
-      <c r="K30">
-        <v>0</v>
-      </c>
-      <c r="L30">
-        <v>0</v>
-      </c>
-      <c r="M30">
-        <v>0</v>
-      </c>
-      <c r="N30">
-        <v>0</v>
-      </c>
-      <c r="O30">
-        <v>1</v>
-      </c>
-      <c r="P30">
+      <c r="D30" s="18">
+        <v>1</v>
+      </c>
+      <c r="E30" s="18">
+        <v>1</v>
+      </c>
+      <c r="F30" s="18">
+        <v>0</v>
+      </c>
+      <c r="G30" s="18">
+        <v>0</v>
+      </c>
+      <c r="H30" s="18">
+        <v>1</v>
+      </c>
+      <c r="I30" s="18">
+        <v>0</v>
+      </c>
+      <c r="J30" s="18">
+        <v>0</v>
+      </c>
+      <c r="K30" s="18">
+        <v>0</v>
+      </c>
+      <c r="L30" s="18">
+        <v>0</v>
+      </c>
+      <c r="M30" s="18">
+        <v>0</v>
+      </c>
+      <c r="N30" s="18">
+        <v>0</v>
+      </c>
+      <c r="O30" s="18">
+        <v>1</v>
+      </c>
+      <c r="P30" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A31">
+      <c r="A31" s="18">
         <v>30</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="18">
         <v>4</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="18">
         <v>4</v>
       </c>
-      <c r="D31">
-        <v>1</v>
-      </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31">
-        <v>0</v>
-      </c>
-      <c r="G31">
-        <v>0</v>
-      </c>
-      <c r="H31">
-        <v>1</v>
-      </c>
-      <c r="I31">
-        <v>0</v>
-      </c>
-      <c r="J31">
-        <v>0</v>
-      </c>
-      <c r="K31">
-        <v>0</v>
-      </c>
-      <c r="L31">
-        <v>0</v>
-      </c>
-      <c r="M31">
-        <v>0</v>
-      </c>
-      <c r="N31">
-        <v>1</v>
-      </c>
-      <c r="O31">
-        <v>1</v>
-      </c>
-      <c r="P31">
+      <c r="D31" s="18">
+        <v>1</v>
+      </c>
+      <c r="E31" s="18">
+        <v>1</v>
+      </c>
+      <c r="F31" s="18">
+        <v>0</v>
+      </c>
+      <c r="G31" s="18">
+        <v>0</v>
+      </c>
+      <c r="H31" s="18">
+        <v>1</v>
+      </c>
+      <c r="I31" s="18">
+        <v>1</v>
+      </c>
+      <c r="J31" s="18">
+        <v>0</v>
+      </c>
+      <c r="K31" s="18">
+        <v>1</v>
+      </c>
+      <c r="L31" s="18">
+        <v>0</v>
+      </c>
+      <c r="M31" s="18">
+        <v>0</v>
+      </c>
+      <c r="N31" s="18">
+        <v>1</v>
+      </c>
+      <c r="O31" s="18">
+        <v>1</v>
+      </c>
+      <c r="P31" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A32">
+      <c r="A32" s="18">
         <v>31</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="18">
         <v>4</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="18">
         <v>4</v>
       </c>
-      <c r="D32">
-        <v>1</v>
-      </c>
-      <c r="E32">
-        <v>1</v>
-      </c>
-      <c r="F32">
-        <v>0</v>
-      </c>
-      <c r="G32">
-        <v>0</v>
-      </c>
-      <c r="H32">
-        <v>1</v>
-      </c>
-      <c r="I32">
-        <v>0</v>
-      </c>
-      <c r="J32">
-        <v>0</v>
-      </c>
-      <c r="K32">
-        <v>0</v>
-      </c>
-      <c r="L32">
-        <v>0</v>
-      </c>
-      <c r="M32">
-        <v>0</v>
-      </c>
-      <c r="N32">
-        <v>0</v>
-      </c>
-      <c r="O32">
-        <v>1</v>
-      </c>
-      <c r="P32">
+      <c r="D32" s="18">
+        <v>1</v>
+      </c>
+      <c r="E32" s="18">
+        <v>1</v>
+      </c>
+      <c r="F32" s="18">
+        <v>0</v>
+      </c>
+      <c r="G32" s="18">
+        <v>0</v>
+      </c>
+      <c r="H32" s="18">
+        <v>1</v>
+      </c>
+      <c r="I32" s="18">
+        <v>0</v>
+      </c>
+      <c r="J32" s="18">
+        <v>0</v>
+      </c>
+      <c r="K32" s="18">
+        <v>0</v>
+      </c>
+      <c r="L32" s="18">
+        <v>0</v>
+      </c>
+      <c r="M32" s="18">
+        <v>0</v>
+      </c>
+      <c r="N32" s="18">
+        <v>0</v>
+      </c>
+      <c r="O32" s="18">
+        <v>1</v>
+      </c>
+      <c r="P32" s="18">
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A33">
+      <c r="A33" s="18">
         <v>32</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="18">
         <v>4</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="18">
         <v>4</v>
       </c>
-      <c r="D33">
-        <v>1</v>
-      </c>
-      <c r="E33">
-        <v>1</v>
-      </c>
-      <c r="F33">
-        <v>0</v>
-      </c>
-      <c r="G33">
-        <v>0</v>
-      </c>
-      <c r="H33">
-        <v>1</v>
-      </c>
-      <c r="I33">
-        <v>0</v>
-      </c>
-      <c r="J33">
-        <v>0</v>
-      </c>
-      <c r="K33">
-        <v>0</v>
-      </c>
-      <c r="M33">
-        <v>0</v>
-      </c>
-      <c r="N33">
-        <v>1</v>
-      </c>
-      <c r="O33">
-        <v>1</v>
-      </c>
-      <c r="P33">
+      <c r="D33" s="18">
+        <v>1</v>
+      </c>
+      <c r="E33" s="18">
+        <v>1</v>
+      </c>
+      <c r="F33" s="18">
+        <v>0</v>
+      </c>
+      <c r="G33" s="18">
+        <v>0</v>
+      </c>
+      <c r="H33" s="18">
+        <v>1</v>
+      </c>
+      <c r="I33" s="18">
+        <v>1</v>
+      </c>
+      <c r="J33" s="18">
+        <v>0</v>
+      </c>
+      <c r="K33" s="18">
+        <v>1</v>
+      </c>
+      <c r="M33" s="18">
+        <v>0</v>
+      </c>
+      <c r="N33" s="18">
+        <v>1</v>
+      </c>
+      <c r="O33" s="18">
+        <v>1</v>
+      </c>
+      <c r="P33" s="18">
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A34">
+      <c r="A34" s="18">
         <v>33</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="18">
         <v>4</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="18">
         <v>4</v>
       </c>
-      <c r="D34">
-        <v>1</v>
-      </c>
-      <c r="E34">
-        <v>1</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-      <c r="G34">
-        <v>0</v>
-      </c>
-      <c r="H34">
-        <v>1</v>
-      </c>
-      <c r="I34">
-        <v>0</v>
-      </c>
-      <c r="J34">
-        <v>0</v>
-      </c>
-      <c r="K34">
-        <v>0</v>
-      </c>
-      <c r="L34">
-        <v>0</v>
-      </c>
-      <c r="M34">
-        <v>0</v>
-      </c>
-      <c r="N34">
-        <v>0</v>
-      </c>
-      <c r="O34">
-        <v>0</v>
-      </c>
-      <c r="P34">
+      <c r="D34" s="18">
+        <v>1</v>
+      </c>
+      <c r="E34" s="18">
+        <v>1</v>
+      </c>
+      <c r="F34" s="18">
+        <v>1</v>
+      </c>
+      <c r="G34" s="18">
+        <v>0</v>
+      </c>
+      <c r="H34" s="18">
+        <v>1</v>
+      </c>
+      <c r="I34" s="18">
+        <v>0</v>
+      </c>
+      <c r="J34" s="18">
+        <v>0</v>
+      </c>
+      <c r="K34" s="18">
+        <v>0</v>
+      </c>
+      <c r="L34" s="18">
+        <v>0</v>
+      </c>
+      <c r="M34" s="18">
+        <v>0</v>
+      </c>
+      <c r="N34" s="18">
+        <v>0</v>
+      </c>
+      <c r="O34" s="18">
+        <v>0</v>
+      </c>
+      <c r="P34" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A35">
+      <c r="A35" s="18">
         <v>34</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="18">
         <v>4</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="18">
         <v>4</v>
       </c>
-      <c r="D35">
-        <v>1</v>
-      </c>
-      <c r="E35">
-        <v>1</v>
-      </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-      <c r="G35">
-        <v>0</v>
-      </c>
-      <c r="H35">
-        <v>1</v>
-      </c>
-      <c r="I35">
-        <v>0</v>
-      </c>
-      <c r="J35">
-        <v>0</v>
-      </c>
-      <c r="K35">
-        <v>0</v>
-      </c>
-      <c r="L35">
-        <v>1</v>
-      </c>
-      <c r="M35">
-        <v>0</v>
-      </c>
-      <c r="N35">
-        <v>1</v>
-      </c>
-      <c r="O35">
-        <v>0</v>
-      </c>
-      <c r="P35">
+      <c r="D35" s="18">
+        <v>1</v>
+      </c>
+      <c r="E35" s="18">
+        <v>1</v>
+      </c>
+      <c r="F35" s="18">
+        <v>1</v>
+      </c>
+      <c r="G35" s="18">
+        <v>0</v>
+      </c>
+      <c r="H35" s="18">
+        <v>1</v>
+      </c>
+      <c r="I35" s="18">
+        <v>1</v>
+      </c>
+      <c r="J35" s="18">
+        <v>0</v>
+      </c>
+      <c r="K35" s="18">
+        <v>1</v>
+      </c>
+      <c r="L35" s="18">
+        <v>1</v>
+      </c>
+      <c r="M35" s="18">
+        <v>0</v>
+      </c>
+      <c r="N35" s="18">
+        <v>1</v>
+      </c>
+      <c r="O35" s="18">
+        <v>0</v>
+      </c>
+      <c r="P35" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A36">
+      <c r="A36" s="18">
         <v>35</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="18">
         <v>4</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="18">
         <v>4</v>
       </c>
-      <c r="D36">
-        <v>1</v>
-      </c>
-      <c r="E36">
-        <v>1</v>
-      </c>
-      <c r="F36">
-        <v>1</v>
-      </c>
-      <c r="G36">
-        <v>0</v>
-      </c>
-      <c r="H36">
-        <v>1</v>
-      </c>
-      <c r="I36">
-        <v>0</v>
-      </c>
-      <c r="J36">
-        <v>0</v>
-      </c>
-      <c r="K36">
-        <v>0</v>
-      </c>
-      <c r="L36">
-        <v>0</v>
-      </c>
-      <c r="M36">
-        <v>0</v>
-      </c>
-      <c r="N36">
-        <v>0</v>
-      </c>
-      <c r="O36">
-        <v>1</v>
-      </c>
-      <c r="P36">
+      <c r="D36" s="18">
+        <v>1</v>
+      </c>
+      <c r="E36" s="18">
+        <v>1</v>
+      </c>
+      <c r="F36" s="18">
+        <v>1</v>
+      </c>
+      <c r="G36" s="18">
+        <v>0</v>
+      </c>
+      <c r="H36" s="18">
+        <v>1</v>
+      </c>
+      <c r="I36" s="18">
+        <v>0</v>
+      </c>
+      <c r="J36" s="18">
+        <v>0</v>
+      </c>
+      <c r="K36" s="18">
+        <v>0</v>
+      </c>
+      <c r="L36" s="18">
+        <v>0</v>
+      </c>
+      <c r="M36" s="18">
+        <v>0</v>
+      </c>
+      <c r="N36" s="18">
+        <v>0</v>
+      </c>
+      <c r="O36" s="18">
+        <v>1</v>
+      </c>
+      <c r="P36" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A37">
+      <c r="A37" s="18">
         <v>36</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="18">
         <v>4</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="18">
         <v>4</v>
       </c>
-      <c r="D37">
-        <v>1</v>
-      </c>
-      <c r="E37">
-        <v>1</v>
-      </c>
-      <c r="F37">
-        <v>1</v>
-      </c>
-      <c r="G37">
-        <v>0</v>
-      </c>
-      <c r="H37">
-        <v>1</v>
-      </c>
-      <c r="I37">
-        <v>0</v>
-      </c>
-      <c r="J37">
-        <v>0</v>
-      </c>
-      <c r="K37">
-        <v>0</v>
-      </c>
-      <c r="L37">
-        <v>1</v>
-      </c>
-      <c r="M37">
-        <v>0</v>
-      </c>
-      <c r="N37">
-        <v>1</v>
-      </c>
-      <c r="O37">
-        <v>1</v>
-      </c>
-      <c r="P37">
+      <c r="D37" s="18">
+        <v>1</v>
+      </c>
+      <c r="E37" s="18">
+        <v>1</v>
+      </c>
+      <c r="F37" s="18">
+        <v>1</v>
+      </c>
+      <c r="G37" s="18">
+        <v>0</v>
+      </c>
+      <c r="H37" s="18">
+        <v>1</v>
+      </c>
+      <c r="I37" s="18">
+        <v>1</v>
+      </c>
+      <c r="J37" s="18">
+        <v>0</v>
+      </c>
+      <c r="K37" s="18">
+        <v>1</v>
+      </c>
+      <c r="L37" s="18">
+        <v>1</v>
+      </c>
+      <c r="M37" s="18">
+        <v>0</v>
+      </c>
+      <c r="N37" s="18">
+        <v>1</v>
+      </c>
+      <c r="O37" s="18">
+        <v>1</v>
+      </c>
+      <c r="P37" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A38">
+      <c r="A38" s="18">
         <v>37</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="18">
         <v>4</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="18">
         <v>4</v>
       </c>
-      <c r="D38">
-        <v>1</v>
-      </c>
-      <c r="E38">
-        <v>1</v>
-      </c>
-      <c r="F38">
-        <v>1</v>
-      </c>
-      <c r="G38">
-        <v>0</v>
-      </c>
-      <c r="H38">
-        <v>1</v>
-      </c>
-      <c r="I38">
-        <v>0</v>
-      </c>
-      <c r="J38">
-        <v>0</v>
-      </c>
-      <c r="K38">
-        <v>0</v>
-      </c>
-      <c r="L38">
-        <v>0</v>
-      </c>
-      <c r="M38">
-        <v>0</v>
-      </c>
-      <c r="N38">
-        <v>0</v>
-      </c>
-      <c r="O38">
-        <v>1</v>
-      </c>
-      <c r="P38">
+      <c r="D38" s="18">
+        <v>1</v>
+      </c>
+      <c r="E38" s="18">
+        <v>1</v>
+      </c>
+      <c r="F38" s="18">
+        <v>1</v>
+      </c>
+      <c r="G38" s="18">
+        <v>0</v>
+      </c>
+      <c r="H38" s="18">
+        <v>1</v>
+      </c>
+      <c r="I38" s="18">
+        <v>0</v>
+      </c>
+      <c r="J38" s="18">
+        <v>0</v>
+      </c>
+      <c r="K38" s="18">
+        <v>0</v>
+      </c>
+      <c r="L38" s="18">
+        <v>0</v>
+      </c>
+      <c r="M38" s="18">
+        <v>0</v>
+      </c>
+      <c r="N38" s="18">
+        <v>0</v>
+      </c>
+      <c r="O38" s="18">
+        <v>1</v>
+      </c>
+      <c r="P38" s="18">
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A39">
+      <c r="A39" s="18">
         <v>38</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="18">
         <v>4</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="18">
         <v>4</v>
       </c>
-      <c r="D39">
-        <v>1</v>
-      </c>
-      <c r="E39">
-        <v>1</v>
-      </c>
-      <c r="F39">
-        <v>1</v>
-      </c>
-      <c r="G39">
-        <v>0</v>
-      </c>
-      <c r="H39">
-        <v>1</v>
-      </c>
-      <c r="I39">
-        <v>0</v>
-      </c>
-      <c r="J39">
-        <v>0</v>
-      </c>
-      <c r="K39">
-        <v>0</v>
-      </c>
-      <c r="L39">
-        <v>1</v>
-      </c>
-      <c r="M39">
-        <v>0</v>
-      </c>
-      <c r="N39">
-        <v>1</v>
-      </c>
-      <c r="O39">
-        <v>1</v>
-      </c>
-      <c r="P39">
+      <c r="D39" s="18">
+        <v>1</v>
+      </c>
+      <c r="E39" s="18">
+        <v>1</v>
+      </c>
+      <c r="F39" s="18">
+        <v>1</v>
+      </c>
+      <c r="G39" s="18">
+        <v>0</v>
+      </c>
+      <c r="H39" s="18">
+        <v>1</v>
+      </c>
+      <c r="I39" s="18">
+        <v>1</v>
+      </c>
+      <c r="J39" s="18">
+        <v>0</v>
+      </c>
+      <c r="K39" s="18">
+        <v>1</v>
+      </c>
+      <c r="L39" s="18">
+        <v>1</v>
+      </c>
+      <c r="M39" s="18">
+        <v>0</v>
+      </c>
+      <c r="N39" s="18">
+        <v>1</v>
+      </c>
+      <c r="O39" s="18">
+        <v>1</v>
+      </c>
+      <c r="P39" s="18">
         <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A40">
+      <c r="A40" s="18">
         <v>39</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="18">
         <v>2</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="18">
         <v>2</v>
       </c>
-      <c r="D40">
-        <v>1</v>
-      </c>
-      <c r="E40">
-        <v>1</v>
-      </c>
-      <c r="F40">
-        <v>0</v>
-      </c>
-      <c r="G40">
-        <v>0</v>
-      </c>
-      <c r="H40">
-        <v>0</v>
-      </c>
-      <c r="I40">
-        <v>0</v>
-      </c>
-      <c r="J40">
-        <v>0</v>
-      </c>
-      <c r="K40">
-        <v>0</v>
-      </c>
-      <c r="L40">
-        <v>0</v>
-      </c>
-      <c r="M40">
-        <v>0</v>
-      </c>
-      <c r="N40">
-        <v>0</v>
-      </c>
-      <c r="O40">
-        <v>0</v>
-      </c>
-      <c r="P40">
+      <c r="D40" s="18">
+        <v>1</v>
+      </c>
+      <c r="E40" s="18">
+        <v>1</v>
+      </c>
+      <c r="F40" s="18">
+        <v>0</v>
+      </c>
+      <c r="G40" s="18">
+        <v>0</v>
+      </c>
+      <c r="H40" s="18">
+        <v>0</v>
+      </c>
+      <c r="I40" s="18">
+        <v>0</v>
+      </c>
+      <c r="J40" s="18">
+        <v>0</v>
+      </c>
+      <c r="K40" s="18">
+        <v>0</v>
+      </c>
+      <c r="L40" s="18">
+        <v>0</v>
+      </c>
+      <c r="M40" s="18">
+        <v>0</v>
+      </c>
+      <c r="N40" s="18">
+        <v>0</v>
+      </c>
+      <c r="O40" s="18">
+        <v>0</v>
+      </c>
+      <c r="P40" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A41">
+      <c r="A41" s="18">
         <v>40</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="18">
         <v>2</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="18">
         <v>2</v>
       </c>
-      <c r="D41">
-        <v>1</v>
-      </c>
-      <c r="E41">
-        <v>1</v>
-      </c>
-      <c r="F41">
-        <v>0</v>
-      </c>
-      <c r="G41">
-        <v>0</v>
-      </c>
-      <c r="H41">
-        <v>0</v>
-      </c>
-      <c r="I41">
-        <v>1</v>
-      </c>
-      <c r="J41">
-        <v>1</v>
-      </c>
-      <c r="K41">
-        <v>0</v>
-      </c>
-      <c r="L41">
-        <v>0</v>
-      </c>
-      <c r="M41">
-        <v>0</v>
-      </c>
-      <c r="N41">
-        <v>0</v>
-      </c>
-      <c r="O41">
-        <v>0</v>
-      </c>
-      <c r="P41">
+      <c r="D41" s="18">
+        <v>1</v>
+      </c>
+      <c r="E41" s="18">
+        <v>1</v>
+      </c>
+      <c r="F41" s="18">
+        <v>0</v>
+      </c>
+      <c r="G41" s="18">
+        <v>0</v>
+      </c>
+      <c r="H41" s="18">
+        <v>0</v>
+      </c>
+      <c r="I41" s="18">
+        <v>1</v>
+      </c>
+      <c r="J41" s="18">
+        <v>1</v>
+      </c>
+      <c r="K41" s="18">
+        <v>0</v>
+      </c>
+      <c r="L41" s="18">
+        <v>0</v>
+      </c>
+      <c r="M41" s="18">
+        <v>0</v>
+      </c>
+      <c r="N41" s="18">
+        <v>0</v>
+      </c>
+      <c r="O41" s="18">
+        <v>0</v>
+      </c>
+      <c r="P41" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A42">
+      <c r="A42" s="18">
         <v>41</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="18">
         <v>2</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="18">
         <v>2</v>
       </c>
-      <c r="D42">
-        <v>1</v>
-      </c>
-      <c r="E42">
-        <v>1</v>
-      </c>
-      <c r="F42">
-        <v>0</v>
-      </c>
-      <c r="G42">
-        <v>0</v>
-      </c>
-      <c r="H42">
-        <v>0</v>
-      </c>
-      <c r="I42">
-        <v>1</v>
-      </c>
-      <c r="J42">
-        <v>0</v>
-      </c>
-      <c r="K42">
-        <v>1</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
-        <v>0</v>
-      </c>
-      <c r="O42">
-        <v>0</v>
-      </c>
-      <c r="P42">
+      <c r="D42" s="18">
+        <v>1</v>
+      </c>
+      <c r="E42" s="18">
+        <v>1</v>
+      </c>
+      <c r="F42" s="18">
+        <v>0</v>
+      </c>
+      <c r="G42" s="18">
+        <v>0</v>
+      </c>
+      <c r="H42" s="18">
+        <v>0</v>
+      </c>
+      <c r="I42" s="18">
+        <v>1</v>
+      </c>
+      <c r="J42" s="18">
+        <v>0</v>
+      </c>
+      <c r="K42" s="18">
+        <v>1</v>
+      </c>
+      <c r="L42" s="18">
+        <v>0</v>
+      </c>
+      <c r="M42" s="18">
+        <v>0</v>
+      </c>
+      <c r="N42" s="18">
+        <v>0</v>
+      </c>
+      <c r="O42" s="18">
+        <v>0</v>
+      </c>
+      <c r="P42" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A43">
+      <c r="A43" s="18">
         <v>42</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="18">
         <v>2</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="18">
         <v>2</v>
       </c>
-      <c r="D43">
-        <v>1</v>
-      </c>
-      <c r="E43">
-        <v>1</v>
-      </c>
-      <c r="F43">
-        <v>0</v>
-      </c>
-      <c r="G43">
-        <v>0</v>
-      </c>
-      <c r="H43">
-        <v>0</v>
-      </c>
-      <c r="I43">
-        <v>0</v>
-      </c>
-      <c r="J43">
-        <v>0</v>
-      </c>
-      <c r="K43">
-        <v>0</v>
-      </c>
-      <c r="L43">
-        <v>0</v>
-      </c>
-      <c r="M43">
-        <v>0</v>
-      </c>
-      <c r="N43">
-        <v>0</v>
-      </c>
-      <c r="O43">
-        <v>1</v>
-      </c>
-      <c r="P43">
+      <c r="D43" s="18">
+        <v>1</v>
+      </c>
+      <c r="E43" s="18">
+        <v>1</v>
+      </c>
+      <c r="F43" s="18">
+        <v>0</v>
+      </c>
+      <c r="G43" s="18">
+        <v>0</v>
+      </c>
+      <c r="H43" s="18">
+        <v>0</v>
+      </c>
+      <c r="I43" s="18">
+        <v>0</v>
+      </c>
+      <c r="J43" s="18">
+        <v>0</v>
+      </c>
+      <c r="K43" s="18">
+        <v>0</v>
+      </c>
+      <c r="L43" s="18">
+        <v>0</v>
+      </c>
+      <c r="M43" s="18">
+        <v>0</v>
+      </c>
+      <c r="N43" s="18">
+        <v>0</v>
+      </c>
+      <c r="O43" s="18">
+        <v>1</v>
+      </c>
+      <c r="P43" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A44">
+      <c r="A44" s="18">
         <v>43</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="18">
         <v>2</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="18">
         <v>2</v>
       </c>
-      <c r="D44">
-        <v>1</v>
-      </c>
-      <c r="E44">
-        <v>1</v>
-      </c>
-      <c r="F44">
-        <v>0</v>
-      </c>
-      <c r="G44">
-        <v>0</v>
-      </c>
-      <c r="H44">
-        <v>0</v>
-      </c>
-      <c r="I44">
-        <v>1</v>
-      </c>
-      <c r="J44">
-        <v>1</v>
-      </c>
-      <c r="K44">
-        <v>0</v>
-      </c>
-      <c r="L44">
-        <v>0</v>
-      </c>
-      <c r="M44">
-        <v>0</v>
-      </c>
-      <c r="N44">
-        <v>0</v>
-      </c>
-      <c r="O44">
-        <v>1</v>
-      </c>
-      <c r="P44">
+      <c r="D44" s="18">
+        <v>1</v>
+      </c>
+      <c r="E44" s="18">
+        <v>1</v>
+      </c>
+      <c r="F44" s="18">
+        <v>0</v>
+      </c>
+      <c r="G44" s="18">
+        <v>0</v>
+      </c>
+      <c r="H44" s="18">
+        <v>0</v>
+      </c>
+      <c r="I44" s="18">
+        <v>1</v>
+      </c>
+      <c r="J44" s="18">
+        <v>1</v>
+      </c>
+      <c r="K44" s="18">
+        <v>0</v>
+      </c>
+      <c r="L44" s="18">
+        <v>0</v>
+      </c>
+      <c r="M44" s="18">
+        <v>0</v>
+      </c>
+      <c r="N44" s="18">
+        <v>0</v>
+      </c>
+      <c r="O44" s="18">
+        <v>1</v>
+      </c>
+      <c r="P44" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A45">
+      <c r="A45" s="18">
         <v>44</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="18">
         <v>2</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="18">
         <v>2</v>
       </c>
-      <c r="D45">
-        <v>1</v>
-      </c>
-      <c r="E45">
-        <v>1</v>
-      </c>
-      <c r="F45">
-        <v>0</v>
-      </c>
-      <c r="G45">
-        <v>0</v>
-      </c>
-      <c r="H45">
-        <v>0</v>
-      </c>
-      <c r="I45">
-        <v>1</v>
-      </c>
-      <c r="J45">
-        <v>0</v>
-      </c>
-      <c r="K45">
-        <v>1</v>
-      </c>
-      <c r="L45">
-        <v>0</v>
-      </c>
-      <c r="M45">
-        <v>0</v>
-      </c>
-      <c r="N45">
-        <v>0</v>
-      </c>
-      <c r="O45">
-        <v>1</v>
-      </c>
-      <c r="P45">
+      <c r="D45" s="18">
+        <v>1</v>
+      </c>
+      <c r="E45" s="18">
+        <v>1</v>
+      </c>
+      <c r="F45" s="18">
+        <v>0</v>
+      </c>
+      <c r="G45" s="18">
+        <v>0</v>
+      </c>
+      <c r="H45" s="18">
+        <v>0</v>
+      </c>
+      <c r="I45" s="18">
+        <v>1</v>
+      </c>
+      <c r="J45" s="18">
+        <v>0</v>
+      </c>
+      <c r="K45" s="18">
+        <v>1</v>
+      </c>
+      <c r="L45" s="18">
+        <v>0</v>
+      </c>
+      <c r="M45" s="18">
+        <v>0</v>
+      </c>
+      <c r="N45" s="18">
+        <v>0</v>
+      </c>
+      <c r="O45" s="18">
+        <v>1</v>
+      </c>
+      <c r="P45" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A46">
+      <c r="A46" s="18">
         <v>45</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="18">
         <v>2</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="18">
         <v>2</v>
       </c>
-      <c r="D46">
-        <v>1</v>
-      </c>
-      <c r="E46">
-        <v>1</v>
-      </c>
-      <c r="F46">
-        <v>0</v>
-      </c>
-      <c r="G46">
-        <v>0</v>
-      </c>
-      <c r="H46">
-        <v>0</v>
-      </c>
-      <c r="I46">
-        <v>0</v>
-      </c>
-      <c r="J46">
-        <v>0</v>
-      </c>
-      <c r="K46">
-        <v>1</v>
-      </c>
-      <c r="L46">
-        <v>0</v>
-      </c>
-      <c r="M46">
-        <v>0</v>
-      </c>
-      <c r="N46">
-        <v>0</v>
-      </c>
-      <c r="O46">
-        <v>1</v>
-      </c>
-      <c r="P46">
+      <c r="D46" s="18">
+        <v>1</v>
+      </c>
+      <c r="E46" s="18">
+        <v>1</v>
+      </c>
+      <c r="F46" s="18">
+        <v>0</v>
+      </c>
+      <c r="G46" s="18">
+        <v>0</v>
+      </c>
+      <c r="H46" s="18">
+        <v>0</v>
+      </c>
+      <c r="I46" s="18">
+        <v>0</v>
+      </c>
+      <c r="J46" s="18">
+        <v>0</v>
+      </c>
+      <c r="K46" s="18">
+        <v>1</v>
+      </c>
+      <c r="L46" s="18">
+        <v>0</v>
+      </c>
+      <c r="M46" s="18">
+        <v>0</v>
+      </c>
+      <c r="N46" s="18">
+        <v>0</v>
+      </c>
+      <c r="O46" s="18">
+        <v>1</v>
+      </c>
+      <c r="P46" s="18">
         <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A47">
+      <c r="A47" s="18">
         <v>46</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="18">
         <v>2</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="18">
         <v>2</v>
       </c>
-      <c r="D47">
-        <v>1</v>
-      </c>
-      <c r="E47">
-        <v>1</v>
-      </c>
-      <c r="F47">
-        <v>0</v>
-      </c>
-      <c r="G47">
-        <v>0</v>
-      </c>
-      <c r="H47">
-        <v>0</v>
-      </c>
-      <c r="I47">
-        <v>1</v>
-      </c>
-      <c r="J47">
-        <v>0</v>
-      </c>
-      <c r="K47">
-        <v>1</v>
-      </c>
-      <c r="L47">
-        <v>0</v>
-      </c>
-      <c r="M47">
-        <v>0</v>
-      </c>
-      <c r="N47">
-        <v>0</v>
-      </c>
-      <c r="O47">
-        <v>1</v>
-      </c>
-      <c r="P47">
+      <c r="D47" s="18">
+        <v>1</v>
+      </c>
+      <c r="E47" s="18">
+        <v>1</v>
+      </c>
+      <c r="F47" s="18">
+        <v>0</v>
+      </c>
+      <c r="G47" s="18">
+        <v>0</v>
+      </c>
+      <c r="H47" s="18">
+        <v>0</v>
+      </c>
+      <c r="I47" s="18">
+        <v>1</v>
+      </c>
+      <c r="J47" s="18">
+        <v>0</v>
+      </c>
+      <c r="K47" s="18">
+        <v>1</v>
+      </c>
+      <c r="L47" s="18">
+        <v>0</v>
+      </c>
+      <c r="M47" s="18">
+        <v>0</v>
+      </c>
+      <c r="N47" s="18">
+        <v>0</v>
+      </c>
+      <c r="O47" s="18">
+        <v>1</v>
+      </c>
+      <c r="P47" s="18">
         <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A48">
+      <c r="A48" s="18">
         <v>47</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="18">
         <v>2</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="18">
         <v>2</v>
       </c>
-      <c r="D48">
-        <v>1</v>
-      </c>
-      <c r="E48">
-        <v>1</v>
-      </c>
-      <c r="F48">
-        <v>1</v>
-      </c>
-      <c r="G48">
-        <v>0</v>
-      </c>
-      <c r="H48">
-        <v>0</v>
-      </c>
-      <c r="I48">
-        <v>0</v>
-      </c>
-      <c r="J48">
-        <v>0</v>
-      </c>
-      <c r="K48">
-        <v>0</v>
-      </c>
-      <c r="L48">
-        <v>0</v>
-      </c>
-      <c r="M48">
-        <v>0</v>
-      </c>
-      <c r="N48">
-        <v>0</v>
-      </c>
-      <c r="O48">
-        <v>0</v>
-      </c>
-      <c r="P48">
+      <c r="D48" s="18">
+        <v>1</v>
+      </c>
+      <c r="E48" s="18">
+        <v>1</v>
+      </c>
+      <c r="F48" s="18">
+        <v>1</v>
+      </c>
+      <c r="G48" s="18">
+        <v>0</v>
+      </c>
+      <c r="H48" s="18">
+        <v>0</v>
+      </c>
+      <c r="I48" s="18">
+        <v>0</v>
+      </c>
+      <c r="J48" s="18">
+        <v>0</v>
+      </c>
+      <c r="K48" s="18">
+        <v>0</v>
+      </c>
+      <c r="L48" s="18">
+        <v>0</v>
+      </c>
+      <c r="M48" s="18">
+        <v>0</v>
+      </c>
+      <c r="N48" s="18">
+        <v>0</v>
+      </c>
+      <c r="O48" s="18">
+        <v>0</v>
+      </c>
+      <c r="P48" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A49">
+      <c r="A49" s="18">
         <v>48</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="18">
         <v>2</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="18">
         <v>2</v>
       </c>
-      <c r="D49">
-        <v>1</v>
-      </c>
-      <c r="E49">
-        <v>1</v>
-      </c>
-      <c r="F49">
-        <v>1</v>
-      </c>
-      <c r="G49">
-        <v>0</v>
-      </c>
-      <c r="H49">
-        <v>0</v>
-      </c>
-      <c r="I49">
-        <v>0</v>
-      </c>
-      <c r="J49">
-        <v>0</v>
-      </c>
-      <c r="K49">
-        <v>0</v>
-      </c>
-      <c r="L49">
-        <v>1</v>
-      </c>
-      <c r="M49">
-        <v>0</v>
-      </c>
-      <c r="N49">
-        <v>0</v>
-      </c>
-      <c r="O49">
-        <v>0</v>
-      </c>
-      <c r="P49">
+      <c r="D49" s="18">
+        <v>1</v>
+      </c>
+      <c r="E49" s="18">
+        <v>1</v>
+      </c>
+      <c r="F49" s="18">
+        <v>1</v>
+      </c>
+      <c r="G49" s="18">
+        <v>0</v>
+      </c>
+      <c r="H49" s="18">
+        <v>0</v>
+      </c>
+      <c r="I49" s="18">
+        <v>1</v>
+      </c>
+      <c r="J49" s="18">
+        <v>0</v>
+      </c>
+      <c r="K49" s="18">
+        <v>1</v>
+      </c>
+      <c r="L49" s="18">
+        <v>1</v>
+      </c>
+      <c r="M49" s="18">
+        <v>0</v>
+      </c>
+      <c r="N49" s="18">
+        <v>0</v>
+      </c>
+      <c r="O49" s="18">
+        <v>0</v>
+      </c>
+      <c r="P49" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A50">
+      <c r="A50" s="18">
         <v>49</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="18">
         <v>2</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="18">
         <v>2</v>
       </c>
-      <c r="D50">
-        <v>1</v>
-      </c>
-      <c r="E50">
-        <v>1</v>
-      </c>
-      <c r="F50">
-        <v>1</v>
-      </c>
-      <c r="G50">
-        <v>0</v>
-      </c>
-      <c r="H50">
-        <v>0</v>
-      </c>
-      <c r="I50">
-        <v>0</v>
-      </c>
-      <c r="J50">
-        <v>0</v>
-      </c>
-      <c r="K50">
-        <v>0</v>
-      </c>
-      <c r="L50">
-        <v>0</v>
-      </c>
-      <c r="M50">
-        <v>0</v>
-      </c>
-      <c r="N50">
-        <v>0</v>
-      </c>
-      <c r="O50">
-        <v>1</v>
-      </c>
-      <c r="P50">
+      <c r="D50" s="18">
+        <v>1</v>
+      </c>
+      <c r="E50" s="18">
+        <v>1</v>
+      </c>
+      <c r="F50" s="18">
+        <v>1</v>
+      </c>
+      <c r="G50" s="18">
+        <v>0</v>
+      </c>
+      <c r="H50" s="18">
+        <v>0</v>
+      </c>
+      <c r="I50" s="18">
+        <v>0</v>
+      </c>
+      <c r="J50" s="18">
+        <v>0</v>
+      </c>
+      <c r="K50" s="18">
+        <v>0</v>
+      </c>
+      <c r="L50" s="18">
+        <v>0</v>
+      </c>
+      <c r="M50" s="18">
+        <v>0</v>
+      </c>
+      <c r="N50" s="18">
+        <v>0</v>
+      </c>
+      <c r="O50" s="18">
+        <v>1</v>
+      </c>
+      <c r="P50" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A51">
+      <c r="A51" s="18">
         <v>50</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="18">
         <v>2</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="18">
         <v>2</v>
       </c>
-      <c r="D51">
-        <v>1</v>
-      </c>
-      <c r="E51">
-        <v>1</v>
-      </c>
-      <c r="F51">
-        <v>1</v>
-      </c>
-      <c r="G51">
-        <v>0</v>
-      </c>
-      <c r="H51">
-        <v>0</v>
-      </c>
-      <c r="I51">
-        <v>0</v>
-      </c>
-      <c r="J51">
-        <v>0</v>
-      </c>
-      <c r="K51">
-        <v>0</v>
-      </c>
-      <c r="L51">
-        <v>1</v>
-      </c>
-      <c r="M51">
-        <v>0</v>
-      </c>
-      <c r="N51">
-        <v>0</v>
-      </c>
-      <c r="O51">
-        <v>1</v>
-      </c>
-      <c r="P51">
+      <c r="D51" s="18">
+        <v>1</v>
+      </c>
+      <c r="E51" s="18">
+        <v>1</v>
+      </c>
+      <c r="F51" s="18">
+        <v>1</v>
+      </c>
+      <c r="G51" s="18">
+        <v>0</v>
+      </c>
+      <c r="H51" s="18">
+        <v>0</v>
+      </c>
+      <c r="I51" s="18">
+        <v>1</v>
+      </c>
+      <c r="J51" s="18">
+        <v>0</v>
+      </c>
+      <c r="K51" s="18">
+        <v>1</v>
+      </c>
+      <c r="L51" s="18">
+        <v>1</v>
+      </c>
+      <c r="M51" s="18">
+        <v>0</v>
+      </c>
+      <c r="N51" s="18">
+        <v>0</v>
+      </c>
+      <c r="O51" s="18">
+        <v>1</v>
+      </c>
+      <c r="P51" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A52">
+      <c r="A52" s="18">
         <v>51</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="18">
         <v>2</v>
       </c>
-      <c r="C52">
+      <c r="C52" s="18">
         <v>2</v>
       </c>
-      <c r="D52">
-        <v>1</v>
-      </c>
-      <c r="E52">
-        <v>1</v>
-      </c>
-      <c r="F52">
-        <v>1</v>
-      </c>
-      <c r="G52">
-        <v>0</v>
-      </c>
-      <c r="H52">
-        <v>0</v>
-      </c>
-      <c r="I52">
-        <v>0</v>
-      </c>
-      <c r="J52">
-        <v>0</v>
-      </c>
-      <c r="K52">
-        <v>0</v>
-      </c>
-      <c r="L52">
-        <v>0</v>
-      </c>
-      <c r="M52">
-        <v>0</v>
-      </c>
-      <c r="N52">
-        <v>0</v>
-      </c>
-      <c r="O52">
-        <v>1</v>
-      </c>
-      <c r="P52">
+      <c r="D52" s="18">
+        <v>1</v>
+      </c>
+      <c r="E52" s="18">
+        <v>1</v>
+      </c>
+      <c r="F52" s="18">
+        <v>1</v>
+      </c>
+      <c r="G52" s="18">
+        <v>0</v>
+      </c>
+      <c r="H52" s="18">
+        <v>0</v>
+      </c>
+      <c r="I52" s="18">
+        <v>0</v>
+      </c>
+      <c r="J52" s="18">
+        <v>0</v>
+      </c>
+      <c r="K52" s="18">
+        <v>0</v>
+      </c>
+      <c r="L52" s="18">
+        <v>0</v>
+      </c>
+      <c r="M52" s="18">
+        <v>0</v>
+      </c>
+      <c r="N52" s="18">
+        <v>0</v>
+      </c>
+      <c r="O52" s="18">
+        <v>1</v>
+      </c>
+      <c r="P52" s="18">
         <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A53">
+      <c r="A53" s="18">
         <v>52</v>
       </c>
-      <c r="B53">
+      <c r="B53" s="18">
         <v>2</v>
       </c>
-      <c r="C53">
+      <c r="C53" s="18">
         <v>2</v>
       </c>
-      <c r="D53">
-        <v>1</v>
-      </c>
-      <c r="E53">
-        <v>1</v>
-      </c>
-      <c r="F53">
-        <v>1</v>
-      </c>
-      <c r="G53">
-        <v>0</v>
-      </c>
-      <c r="H53">
-        <v>0</v>
-      </c>
-      <c r="I53">
-        <v>0</v>
-      </c>
-      <c r="J53">
-        <v>0</v>
-      </c>
-      <c r="K53">
-        <v>0</v>
-      </c>
-      <c r="L53">
-        <v>1</v>
-      </c>
-      <c r="M53">
-        <v>0</v>
-      </c>
-      <c r="N53">
-        <v>0</v>
-      </c>
-      <c r="O53">
-        <v>1</v>
-      </c>
-      <c r="P53">
+      <c r="D53" s="18">
+        <v>1</v>
+      </c>
+      <c r="E53" s="18">
+        <v>1</v>
+      </c>
+      <c r="F53" s="18">
+        <v>1</v>
+      </c>
+      <c r="G53" s="18">
+        <v>0</v>
+      </c>
+      <c r="H53" s="18">
+        <v>0</v>
+      </c>
+      <c r="I53" s="18">
+        <v>1</v>
+      </c>
+      <c r="J53" s="18">
+        <v>0</v>
+      </c>
+      <c r="K53" s="18">
+        <v>1</v>
+      </c>
+      <c r="L53" s="18">
+        <v>1</v>
+      </c>
+      <c r="M53" s="18">
+        <v>0</v>
+      </c>
+      <c r="N53" s="18">
+        <v>0</v>
+      </c>
+      <c r="O53" s="18">
+        <v>1</v>
+      </c>
+      <c r="P53" s="18">
         <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A54">
+      <c r="A54" s="18">
         <v>53</v>
       </c>
-      <c r="B54">
+      <c r="B54" s="18">
         <v>2</v>
       </c>
-      <c r="C54">
+      <c r="C54" s="18">
         <v>2</v>
       </c>
-      <c r="D54">
-        <v>1</v>
-      </c>
-      <c r="E54">
-        <v>1</v>
-      </c>
-      <c r="F54">
-        <v>1</v>
-      </c>
-      <c r="G54">
-        <v>1</v>
-      </c>
-      <c r="H54">
-        <v>0</v>
-      </c>
-      <c r="I54">
-        <v>0</v>
-      </c>
-      <c r="J54">
-        <v>0</v>
-      </c>
-      <c r="K54">
-        <v>0</v>
-      </c>
-      <c r="L54">
-        <v>0</v>
-      </c>
-      <c r="M54">
-        <v>0</v>
-      </c>
-      <c r="N54">
-        <v>0</v>
-      </c>
-      <c r="O54">
-        <v>0</v>
-      </c>
-      <c r="P54">
+      <c r="D54" s="18">
+        <v>1</v>
+      </c>
+      <c r="E54" s="18">
+        <v>1</v>
+      </c>
+      <c r="F54" s="18">
+        <v>1</v>
+      </c>
+      <c r="G54" s="18">
+        <v>1</v>
+      </c>
+      <c r="H54" s="18">
+        <v>0</v>
+      </c>
+      <c r="I54" s="18">
+        <v>0</v>
+      </c>
+      <c r="J54" s="18">
+        <v>0</v>
+      </c>
+      <c r="K54" s="18">
+        <v>0</v>
+      </c>
+      <c r="L54" s="18">
+        <v>0</v>
+      </c>
+      <c r="M54" s="18">
+        <v>0</v>
+      </c>
+      <c r="N54" s="18">
+        <v>0</v>
+      </c>
+      <c r="O54" s="18">
+        <v>0</v>
+      </c>
+      <c r="P54" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A55">
+      <c r="A55" s="18">
         <v>54</v>
       </c>
-      <c r="B55">
+      <c r="B55" s="18">
         <v>2</v>
       </c>
-      <c r="C55">
+      <c r="C55" s="18">
         <v>2</v>
       </c>
-      <c r="D55">
-        <v>1</v>
-      </c>
-      <c r="E55">
-        <v>1</v>
-      </c>
-      <c r="F55">
-        <v>1</v>
-      </c>
-      <c r="G55">
-        <v>1</v>
-      </c>
-      <c r="H55">
-        <v>0</v>
-      </c>
-      <c r="I55">
-        <v>0</v>
-      </c>
-      <c r="J55">
-        <v>0</v>
-      </c>
-      <c r="K55">
-        <v>0</v>
-      </c>
-      <c r="L55">
-        <v>1</v>
-      </c>
-      <c r="M55">
-        <v>1</v>
-      </c>
-      <c r="N55">
-        <v>0</v>
-      </c>
-      <c r="O55">
-        <v>0</v>
-      </c>
-      <c r="P55">
+      <c r="D55" s="18">
+        <v>1</v>
+      </c>
+      <c r="E55" s="18">
+        <v>1</v>
+      </c>
+      <c r="F55" s="18">
+        <v>1</v>
+      </c>
+      <c r="G55" s="18">
+        <v>1</v>
+      </c>
+      <c r="H55" s="18">
+        <v>0</v>
+      </c>
+      <c r="I55" s="18">
+        <v>1</v>
+      </c>
+      <c r="J55" s="18">
+        <v>0</v>
+      </c>
+      <c r="K55" s="18">
+        <v>1</v>
+      </c>
+      <c r="L55" s="18">
+        <v>1</v>
+      </c>
+      <c r="M55" s="18">
+        <v>1</v>
+      </c>
+      <c r="N55" s="18">
+        <v>0</v>
+      </c>
+      <c r="O55" s="18">
+        <v>0</v>
+      </c>
+      <c r="P55" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A56">
+      <c r="A56" s="18">
         <v>55</v>
       </c>
-      <c r="B56">
+      <c r="B56" s="18">
         <v>2</v>
       </c>
-      <c r="C56">
+      <c r="C56" s="18">
         <v>2</v>
       </c>
-      <c r="D56">
-        <v>1</v>
-      </c>
-      <c r="E56">
-        <v>1</v>
-      </c>
-      <c r="F56">
-        <v>1</v>
-      </c>
-      <c r="G56">
-        <v>1</v>
-      </c>
-      <c r="H56">
-        <v>0</v>
-      </c>
-      <c r="I56">
-        <v>0</v>
-      </c>
-      <c r="J56">
-        <v>0</v>
-      </c>
-      <c r="K56">
-        <v>0</v>
-      </c>
-      <c r="L56">
-        <v>0</v>
-      </c>
-      <c r="M56">
-        <v>0</v>
-      </c>
-      <c r="N56">
-        <v>0</v>
-      </c>
-      <c r="O56">
-        <v>1</v>
-      </c>
-      <c r="P56">
+      <c r="D56" s="18">
+        <v>1</v>
+      </c>
+      <c r="E56" s="18">
+        <v>1</v>
+      </c>
+      <c r="F56" s="18">
+        <v>1</v>
+      </c>
+      <c r="G56" s="18">
+        <v>1</v>
+      </c>
+      <c r="H56" s="18">
+        <v>0</v>
+      </c>
+      <c r="I56" s="18">
+        <v>0</v>
+      </c>
+      <c r="J56" s="18">
+        <v>0</v>
+      </c>
+      <c r="K56" s="18">
+        <v>0</v>
+      </c>
+      <c r="L56" s="18">
+        <v>0</v>
+      </c>
+      <c r="M56" s="18">
+        <v>0</v>
+      </c>
+      <c r="N56" s="18">
+        <v>0</v>
+      </c>
+      <c r="O56" s="18">
+        <v>1</v>
+      </c>
+      <c r="P56" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A57">
+      <c r="A57" s="18">
         <v>56</v>
       </c>
-      <c r="B57">
+      <c r="B57" s="18">
         <v>2</v>
       </c>
-      <c r="C57">
+      <c r="C57" s="18">
         <v>2</v>
       </c>
-      <c r="D57">
-        <v>1</v>
-      </c>
-      <c r="E57">
-        <v>1</v>
-      </c>
-      <c r="F57">
-        <v>1</v>
-      </c>
-      <c r="G57">
-        <v>1</v>
-      </c>
-      <c r="H57">
-        <v>0</v>
-      </c>
-      <c r="I57">
-        <v>0</v>
-      </c>
-      <c r="J57">
-        <v>0</v>
-      </c>
-      <c r="K57">
-        <v>0</v>
-      </c>
-      <c r="L57">
-        <v>1</v>
-      </c>
-      <c r="M57">
-        <v>1</v>
-      </c>
-      <c r="N57">
-        <v>0</v>
-      </c>
-      <c r="O57">
-        <v>1</v>
-      </c>
-      <c r="P57">
+      <c r="D57" s="18">
+        <v>1</v>
+      </c>
+      <c r="E57" s="18">
+        <v>1</v>
+      </c>
+      <c r="F57" s="18">
+        <v>1</v>
+      </c>
+      <c r="G57" s="18">
+        <v>1</v>
+      </c>
+      <c r="H57" s="18">
+        <v>0</v>
+      </c>
+      <c r="I57" s="18">
+        <v>1</v>
+      </c>
+      <c r="J57" s="18">
+        <v>0</v>
+      </c>
+      <c r="K57" s="18">
+        <v>1</v>
+      </c>
+      <c r="L57" s="18">
+        <v>1</v>
+      </c>
+      <c r="M57" s="18">
+        <v>1</v>
+      </c>
+      <c r="N57" s="18">
+        <v>0</v>
+      </c>
+      <c r="O57" s="18">
+        <v>1</v>
+      </c>
+      <c r="P57" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A58">
+      <c r="A58" s="18">
         <v>57</v>
       </c>
-      <c r="B58">
+      <c r="B58" s="18">
         <v>2</v>
       </c>
-      <c r="C58">
+      <c r="C58" s="18">
         <v>2</v>
       </c>
-      <c r="D58">
-        <v>1</v>
-      </c>
-      <c r="E58">
-        <v>1</v>
-      </c>
-      <c r="F58">
-        <v>1</v>
-      </c>
-      <c r="G58">
-        <v>1</v>
-      </c>
-      <c r="H58">
-        <v>0</v>
-      </c>
-      <c r="I58">
-        <v>0</v>
-      </c>
-      <c r="J58">
-        <v>0</v>
-      </c>
-      <c r="K58">
-        <v>0</v>
-      </c>
-      <c r="L58">
-        <v>0</v>
-      </c>
-      <c r="M58">
-        <v>0</v>
-      </c>
-      <c r="N58">
-        <v>0</v>
-      </c>
-      <c r="O58">
-        <v>1</v>
-      </c>
-      <c r="P58">
+      <c r="D58" s="18">
+        <v>1</v>
+      </c>
+      <c r="E58" s="18">
+        <v>1</v>
+      </c>
+      <c r="F58" s="18">
+        <v>1</v>
+      </c>
+      <c r="G58" s="18">
+        <v>1</v>
+      </c>
+      <c r="H58" s="18">
+        <v>0</v>
+      </c>
+      <c r="I58" s="18">
+        <v>0</v>
+      </c>
+      <c r="J58" s="18">
+        <v>0</v>
+      </c>
+      <c r="K58" s="18">
+        <v>0</v>
+      </c>
+      <c r="L58" s="18">
+        <v>0</v>
+      </c>
+      <c r="M58" s="18">
+        <v>0</v>
+      </c>
+      <c r="N58" s="18">
+        <v>0</v>
+      </c>
+      <c r="O58" s="18">
+        <v>1</v>
+      </c>
+      <c r="P58" s="18">
         <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A59">
+      <c r="A59" s="18">
         <v>58</v>
       </c>
-      <c r="B59">
+      <c r="B59" s="18">
         <v>2</v>
       </c>
-      <c r="C59">
+      <c r="C59" s="18">
         <v>2</v>
       </c>
-      <c r="D59">
-        <v>1</v>
-      </c>
-      <c r="E59">
-        <v>1</v>
-      </c>
-      <c r="F59">
-        <v>1</v>
-      </c>
-      <c r="G59">
-        <v>1</v>
-      </c>
-      <c r="H59">
-        <v>0</v>
-      </c>
-      <c r="I59">
-        <v>0</v>
-      </c>
-      <c r="J59">
-        <v>0</v>
-      </c>
-      <c r="K59">
-        <v>0</v>
-      </c>
-      <c r="L59">
-        <v>1</v>
-      </c>
-      <c r="M59">
-        <v>1</v>
-      </c>
-      <c r="N59">
-        <v>0</v>
-      </c>
-      <c r="O59">
-        <v>1</v>
-      </c>
-      <c r="P59">
+      <c r="D59" s="18">
+        <v>1</v>
+      </c>
+      <c r="E59" s="18">
+        <v>1</v>
+      </c>
+      <c r="F59" s="18">
+        <v>1</v>
+      </c>
+      <c r="G59" s="18">
+        <v>1</v>
+      </c>
+      <c r="H59" s="18">
+        <v>0</v>
+      </c>
+      <c r="I59" s="18">
+        <v>1</v>
+      </c>
+      <c r="J59" s="18">
+        <v>0</v>
+      </c>
+      <c r="K59" s="18">
+        <v>1</v>
+      </c>
+      <c r="L59" s="18">
+        <v>1</v>
+      </c>
+      <c r="M59" s="18">
+        <v>1</v>
+      </c>
+      <c r="N59" s="18">
+        <v>0</v>
+      </c>
+      <c r="O59" s="18">
+        <v>1</v>
+      </c>
+      <c r="P59" s="18">
         <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A60">
+      <c r="A60" s="18">
         <v>59</v>
       </c>
-      <c r="B60">
+      <c r="B60" s="18">
         <v>2</v>
       </c>
-      <c r="C60">
+      <c r="C60" s="18">
         <v>2</v>
       </c>
-      <c r="D60">
-        <v>1</v>
-      </c>
-      <c r="E60">
-        <v>1</v>
-      </c>
-      <c r="F60">
-        <v>1</v>
-      </c>
-      <c r="G60">
-        <v>1</v>
-      </c>
-      <c r="H60">
-        <v>1</v>
-      </c>
-      <c r="I60">
-        <v>0</v>
-      </c>
-      <c r="J60">
-        <v>0</v>
-      </c>
-      <c r="K60">
-        <v>0</v>
-      </c>
-      <c r="L60">
-        <v>0</v>
-      </c>
-      <c r="M60">
-        <v>0</v>
-      </c>
-      <c r="N60">
-        <v>0</v>
-      </c>
-      <c r="O60">
-        <v>0</v>
-      </c>
-      <c r="P60">
+      <c r="D60" s="18">
+        <v>1</v>
+      </c>
+      <c r="E60" s="18">
+        <v>1</v>
+      </c>
+      <c r="F60" s="18">
+        <v>1</v>
+      </c>
+      <c r="G60" s="18">
+        <v>1</v>
+      </c>
+      <c r="H60" s="18">
+        <v>1</v>
+      </c>
+      <c r="I60" s="18">
+        <v>0</v>
+      </c>
+      <c r="J60" s="18">
+        <v>0</v>
+      </c>
+      <c r="K60" s="18">
+        <v>0</v>
+      </c>
+      <c r="L60" s="18">
+        <v>0</v>
+      </c>
+      <c r="M60" s="18">
+        <v>0</v>
+      </c>
+      <c r="N60" s="18">
+        <v>0</v>
+      </c>
+      <c r="O60" s="18">
+        <v>0</v>
+      </c>
+      <c r="P60" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A61">
+      <c r="A61" s="18">
         <v>60</v>
       </c>
-      <c r="B61">
+      <c r="B61" s="18">
         <v>2</v>
       </c>
-      <c r="C61">
+      <c r="C61" s="18">
         <v>2</v>
       </c>
-      <c r="D61">
-        <v>1</v>
-      </c>
-      <c r="E61">
-        <v>1</v>
-      </c>
-      <c r="F61">
-        <v>1</v>
-      </c>
-      <c r="G61">
-        <v>1</v>
-      </c>
-      <c r="H61">
-        <v>1</v>
-      </c>
-      <c r="I61">
-        <v>0</v>
-      </c>
-      <c r="J61">
-        <v>0</v>
-      </c>
-      <c r="K61">
-        <v>0</v>
-      </c>
-      <c r="L61">
-        <v>1</v>
-      </c>
-      <c r="M61">
-        <v>1</v>
-      </c>
-      <c r="N61">
-        <v>1</v>
-      </c>
-      <c r="O61">
-        <v>0</v>
-      </c>
-      <c r="P61">
+      <c r="D61" s="18">
+        <v>1</v>
+      </c>
+      <c r="E61" s="18">
+        <v>1</v>
+      </c>
+      <c r="F61" s="18">
+        <v>1</v>
+      </c>
+      <c r="G61" s="18">
+        <v>1</v>
+      </c>
+      <c r="H61" s="18">
+        <v>1</v>
+      </c>
+      <c r="I61" s="18">
+        <v>1</v>
+      </c>
+      <c r="J61" s="18">
+        <v>0</v>
+      </c>
+      <c r="K61" s="18">
+        <v>1</v>
+      </c>
+      <c r="L61" s="18">
+        <v>1</v>
+      </c>
+      <c r="M61" s="18">
+        <v>1</v>
+      </c>
+      <c r="N61" s="18">
+        <v>1</v>
+      </c>
+      <c r="O61" s="18">
+        <v>0</v>
+      </c>
+      <c r="P61" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A62">
+      <c r="A62" s="18">
         <v>61</v>
       </c>
-      <c r="B62">
+      <c r="B62" s="18">
         <v>2</v>
       </c>
-      <c r="C62">
+      <c r="C62" s="18">
         <v>2</v>
       </c>
-      <c r="D62">
-        <v>1</v>
-      </c>
-      <c r="E62">
-        <v>1</v>
-      </c>
-      <c r="F62">
-        <v>1</v>
-      </c>
-      <c r="G62">
-        <v>1</v>
-      </c>
-      <c r="H62">
-        <v>1</v>
-      </c>
-      <c r="I62">
-        <v>0</v>
-      </c>
-      <c r="J62">
-        <v>0</v>
-      </c>
-      <c r="K62">
-        <v>0</v>
-      </c>
-      <c r="L62">
-        <v>0</v>
-      </c>
-      <c r="M62">
-        <v>0</v>
-      </c>
-      <c r="N62">
-        <v>0</v>
-      </c>
-      <c r="O62">
-        <v>1</v>
-      </c>
-      <c r="P62">
+      <c r="D62" s="18">
+        <v>1</v>
+      </c>
+      <c r="E62" s="18">
+        <v>1</v>
+      </c>
+      <c r="F62" s="18">
+        <v>1</v>
+      </c>
+      <c r="G62" s="18">
+        <v>1</v>
+      </c>
+      <c r="H62" s="18">
+        <v>1</v>
+      </c>
+      <c r="I62" s="18">
+        <v>0</v>
+      </c>
+      <c r="J62" s="18">
+        <v>0</v>
+      </c>
+      <c r="K62" s="18">
+        <v>0</v>
+      </c>
+      <c r="L62" s="18">
+        <v>0</v>
+      </c>
+      <c r="M62" s="18">
+        <v>0</v>
+      </c>
+      <c r="N62" s="18">
+        <v>0</v>
+      </c>
+      <c r="O62" s="18">
+        <v>1</v>
+      </c>
+      <c r="P62" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A63">
+      <c r="A63" s="18">
         <v>62</v>
       </c>
-      <c r="B63">
+      <c r="B63" s="18">
         <v>2</v>
       </c>
-      <c r="C63">
+      <c r="C63" s="18">
         <v>2</v>
       </c>
-      <c r="D63">
-        <v>1</v>
-      </c>
-      <c r="E63">
-        <v>1</v>
-      </c>
-      <c r="F63">
-        <v>1</v>
-      </c>
-      <c r="G63">
-        <v>1</v>
-      </c>
-      <c r="H63">
-        <v>1</v>
-      </c>
-      <c r="I63">
-        <v>0</v>
-      </c>
-      <c r="J63">
-        <v>0</v>
-      </c>
-      <c r="K63">
-        <v>0</v>
-      </c>
-      <c r="L63">
-        <v>1</v>
-      </c>
-      <c r="M63">
-        <v>1</v>
-      </c>
-      <c r="N63">
-        <v>1</v>
-      </c>
-      <c r="O63">
-        <v>1</v>
-      </c>
-      <c r="P63">
+      <c r="D63" s="18">
+        <v>1</v>
+      </c>
+      <c r="E63" s="18">
+        <v>1</v>
+      </c>
+      <c r="F63" s="18">
+        <v>1</v>
+      </c>
+      <c r="G63" s="18">
+        <v>1</v>
+      </c>
+      <c r="H63" s="18">
+        <v>1</v>
+      </c>
+      <c r="I63" s="18">
+        <v>1</v>
+      </c>
+      <c r="J63" s="18">
+        <v>0</v>
+      </c>
+      <c r="K63" s="18">
+        <v>1</v>
+      </c>
+      <c r="L63" s="18">
+        <v>1</v>
+      </c>
+      <c r="M63" s="18">
+        <v>1</v>
+      </c>
+      <c r="N63" s="18">
+        <v>1</v>
+      </c>
+      <c r="O63" s="18">
+        <v>1</v>
+      </c>
+      <c r="P63" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A64">
+      <c r="A64" s="18">
         <v>63</v>
       </c>
-      <c r="B64">
+      <c r="B64" s="18">
         <v>2</v>
       </c>
-      <c r="C64">
+      <c r="C64" s="18">
         <v>2</v>
       </c>
-      <c r="D64">
-        <v>1</v>
-      </c>
-      <c r="E64">
-        <v>1</v>
-      </c>
-      <c r="F64">
-        <v>1</v>
-      </c>
-      <c r="G64">
-        <v>1</v>
-      </c>
-      <c r="H64">
-        <v>1</v>
-      </c>
-      <c r="I64">
-        <v>0</v>
-      </c>
-      <c r="J64">
-        <v>0</v>
-      </c>
-      <c r="K64">
-        <v>0</v>
-      </c>
-      <c r="L64">
-        <v>0</v>
-      </c>
-      <c r="M64">
-        <v>0</v>
-      </c>
-      <c r="N64">
-        <v>0</v>
-      </c>
-      <c r="O64">
-        <v>1</v>
-      </c>
-      <c r="P64">
+      <c r="D64" s="18">
+        <v>1</v>
+      </c>
+      <c r="E64" s="18">
+        <v>1</v>
+      </c>
+      <c r="F64" s="18">
+        <v>1</v>
+      </c>
+      <c r="G64" s="18">
+        <v>1</v>
+      </c>
+      <c r="H64" s="18">
+        <v>1</v>
+      </c>
+      <c r="I64" s="18">
+        <v>0</v>
+      </c>
+      <c r="J64" s="18">
+        <v>0</v>
+      </c>
+      <c r="K64" s="18">
+        <v>0</v>
+      </c>
+      <c r="L64" s="18">
+        <v>0</v>
+      </c>
+      <c r="M64" s="18">
+        <v>0</v>
+      </c>
+      <c r="N64" s="18">
+        <v>0</v>
+      </c>
+      <c r="O64" s="18">
+        <v>1</v>
+      </c>
+      <c r="P64" s="18">
         <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A65">
+      <c r="A65" s="18">
         <v>64</v>
       </c>
-      <c r="B65">
+      <c r="B65" s="18">
         <v>2</v>
       </c>
-      <c r="C65">
+      <c r="C65" s="18">
         <v>2</v>
       </c>
-      <c r="D65">
-        <v>1</v>
-      </c>
-      <c r="E65">
-        <v>1</v>
-      </c>
-      <c r="F65">
-        <v>1</v>
-      </c>
-      <c r="G65">
-        <v>1</v>
-      </c>
-      <c r="H65">
-        <v>1</v>
-      </c>
-      <c r="I65">
-        <v>0</v>
-      </c>
-      <c r="J65">
-        <v>0</v>
-      </c>
-      <c r="K65">
-        <v>0</v>
-      </c>
-      <c r="L65">
-        <v>0</v>
-      </c>
-      <c r="M65">
-        <v>1</v>
-      </c>
-      <c r="N65">
-        <v>1</v>
-      </c>
-      <c r="O65">
-        <v>1</v>
-      </c>
-      <c r="P65">
+      <c r="D65" s="18">
+        <v>1</v>
+      </c>
+      <c r="E65" s="18">
+        <v>1</v>
+      </c>
+      <c r="F65" s="18">
+        <v>1</v>
+      </c>
+      <c r="G65" s="18">
+        <v>1</v>
+      </c>
+      <c r="H65" s="18">
+        <v>1</v>
+      </c>
+      <c r="I65" s="18">
+        <v>1</v>
+      </c>
+      <c r="J65" s="18">
+        <v>0</v>
+      </c>
+      <c r="K65" s="18">
+        <v>1</v>
+      </c>
+      <c r="L65" s="18">
+        <v>0</v>
+      </c>
+      <c r="M65" s="18">
+        <v>1</v>
+      </c>
+      <c r="N65" s="18">
+        <v>1</v>
+      </c>
+      <c r="O65" s="18">
+        <v>1</v>
+      </c>
+      <c r="P65" s="18">
         <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A66">
+      <c r="A66" s="18">
         <v>65</v>
       </c>
-      <c r="B66">
+      <c r="B66" s="18">
         <v>2</v>
       </c>
-      <c r="C66">
+      <c r="C66" s="18">
         <v>2</v>
       </c>
-      <c r="D66">
-        <v>1</v>
-      </c>
-      <c r="E66">
-        <v>1</v>
-      </c>
-      <c r="F66">
-        <v>0</v>
-      </c>
-      <c r="G66">
-        <v>0</v>
-      </c>
-      <c r="H66">
-        <v>1</v>
-      </c>
-      <c r="I66">
-        <v>0</v>
-      </c>
-      <c r="J66">
-        <v>0</v>
-      </c>
-      <c r="K66">
-        <v>0</v>
-      </c>
-      <c r="L66">
-        <v>0</v>
-      </c>
-      <c r="M66">
-        <v>0</v>
-      </c>
-      <c r="N66">
-        <v>0</v>
-      </c>
-      <c r="O66">
-        <v>0</v>
-      </c>
-      <c r="P66">
+      <c r="D66" s="18">
+        <v>1</v>
+      </c>
+      <c r="E66" s="18">
+        <v>1</v>
+      </c>
+      <c r="F66" s="18">
+        <v>0</v>
+      </c>
+      <c r="G66" s="18">
+        <v>0</v>
+      </c>
+      <c r="H66" s="18">
+        <v>1</v>
+      </c>
+      <c r="I66" s="18">
+        <v>0</v>
+      </c>
+      <c r="J66" s="18">
+        <v>0</v>
+      </c>
+      <c r="K66" s="18">
+        <v>0</v>
+      </c>
+      <c r="L66" s="18">
+        <v>0</v>
+      </c>
+      <c r="M66" s="18">
+        <v>0</v>
+      </c>
+      <c r="N66" s="18">
+        <v>0</v>
+      </c>
+      <c r="O66" s="18">
+        <v>0</v>
+      </c>
+      <c r="P66" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A67">
+      <c r="A67" s="18">
         <v>66</v>
       </c>
-      <c r="B67">
+      <c r="B67" s="18">
         <v>2</v>
       </c>
-      <c r="C67">
+      <c r="C67" s="18">
         <v>2</v>
       </c>
-      <c r="D67">
-        <v>1</v>
-      </c>
-      <c r="E67">
-        <v>1</v>
-      </c>
-      <c r="F67">
-        <v>0</v>
-      </c>
-      <c r="G67">
-        <v>0</v>
-      </c>
-      <c r="H67">
-        <v>1</v>
-      </c>
-      <c r="I67">
-        <v>0</v>
-      </c>
-      <c r="J67">
-        <v>0</v>
-      </c>
-      <c r="K67">
-        <v>0</v>
-      </c>
-      <c r="L67">
-        <v>0</v>
-      </c>
-      <c r="M67">
-        <v>0</v>
-      </c>
-      <c r="N67">
-        <v>1</v>
-      </c>
-      <c r="O67">
-        <v>0</v>
-      </c>
-      <c r="P67">
+      <c r="D67" s="18">
+        <v>1</v>
+      </c>
+      <c r="E67" s="18">
+        <v>1</v>
+      </c>
+      <c r="F67" s="18">
+        <v>0</v>
+      </c>
+      <c r="G67" s="18">
+        <v>0</v>
+      </c>
+      <c r="H67" s="18">
+        <v>1</v>
+      </c>
+      <c r="I67" s="18">
+        <v>1</v>
+      </c>
+      <c r="J67" s="18">
+        <v>0</v>
+      </c>
+      <c r="K67" s="18">
+        <v>1</v>
+      </c>
+      <c r="L67" s="18">
+        <v>0</v>
+      </c>
+      <c r="M67" s="18">
+        <v>0</v>
+      </c>
+      <c r="N67" s="18">
+        <v>1</v>
+      </c>
+      <c r="O67" s="18">
+        <v>0</v>
+      </c>
+      <c r="P67" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A68">
+      <c r="A68" s="18">
         <v>67</v>
       </c>
-      <c r="B68">
+      <c r="B68" s="18">
         <v>2</v>
       </c>
-      <c r="C68">
+      <c r="C68" s="18">
         <v>2</v>
       </c>
-      <c r="D68">
-        <v>1</v>
-      </c>
-      <c r="E68">
-        <v>1</v>
-      </c>
-      <c r="F68">
-        <v>0</v>
-      </c>
-      <c r="G68">
-        <v>0</v>
-      </c>
-      <c r="H68">
-        <v>1</v>
-      </c>
-      <c r="I68">
-        <v>0</v>
-      </c>
-      <c r="J68">
-        <v>0</v>
-      </c>
-      <c r="K68">
-        <v>0</v>
-      </c>
-      <c r="L68">
-        <v>0</v>
-      </c>
-      <c r="M68">
-        <v>0</v>
-      </c>
-      <c r="N68">
-        <v>0</v>
-      </c>
-      <c r="O68">
-        <v>1</v>
-      </c>
-      <c r="P68">
+      <c r="D68" s="18">
+        <v>1</v>
+      </c>
+      <c r="E68" s="18">
+        <v>1</v>
+      </c>
+      <c r="F68" s="18">
+        <v>0</v>
+      </c>
+      <c r="G68" s="18">
+        <v>0</v>
+      </c>
+      <c r="H68" s="18">
+        <v>1</v>
+      </c>
+      <c r="I68" s="18">
+        <v>0</v>
+      </c>
+      <c r="J68" s="18">
+        <v>0</v>
+      </c>
+      <c r="K68" s="18">
+        <v>0</v>
+      </c>
+      <c r="L68" s="18">
+        <v>0</v>
+      </c>
+      <c r="M68" s="18">
+        <v>0</v>
+      </c>
+      <c r="N68" s="18">
+        <v>0</v>
+      </c>
+      <c r="O68" s="18">
+        <v>1</v>
+      </c>
+      <c r="P68" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A69">
+      <c r="A69" s="18">
         <v>68</v>
       </c>
-      <c r="B69">
+      <c r="B69" s="18">
         <v>2</v>
       </c>
-      <c r="C69">
+      <c r="C69" s="18">
         <v>2</v>
       </c>
-      <c r="D69">
-        <v>1</v>
-      </c>
-      <c r="E69">
-        <v>1</v>
-      </c>
-      <c r="F69">
-        <v>0</v>
-      </c>
-      <c r="G69">
-        <v>0</v>
-      </c>
-      <c r="H69">
-        <v>1</v>
-      </c>
-      <c r="I69">
-        <v>0</v>
-      </c>
-      <c r="J69">
-        <v>0</v>
-      </c>
-      <c r="K69">
-        <v>0</v>
-      </c>
-      <c r="L69">
-        <v>0</v>
-      </c>
-      <c r="M69">
-        <v>0</v>
-      </c>
-      <c r="N69">
-        <v>1</v>
-      </c>
-      <c r="O69">
-        <v>1</v>
-      </c>
-      <c r="P69">
+      <c r="D69" s="18">
+        <v>1</v>
+      </c>
+      <c r="E69" s="18">
+        <v>1</v>
+      </c>
+      <c r="F69" s="18">
+        <v>0</v>
+      </c>
+      <c r="G69" s="18">
+        <v>0</v>
+      </c>
+      <c r="H69" s="18">
+        <v>1</v>
+      </c>
+      <c r="I69" s="18">
+        <v>1</v>
+      </c>
+      <c r="J69" s="18">
+        <v>0</v>
+      </c>
+      <c r="K69" s="18">
+        <v>1</v>
+      </c>
+      <c r="L69" s="18">
+        <v>0</v>
+      </c>
+      <c r="M69" s="18">
+        <v>0</v>
+      </c>
+      <c r="N69" s="18">
+        <v>1</v>
+      </c>
+      <c r="O69" s="18">
+        <v>1</v>
+      </c>
+      <c r="P69" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A70">
+      <c r="A70" s="18">
         <v>69</v>
       </c>
-      <c r="B70">
+      <c r="B70" s="18">
         <v>2</v>
       </c>
-      <c r="C70">
+      <c r="C70" s="18">
         <v>2</v>
       </c>
-      <c r="D70">
-        <v>1</v>
-      </c>
-      <c r="E70">
-        <v>1</v>
-      </c>
-      <c r="F70">
-        <v>0</v>
-      </c>
-      <c r="G70">
-        <v>0</v>
-      </c>
-      <c r="H70">
-        <v>1</v>
-      </c>
-      <c r="I70">
-        <v>0</v>
-      </c>
-      <c r="J70">
-        <v>0</v>
-      </c>
-      <c r="K70">
-        <v>0</v>
-      </c>
-      <c r="L70">
-        <v>0</v>
-      </c>
-      <c r="M70">
-        <v>0</v>
-      </c>
-      <c r="N70">
-        <v>0</v>
-      </c>
-      <c r="O70">
-        <v>1</v>
-      </c>
-      <c r="P70">
+      <c r="D70" s="18">
+        <v>1</v>
+      </c>
+      <c r="E70" s="18">
+        <v>1</v>
+      </c>
+      <c r="F70" s="18">
+        <v>0</v>
+      </c>
+      <c r="G70" s="18">
+        <v>0</v>
+      </c>
+      <c r="H70" s="18">
+        <v>1</v>
+      </c>
+      <c r="I70" s="18">
+        <v>0</v>
+      </c>
+      <c r="J70" s="18">
+        <v>0</v>
+      </c>
+      <c r="K70" s="18">
+        <v>0</v>
+      </c>
+      <c r="L70" s="18">
+        <v>0</v>
+      </c>
+      <c r="M70" s="18">
+        <v>0</v>
+      </c>
+      <c r="N70" s="18">
+        <v>0</v>
+      </c>
+      <c r="O70" s="18">
+        <v>1</v>
+      </c>
+      <c r="P70" s="18">
         <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A71">
+      <c r="A71" s="18">
         <v>70</v>
       </c>
-      <c r="B71">
+      <c r="B71" s="18">
         <v>2</v>
       </c>
-      <c r="C71">
+      <c r="C71" s="18">
         <v>2</v>
       </c>
-      <c r="D71">
-        <v>1</v>
-      </c>
-      <c r="E71">
-        <v>1</v>
-      </c>
-      <c r="F71">
-        <v>0</v>
-      </c>
-      <c r="G71">
-        <v>0</v>
-      </c>
-      <c r="H71">
-        <v>1</v>
-      </c>
-      <c r="I71">
-        <v>0</v>
-      </c>
-      <c r="J71">
-        <v>0</v>
-      </c>
-      <c r="K71">
-        <v>0</v>
-      </c>
-      <c r="M71">
-        <v>0</v>
-      </c>
-      <c r="N71">
-        <v>1</v>
-      </c>
-      <c r="O71">
-        <v>1</v>
-      </c>
-      <c r="P71">
+      <c r="D71" s="18">
+        <v>1</v>
+      </c>
+      <c r="E71" s="18">
+        <v>1</v>
+      </c>
+      <c r="F71" s="18">
+        <v>0</v>
+      </c>
+      <c r="G71" s="18">
+        <v>0</v>
+      </c>
+      <c r="H71" s="18">
+        <v>1</v>
+      </c>
+      <c r="I71" s="18">
+        <v>1</v>
+      </c>
+      <c r="J71" s="18">
+        <v>0</v>
+      </c>
+      <c r="K71" s="18">
+        <v>1</v>
+      </c>
+      <c r="M71" s="18">
+        <v>0</v>
+      </c>
+      <c r="N71" s="18">
+        <v>1</v>
+      </c>
+      <c r="O71" s="18">
+        <v>1</v>
+      </c>
+      <c r="P71" s="18">
         <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A72">
+      <c r="A72" s="18">
         <v>71</v>
       </c>
-      <c r="B72">
+      <c r="B72" s="18">
         <v>2</v>
       </c>
-      <c r="C72">
+      <c r="C72" s="18">
         <v>2</v>
       </c>
-      <c r="D72">
-        <v>1</v>
-      </c>
-      <c r="E72">
-        <v>1</v>
-      </c>
-      <c r="F72">
-        <v>1</v>
-      </c>
-      <c r="G72">
-        <v>0</v>
-      </c>
-      <c r="H72">
-        <v>1</v>
-      </c>
-      <c r="I72">
-        <v>0</v>
-      </c>
-      <c r="J72">
-        <v>0</v>
-      </c>
-      <c r="K72">
-        <v>0</v>
-      </c>
-      <c r="L72">
-        <v>0</v>
-      </c>
-      <c r="M72">
-        <v>0</v>
-      </c>
-      <c r="N72">
-        <v>0</v>
-      </c>
-      <c r="O72">
-        <v>0</v>
-      </c>
-      <c r="P72">
+      <c r="D72" s="18">
+        <v>1</v>
+      </c>
+      <c r="E72" s="18">
+        <v>1</v>
+      </c>
+      <c r="F72" s="18">
+        <v>1</v>
+      </c>
+      <c r="G72" s="18">
+        <v>0</v>
+      </c>
+      <c r="H72" s="18">
+        <v>1</v>
+      </c>
+      <c r="I72" s="18">
+        <v>0</v>
+      </c>
+      <c r="J72" s="18">
+        <v>0</v>
+      </c>
+      <c r="K72" s="18">
+        <v>0</v>
+      </c>
+      <c r="L72" s="18">
+        <v>0</v>
+      </c>
+      <c r="M72" s="18">
+        <v>0</v>
+      </c>
+      <c r="N72" s="18">
+        <v>0</v>
+      </c>
+      <c r="O72" s="18">
+        <v>0</v>
+      </c>
+      <c r="P72" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A73">
+      <c r="A73" s="18">
         <v>72</v>
       </c>
-      <c r="B73">
+      <c r="B73" s="18">
         <v>2</v>
       </c>
-      <c r="C73">
+      <c r="C73" s="18">
         <v>2</v>
       </c>
-      <c r="D73">
-        <v>1</v>
-      </c>
-      <c r="E73">
-        <v>1</v>
-      </c>
-      <c r="F73">
-        <v>1</v>
-      </c>
-      <c r="G73">
-        <v>0</v>
-      </c>
-      <c r="H73">
-        <v>1</v>
-      </c>
-      <c r="I73">
-        <v>0</v>
-      </c>
-      <c r="J73">
-        <v>0</v>
-      </c>
-      <c r="K73">
-        <v>0</v>
-      </c>
-      <c r="L73">
-        <v>1</v>
-      </c>
-      <c r="M73">
-        <v>0</v>
-      </c>
-      <c r="N73">
-        <v>1</v>
-      </c>
-      <c r="O73">
-        <v>0</v>
-      </c>
-      <c r="P73">
+      <c r="D73" s="18">
+        <v>1</v>
+      </c>
+      <c r="E73" s="18">
+        <v>1</v>
+      </c>
+      <c r="F73" s="18">
+        <v>1</v>
+      </c>
+      <c r="G73" s="18">
+        <v>0</v>
+      </c>
+      <c r="H73" s="18">
+        <v>1</v>
+      </c>
+      <c r="I73" s="18">
+        <v>1</v>
+      </c>
+      <c r="J73" s="18">
+        <v>0</v>
+      </c>
+      <c r="K73" s="18">
+        <v>1</v>
+      </c>
+      <c r="L73" s="18">
+        <v>1</v>
+      </c>
+      <c r="M73" s="18">
+        <v>0</v>
+      </c>
+      <c r="N73" s="18">
+        <v>1</v>
+      </c>
+      <c r="O73" s="18">
+        <v>0</v>
+      </c>
+      <c r="P73" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A74">
+      <c r="A74" s="18">
         <v>73</v>
       </c>
-      <c r="B74">
+      <c r="B74" s="18">
         <v>2</v>
       </c>
-      <c r="C74">
+      <c r="C74" s="18">
         <v>2</v>
       </c>
-      <c r="D74">
-        <v>1</v>
-      </c>
-      <c r="E74">
-        <v>1</v>
-      </c>
-      <c r="F74">
-        <v>1</v>
-      </c>
-      <c r="G74">
-        <v>0</v>
-      </c>
-      <c r="H74">
-        <v>1</v>
-      </c>
-      <c r="I74">
-        <v>0</v>
-      </c>
-      <c r="J74">
-        <v>0</v>
-      </c>
-      <c r="K74">
-        <v>0</v>
-      </c>
-      <c r="L74">
-        <v>0</v>
-      </c>
-      <c r="M74">
-        <v>0</v>
-      </c>
-      <c r="N74">
-        <v>0</v>
-      </c>
-      <c r="O74">
-        <v>1</v>
-      </c>
-      <c r="P74">
+      <c r="D74" s="18">
+        <v>1</v>
+      </c>
+      <c r="E74" s="18">
+        <v>1</v>
+      </c>
+      <c r="F74" s="18">
+        <v>1</v>
+      </c>
+      <c r="G74" s="18">
+        <v>0</v>
+      </c>
+      <c r="H74" s="18">
+        <v>1</v>
+      </c>
+      <c r="I74" s="18">
+        <v>0</v>
+      </c>
+      <c r="J74" s="18">
+        <v>0</v>
+      </c>
+      <c r="K74" s="18">
+        <v>0</v>
+      </c>
+      <c r="L74" s="18">
+        <v>0</v>
+      </c>
+      <c r="M74" s="18">
+        <v>0</v>
+      </c>
+      <c r="N74" s="18">
+        <v>0</v>
+      </c>
+      <c r="O74" s="18">
+        <v>1</v>
+      </c>
+      <c r="P74" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A75">
+      <c r="A75" s="18">
         <v>74</v>
       </c>
-      <c r="B75">
+      <c r="B75" s="18">
         <v>2</v>
       </c>
-      <c r="C75">
+      <c r="C75" s="18">
         <v>2</v>
       </c>
-      <c r="D75">
-        <v>1</v>
-      </c>
-      <c r="E75">
-        <v>1</v>
-      </c>
-      <c r="F75">
-        <v>1</v>
-      </c>
-      <c r="G75">
-        <v>0</v>
-      </c>
-      <c r="H75">
-        <v>1</v>
-      </c>
-      <c r="I75">
-        <v>0</v>
-      </c>
-      <c r="J75">
-        <v>0</v>
-      </c>
-      <c r="K75">
-        <v>0</v>
-      </c>
-      <c r="L75">
-        <v>1</v>
-      </c>
-      <c r="M75">
-        <v>0</v>
-      </c>
-      <c r="N75">
-        <v>1</v>
-      </c>
-      <c r="O75">
-        <v>1</v>
-      </c>
-      <c r="P75">
+      <c r="D75" s="18">
+        <v>1</v>
+      </c>
+      <c r="E75" s="18">
+        <v>1</v>
+      </c>
+      <c r="F75" s="18">
+        <v>1</v>
+      </c>
+      <c r="G75" s="18">
+        <v>0</v>
+      </c>
+      <c r="H75" s="18">
+        <v>1</v>
+      </c>
+      <c r="I75" s="18">
+        <v>1</v>
+      </c>
+      <c r="J75" s="18">
+        <v>0</v>
+      </c>
+      <c r="K75" s="18">
+        <v>1</v>
+      </c>
+      <c r="L75" s="18">
+        <v>1</v>
+      </c>
+      <c r="M75" s="18">
+        <v>0</v>
+      </c>
+      <c r="N75" s="18">
+        <v>1</v>
+      </c>
+      <c r="O75" s="18">
+        <v>1</v>
+      </c>
+      <c r="P75" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A76">
+      <c r="A76" s="18">
         <v>75</v>
       </c>
-      <c r="B76">
+      <c r="B76" s="18">
         <v>2</v>
       </c>
-      <c r="C76">
+      <c r="C76" s="18">
         <v>2</v>
       </c>
-      <c r="D76">
-        <v>1</v>
-      </c>
-      <c r="E76">
-        <v>1</v>
-      </c>
-      <c r="F76">
-        <v>1</v>
-      </c>
-      <c r="G76">
-        <v>0</v>
-      </c>
-      <c r="H76">
-        <v>1</v>
-      </c>
-      <c r="I76">
-        <v>0</v>
-      </c>
-      <c r="J76">
-        <v>0</v>
-      </c>
-      <c r="K76">
-        <v>0</v>
-      </c>
-      <c r="L76">
-        <v>0</v>
-      </c>
-      <c r="M76">
-        <v>0</v>
-      </c>
-      <c r="N76">
-        <v>0</v>
-      </c>
-      <c r="O76">
-        <v>1</v>
-      </c>
-      <c r="P76">
+      <c r="D76" s="18">
+        <v>1</v>
+      </c>
+      <c r="E76" s="18">
+        <v>1</v>
+      </c>
+      <c r="F76" s="18">
+        <v>1</v>
+      </c>
+      <c r="G76" s="18">
+        <v>0</v>
+      </c>
+      <c r="H76" s="18">
+        <v>1</v>
+      </c>
+      <c r="I76" s="18">
+        <v>0</v>
+      </c>
+      <c r="J76" s="18">
+        <v>0</v>
+      </c>
+      <c r="K76" s="18">
+        <v>0</v>
+      </c>
+      <c r="L76" s="18">
+        <v>0</v>
+      </c>
+      <c r="M76" s="18">
+        <v>0</v>
+      </c>
+      <c r="N76" s="18">
+        <v>0</v>
+      </c>
+      <c r="O76" s="18">
+        <v>1</v>
+      </c>
+      <c r="P76" s="18">
         <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A77">
+      <c r="A77" s="18">
         <v>76</v>
       </c>
-      <c r="B77">
+      <c r="B77" s="18">
         <v>2</v>
       </c>
-      <c r="C77">
+      <c r="C77" s="18">
         <v>2</v>
       </c>
-      <c r="D77">
-        <v>1</v>
-      </c>
-      <c r="E77">
-        <v>1</v>
-      </c>
-      <c r="F77">
-        <v>1</v>
-      </c>
-      <c r="G77">
-        <v>0</v>
-      </c>
-      <c r="H77">
-        <v>1</v>
-      </c>
-      <c r="I77">
-        <v>0</v>
-      </c>
-      <c r="J77">
-        <v>0</v>
-      </c>
-      <c r="K77">
-        <v>0</v>
-      </c>
-      <c r="L77">
-        <v>1</v>
-      </c>
-      <c r="M77">
-        <v>0</v>
-      </c>
-      <c r="N77">
-        <v>1</v>
-      </c>
-      <c r="O77">
-        <v>1</v>
-      </c>
-      <c r="P77">
+      <c r="D77" s="18">
+        <v>1</v>
+      </c>
+      <c r="E77" s="18">
+        <v>1</v>
+      </c>
+      <c r="F77" s="18">
+        <v>1</v>
+      </c>
+      <c r="G77" s="18">
+        <v>0</v>
+      </c>
+      <c r="H77" s="18">
+        <v>1</v>
+      </c>
+      <c r="I77" s="18">
+        <v>1</v>
+      </c>
+      <c r="J77" s="18">
+        <v>0</v>
+      </c>
+      <c r="K77" s="18">
+        <v>1</v>
+      </c>
+      <c r="L77" s="18">
+        <v>1</v>
+      </c>
+      <c r="M77" s="18">
+        <v>0</v>
+      </c>
+      <c r="N77" s="18">
+        <v>1</v>
+      </c>
+      <c r="O77" s="18">
+        <v>1</v>
+      </c>
+      <c r="P77" s="18">
         <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A78">
+      <c r="A78" s="18">
         <v>77</v>
       </c>
-      <c r="B78">
-        <v>1</v>
-      </c>
-      <c r="C78">
-        <v>1</v>
-      </c>
-      <c r="D78">
-        <v>1</v>
-      </c>
-      <c r="E78">
-        <v>1</v>
-      </c>
-      <c r="F78">
-        <v>0</v>
-      </c>
-      <c r="G78">
-        <v>0</v>
-      </c>
-      <c r="H78">
-        <v>0</v>
-      </c>
-      <c r="I78">
-        <v>0</v>
-      </c>
-      <c r="J78">
-        <v>0</v>
-      </c>
-      <c r="K78">
-        <v>0</v>
-      </c>
-      <c r="L78">
-        <v>0</v>
-      </c>
-      <c r="M78">
-        <v>0</v>
-      </c>
-      <c r="N78">
-        <v>0</v>
-      </c>
-      <c r="O78">
-        <v>0</v>
-      </c>
-      <c r="P78">
+      <c r="B78" s="18">
+        <v>1</v>
+      </c>
+      <c r="C78" s="18">
+        <v>1</v>
+      </c>
+      <c r="D78" s="18">
+        <v>1</v>
+      </c>
+      <c r="E78" s="18">
+        <v>1</v>
+      </c>
+      <c r="F78" s="18">
+        <v>0</v>
+      </c>
+      <c r="G78" s="18">
+        <v>0</v>
+      </c>
+      <c r="H78" s="18">
+        <v>0</v>
+      </c>
+      <c r="I78" s="18">
+        <v>0</v>
+      </c>
+      <c r="J78" s="18">
+        <v>0</v>
+      </c>
+      <c r="K78" s="18">
+        <v>0</v>
+      </c>
+      <c r="L78" s="18">
+        <v>0</v>
+      </c>
+      <c r="M78" s="18">
+        <v>0</v>
+      </c>
+      <c r="N78" s="18">
+        <v>0</v>
+      </c>
+      <c r="O78" s="18">
+        <v>0</v>
+      </c>
+      <c r="P78" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A79">
+      <c r="A79" s="18">
         <v>78</v>
       </c>
-      <c r="B79">
-        <v>1</v>
-      </c>
-      <c r="C79">
-        <v>1</v>
-      </c>
-      <c r="D79">
-        <v>1</v>
-      </c>
-      <c r="E79">
-        <v>1</v>
-      </c>
-      <c r="F79">
-        <v>0</v>
-      </c>
-      <c r="G79">
-        <v>0</v>
-      </c>
-      <c r="H79">
-        <v>0</v>
-      </c>
-      <c r="I79">
-        <v>1</v>
-      </c>
-      <c r="J79">
-        <v>1</v>
-      </c>
-      <c r="K79">
-        <v>0</v>
-      </c>
-      <c r="L79">
-        <v>0</v>
-      </c>
-      <c r="M79">
-        <v>0</v>
-      </c>
-      <c r="N79">
-        <v>0</v>
-      </c>
-      <c r="O79">
-        <v>0</v>
-      </c>
-      <c r="P79">
+      <c r="B79" s="18">
+        <v>1</v>
+      </c>
+      <c r="C79" s="18">
+        <v>1</v>
+      </c>
+      <c r="D79" s="18">
+        <v>1</v>
+      </c>
+      <c r="E79" s="18">
+        <v>1</v>
+      </c>
+      <c r="F79" s="18">
+        <v>0</v>
+      </c>
+      <c r="G79" s="18">
+        <v>0</v>
+      </c>
+      <c r="H79" s="18">
+        <v>0</v>
+      </c>
+      <c r="I79" s="18">
+        <v>1</v>
+      </c>
+      <c r="J79" s="18">
+        <v>1</v>
+      </c>
+      <c r="K79" s="18">
+        <v>0</v>
+      </c>
+      <c r="L79" s="18">
+        <v>0</v>
+      </c>
+      <c r="M79" s="18">
+        <v>0</v>
+      </c>
+      <c r="N79" s="18">
+        <v>0</v>
+      </c>
+      <c r="O79" s="18">
+        <v>0</v>
+      </c>
+      <c r="P79" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A80">
+      <c r="A80" s="18">
         <v>79</v>
       </c>
-      <c r="B80">
-        <v>1</v>
-      </c>
-      <c r="C80">
-        <v>1</v>
-      </c>
-      <c r="D80">
-        <v>1</v>
-      </c>
-      <c r="E80">
-        <v>1</v>
-      </c>
-      <c r="F80">
-        <v>0</v>
-      </c>
-      <c r="G80">
-        <v>0</v>
-      </c>
-      <c r="H80">
-        <v>0</v>
-      </c>
-      <c r="I80">
-        <v>1</v>
-      </c>
-      <c r="J80">
-        <v>0</v>
-      </c>
-      <c r="K80">
-        <v>1</v>
-      </c>
-      <c r="L80">
-        <v>0</v>
-      </c>
-      <c r="M80">
-        <v>0</v>
-      </c>
-      <c r="N80">
-        <v>0</v>
-      </c>
-      <c r="O80">
-        <v>0</v>
-      </c>
-      <c r="P80">
+      <c r="B80" s="18">
+        <v>1</v>
+      </c>
+      <c r="C80" s="18">
+        <v>1</v>
+      </c>
+      <c r="D80" s="18">
+        <v>1</v>
+      </c>
+      <c r="E80" s="18">
+        <v>1</v>
+      </c>
+      <c r="F80" s="18">
+        <v>0</v>
+      </c>
+      <c r="G80" s="18">
+        <v>0</v>
+      </c>
+      <c r="H80" s="18">
+        <v>0</v>
+      </c>
+      <c r="I80" s="18">
+        <v>1</v>
+      </c>
+      <c r="J80" s="18">
+        <v>0</v>
+      </c>
+      <c r="K80" s="18">
+        <v>1</v>
+      </c>
+      <c r="L80" s="18">
+        <v>0</v>
+      </c>
+      <c r="M80" s="18">
+        <v>0</v>
+      </c>
+      <c r="N80" s="18">
+        <v>0</v>
+      </c>
+      <c r="O80" s="18">
+        <v>0</v>
+      </c>
+      <c r="P80" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A81">
+      <c r="A81" s="18">
         <v>80</v>
       </c>
-      <c r="B81">
-        <v>1</v>
-      </c>
-      <c r="C81">
-        <v>1</v>
-      </c>
-      <c r="D81">
-        <v>1</v>
-      </c>
-      <c r="E81">
-        <v>1</v>
-      </c>
-      <c r="F81">
-        <v>1</v>
-      </c>
-      <c r="G81">
-        <v>0</v>
-      </c>
-      <c r="H81">
-        <v>0</v>
-      </c>
-      <c r="I81">
-        <v>0</v>
-      </c>
-      <c r="J81">
-        <v>0</v>
-      </c>
-      <c r="K81">
-        <v>0</v>
-      </c>
-      <c r="L81">
-        <v>0</v>
-      </c>
-      <c r="M81">
-        <v>0</v>
-      </c>
-      <c r="N81">
-        <v>0</v>
-      </c>
-      <c r="O81">
-        <v>0</v>
-      </c>
-      <c r="P81">
+      <c r="B81" s="18">
+        <v>1</v>
+      </c>
+      <c r="C81" s="18">
+        <v>1</v>
+      </c>
+      <c r="D81" s="18">
+        <v>1</v>
+      </c>
+      <c r="E81" s="18">
+        <v>1</v>
+      </c>
+      <c r="F81" s="18">
+        <v>1</v>
+      </c>
+      <c r="G81" s="18">
+        <v>0</v>
+      </c>
+      <c r="H81" s="18">
+        <v>0</v>
+      </c>
+      <c r="I81" s="18">
+        <v>0</v>
+      </c>
+      <c r="J81" s="18">
+        <v>0</v>
+      </c>
+      <c r="K81" s="18">
+        <v>0</v>
+      </c>
+      <c r="L81" s="18">
+        <v>0</v>
+      </c>
+      <c r="M81" s="18">
+        <v>0</v>
+      </c>
+      <c r="N81" s="18">
+        <v>0</v>
+      </c>
+      <c r="O81" s="18">
+        <v>0</v>
+      </c>
+      <c r="P81" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A82">
+      <c r="A82" s="18">
         <v>81</v>
       </c>
-      <c r="B82">
-        <v>1</v>
-      </c>
-      <c r="C82">
-        <v>1</v>
-      </c>
-      <c r="D82">
-        <v>1</v>
-      </c>
-      <c r="E82">
-        <v>1</v>
-      </c>
-      <c r="F82">
-        <v>1</v>
-      </c>
-      <c r="G82">
-        <v>0</v>
-      </c>
-      <c r="H82">
-        <v>0</v>
-      </c>
-      <c r="I82">
-        <v>0</v>
-      </c>
-      <c r="J82">
-        <v>0</v>
-      </c>
-      <c r="K82">
-        <v>0</v>
-      </c>
-      <c r="L82">
-        <v>1</v>
-      </c>
-      <c r="M82">
-        <v>0</v>
-      </c>
-      <c r="N82">
-        <v>0</v>
-      </c>
-      <c r="O82">
-        <v>0</v>
-      </c>
-      <c r="P82">
+      <c r="B82" s="18">
+        <v>1</v>
+      </c>
+      <c r="C82" s="18">
+        <v>1</v>
+      </c>
+      <c r="D82" s="18">
+        <v>1</v>
+      </c>
+      <c r="E82" s="18">
+        <v>1</v>
+      </c>
+      <c r="F82" s="18">
+        <v>1</v>
+      </c>
+      <c r="G82" s="18">
+        <v>0</v>
+      </c>
+      <c r="H82" s="18">
+        <v>0</v>
+      </c>
+      <c r="I82" s="18">
+        <v>1</v>
+      </c>
+      <c r="J82" s="18">
+        <v>0</v>
+      </c>
+      <c r="K82" s="18">
+        <v>1</v>
+      </c>
+      <c r="L82" s="18">
+        <v>1</v>
+      </c>
+      <c r="M82" s="18">
+        <v>0</v>
+      </c>
+      <c r="N82" s="18">
+        <v>0</v>
+      </c>
+      <c r="O82" s="18">
+        <v>0</v>
+      </c>
+      <c r="P82" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A83">
+      <c r="A83" s="18">
         <v>82</v>
       </c>
-      <c r="B83">
-        <v>1</v>
-      </c>
-      <c r="C83">
-        <v>1</v>
-      </c>
-      <c r="D83">
-        <v>1</v>
-      </c>
-      <c r="E83">
-        <v>1</v>
-      </c>
-      <c r="F83">
-        <v>1</v>
-      </c>
-      <c r="G83">
-        <v>1</v>
-      </c>
-      <c r="H83">
-        <v>0</v>
-      </c>
-      <c r="I83">
-        <v>0</v>
-      </c>
-      <c r="J83">
-        <v>0</v>
-      </c>
-      <c r="K83">
-        <v>0</v>
-      </c>
-      <c r="L83">
-        <v>0</v>
-      </c>
-      <c r="M83">
-        <v>0</v>
-      </c>
-      <c r="N83">
-        <v>0</v>
-      </c>
-      <c r="O83">
-        <v>0</v>
-      </c>
-      <c r="P83">
+      <c r="B83" s="18">
+        <v>1</v>
+      </c>
+      <c r="C83" s="18">
+        <v>1</v>
+      </c>
+      <c r="D83" s="18">
+        <v>1</v>
+      </c>
+      <c r="E83" s="18">
+        <v>1</v>
+      </c>
+      <c r="F83" s="18">
+        <v>1</v>
+      </c>
+      <c r="G83" s="18">
+        <v>1</v>
+      </c>
+      <c r="H83" s="18">
+        <v>0</v>
+      </c>
+      <c r="I83" s="18">
+        <v>0</v>
+      </c>
+      <c r="J83" s="18">
+        <v>0</v>
+      </c>
+      <c r="K83" s="18">
+        <v>0</v>
+      </c>
+      <c r="L83" s="18">
+        <v>0</v>
+      </c>
+      <c r="M83" s="18">
+        <v>0</v>
+      </c>
+      <c r="N83" s="18">
+        <v>0</v>
+      </c>
+      <c r="O83" s="18">
+        <v>0</v>
+      </c>
+      <c r="P83" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A84">
+      <c r="A84" s="18">
         <v>83</v>
       </c>
-      <c r="B84">
-        <v>1</v>
-      </c>
-      <c r="C84">
-        <v>1</v>
-      </c>
-      <c r="D84">
-        <v>1</v>
-      </c>
-      <c r="E84">
-        <v>1</v>
-      </c>
-      <c r="F84">
-        <v>1</v>
-      </c>
-      <c r="G84">
-        <v>1</v>
-      </c>
-      <c r="H84">
-        <v>0</v>
-      </c>
-      <c r="I84">
-        <v>0</v>
-      </c>
-      <c r="J84">
-        <v>0</v>
-      </c>
-      <c r="K84">
-        <v>0</v>
-      </c>
-      <c r="L84">
-        <v>1</v>
-      </c>
-      <c r="M84">
-        <v>1</v>
-      </c>
-      <c r="N84">
-        <v>0</v>
-      </c>
-      <c r="O84">
-        <v>0</v>
-      </c>
-      <c r="P84">
+      <c r="B84" s="18">
+        <v>1</v>
+      </c>
+      <c r="C84" s="18">
+        <v>1</v>
+      </c>
+      <c r="D84" s="18">
+        <v>1</v>
+      </c>
+      <c r="E84" s="18">
+        <v>1</v>
+      </c>
+      <c r="F84" s="18">
+        <v>1</v>
+      </c>
+      <c r="G84" s="18">
+        <v>1</v>
+      </c>
+      <c r="H84" s="18">
+        <v>0</v>
+      </c>
+      <c r="I84" s="18">
+        <v>1</v>
+      </c>
+      <c r="J84" s="18">
+        <v>0</v>
+      </c>
+      <c r="K84" s="18">
+        <v>1</v>
+      </c>
+      <c r="L84" s="18">
+        <v>1</v>
+      </c>
+      <c r="M84" s="18">
+        <v>1</v>
+      </c>
+      <c r="N84" s="18">
+        <v>0</v>
+      </c>
+      <c r="O84" s="18">
+        <v>0</v>
+      </c>
+      <c r="P84" s="18">
         <v>0</v>
       </c>
     </row>
@@ -19530,12 +19534,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004DC30C93E793E04387733ADA109240D8" ma:contentTypeVersion="13" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="5eb3f4b36b8f7425a1062835f93c1120">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8710636d-9857-4743-9e78-7d58039af9bd" xmlns:ns3="18f0c47a-89de-4256-972f-e1abe907faa5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5e081d151675870551c4837d815c147d" ns2:_="" ns3:_="">
     <xsd:import namespace="8710636d-9857-4743-9e78-7d58039af9bd"/>
@@ -19758,6 +19756,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -19768,15 +19772,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F65D9F54-FEA5-490A-B7A0-2D02DE281B33}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7F1519CC-08DC-4839-8FC3-FF6604AD15EA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -19795,6 +19790,15 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F65D9F54-FEA5-490A-B7A0-2D02DE281B33}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6A76B406-ADC6-4F08-AF30-0F865624D0E8}">
   <ds:schemaRefs>
